--- a/Assets/06.Table/DimensionDungeon.xlsx
+++ b/Assets/06.Table/DimensionDungeon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03948C50-1ACA-400E-8978-9108F229B548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE227A6-CC91-4B84-86FE-EDE147F90D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="244">
   <si>
     <t>id</t>
   </si>
@@ -93,10 +93,6 @@
     <t>자</t>
   </si>
   <si>
-    <t>자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GachaCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -852,16 +848,53 @@
   </si>
   <si>
     <t>20000,1,1,1</t>
+  </si>
+  <si>
+    <t>22000,1,1,1</t>
+  </si>
+  <si>
+    <t>24000,1,1,1</t>
+  </si>
+  <si>
+    <t>26000,1,1,1</t>
+  </si>
+  <si>
+    <t>28000,1,1,1</t>
+  </si>
+  <si>
+    <t>30000,1,1,1</t>
+  </si>
+  <si>
+    <t>32000,1,1,1</t>
+  </si>
+  <si>
+    <t>34000,1,1,1</t>
+  </si>
+  <si>
+    <t>36000,1,1,1</t>
+  </si>
+  <si>
+    <t>38000,1,1,1</t>
+  </si>
+  <si>
+    <t>40000,1,1,1</t>
+  </si>
+  <si>
+    <t>42000,1,1,1</t>
+  </si>
+  <si>
+    <t>44000,1,1,1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.0"/>
     <numFmt numFmtId="178" formatCode="#,##0.000"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00000000000000_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1049,7 +1082,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1134,6 +1167,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1152,7 +1188,21 @@
     <cellStyle name="입력" xfId="2" builtinId="20"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1470,12 +1520,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1529,13 +1579,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>8</v>
@@ -1594,10 +1644,10 @@
         <v>5</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P2" s="4">
         <v>15000</v>
@@ -1650,10 +1700,10 @@
         <v>5</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P3" s="4">
         <v>15000</v>
@@ -1662,7 +1712,7 @@
         <v>10</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1706,10 +1756,10 @@
         <v>5</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P4" s="4">
         <v>15000</v>
@@ -1718,7 +1768,7 @@
         <v>10</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1762,10 +1812,10 @@
         <v>5</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P5" s="4">
         <v>15000</v>
@@ -1774,7 +1824,7 @@
         <v>10</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1818,10 +1868,10 @@
         <v>5</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P6" s="4">
         <v>15000</v>
@@ -1830,7 +1880,7 @@
         <v>10</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1874,10 +1924,10 @@
         <v>5</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P7" s="4">
         <v>15000</v>
@@ -1886,7 +1936,7 @@
         <v>10</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1930,10 +1980,10 @@
         <v>5</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P8" s="4">
         <v>15000</v>
@@ -1942,7 +1992,7 @@
         <v>10</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -1986,10 +2036,10 @@
         <v>5</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P9" s="4">
         <v>15000</v>
@@ -1998,7 +2048,7 @@
         <v>10</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -2042,10 +2092,10 @@
         <v>5</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P10" s="4">
         <v>15000</v>
@@ -2054,7 +2104,7 @@
         <v>10</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -2098,10 +2148,10 @@
         <v>5</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P11" s="4">
         <v>15000</v>
@@ -2110,7 +2160,7 @@
         <v>10</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -2154,10 +2204,10 @@
         <v>5</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P12" s="4">
         <v>15000</v>
@@ -2166,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -2210,10 +2260,10 @@
         <v>5</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P13" s="4">
         <v>15000</v>
@@ -2222,7 +2272,7 @@
         <v>10</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -2266,10 +2316,10 @@
         <v>5</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P14" s="4">
         <v>15000</v>
@@ -2277,8 +2327,9 @@
       <c r="Q14" s="4">
         <v>10</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>131</v>
+      <c r="R14" s="4" t="str">
+        <f>R2</f>
+        <v>자</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -2322,10 +2373,10 @@
         <v>5</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P15" s="4">
         <v>15000</v>
@@ -2333,8 +2384,9 @@
       <c r="Q15" s="4">
         <v>10</v>
       </c>
-      <c r="R15" s="4" t="s">
-        <v>131</v>
+      <c r="R15" s="4" t="str">
+        <f t="shared" ref="R15:R73" si="0">R3</f>
+        <v>축</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -2378,10 +2430,10 @@
         <v>5</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P16" s="4">
         <v>15000</v>
@@ -2389,8 +2441,9 @@
       <c r="Q16" s="4">
         <v>10</v>
       </c>
-      <c r="R16" s="4" t="s">
-        <v>131</v>
+      <c r="R16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>인</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
@@ -2434,10 +2487,10 @@
         <v>5</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P17" s="4">
         <v>15000</v>
@@ -2445,8 +2498,9 @@
       <c r="Q17" s="4">
         <v>10</v>
       </c>
-      <c r="R17" s="4" t="s">
-        <v>132</v>
+      <c r="R17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>묘</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
@@ -2490,10 +2544,10 @@
         <v>5</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P18" s="4">
         <v>15000</v>
@@ -2501,8 +2555,9 @@
       <c r="Q18" s="4">
         <v>10</v>
       </c>
-      <c r="R18" s="4" t="s">
-        <v>132</v>
+      <c r="R18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>진</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -2546,10 +2601,10 @@
         <v>5</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P19" s="4">
         <v>15000</v>
@@ -2557,8 +2612,9 @@
       <c r="Q19" s="4">
         <v>10</v>
       </c>
-      <c r="R19" s="4" t="s">
-        <v>132</v>
+      <c r="R19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>사</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
@@ -2602,10 +2658,10 @@
         <v>5</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P20" s="4">
         <v>15000</v>
@@ -2613,8 +2669,9 @@
       <c r="Q20" s="4">
         <v>10</v>
       </c>
-      <c r="R20" s="4" t="s">
-        <v>132</v>
+      <c r="R20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>오</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
@@ -2658,10 +2715,10 @@
         <v>5</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P21" s="4">
         <v>15000</v>
@@ -2669,8 +2726,9 @@
       <c r="Q21" s="4">
         <v>10</v>
       </c>
-      <c r="R21" s="4" t="s">
-        <v>132</v>
+      <c r="R21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>미</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
@@ -2714,10 +2772,10 @@
         <v>5</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P22" s="4">
         <v>15000</v>
@@ -2725,8 +2783,9 @@
       <c r="Q22" s="4">
         <v>10</v>
       </c>
-      <c r="R22" s="4" t="s">
-        <v>133</v>
+      <c r="R22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>신</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
@@ -2770,10 +2829,10 @@
         <v>5</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P23" s="4">
         <v>15000</v>
@@ -2781,8 +2840,9 @@
       <c r="Q23" s="4">
         <v>10</v>
       </c>
-      <c r="R23" s="4" t="s">
-        <v>133</v>
+      <c r="R23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>유</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
@@ -2826,10 +2886,10 @@
         <v>5</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P24" s="4">
         <v>15000</v>
@@ -2837,8 +2897,9 @@
       <c r="Q24" s="4">
         <v>10</v>
       </c>
-      <c r="R24" s="4" t="s">
-        <v>133</v>
+      <c r="R24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>술</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
@@ -2882,10 +2943,10 @@
         <v>5</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P25" s="4">
         <v>15000</v>
@@ -2893,8 +2954,9 @@
       <c r="Q25" s="4">
         <v>10</v>
       </c>
-      <c r="R25" s="4" t="s">
-        <v>133</v>
+      <c r="R25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>해</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
@@ -2938,10 +3000,10 @@
         <v>5</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P26" s="4">
         <v>15000</v>
@@ -2949,8 +3011,9 @@
       <c r="Q26" s="4">
         <v>10</v>
       </c>
-      <c r="R26" s="4" t="s">
-        <v>133</v>
+      <c r="R26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>자</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
@@ -2994,10 +3057,10 @@
         <v>5</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P27" s="4">
         <v>15000</v>
@@ -3005,8 +3068,9 @@
       <c r="Q27" s="4">
         <v>10</v>
       </c>
-      <c r="R27" s="4" t="s">
-        <v>134</v>
+      <c r="R27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>축</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
@@ -3050,10 +3114,10 @@
         <v>5</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P28" s="4">
         <v>15000</v>
@@ -3061,8 +3125,9 @@
       <c r="Q28" s="4">
         <v>10</v>
       </c>
-      <c r="R28" s="4" t="s">
-        <v>134</v>
+      <c r="R28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>인</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
@@ -3106,10 +3171,10 @@
         <v>5</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P29" s="4">
         <v>15000</v>
@@ -3117,8 +3182,9 @@
       <c r="Q29" s="4">
         <v>10</v>
       </c>
-      <c r="R29" s="4" t="s">
-        <v>134</v>
+      <c r="R29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>묘</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
@@ -3162,10 +3228,10 @@
         <v>5</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P30" s="4">
         <v>15000</v>
@@ -3173,8 +3239,9 @@
       <c r="Q30" s="4">
         <v>10</v>
       </c>
-      <c r="R30" s="4" t="s">
-        <v>134</v>
+      <c r="R30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>진</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
@@ -3218,10 +3285,10 @@
         <v>5</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P31" s="4">
         <v>15000</v>
@@ -3229,8 +3296,9 @@
       <c r="Q31" s="4">
         <v>10</v>
       </c>
-      <c r="R31" s="4" t="s">
-        <v>134</v>
+      <c r="R31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>사</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
@@ -3274,10 +3342,10 @@
         <v>5</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P32" s="4">
         <v>15000</v>
@@ -3285,8 +3353,9 @@
       <c r="Q32" s="4">
         <v>10</v>
       </c>
-      <c r="R32" s="4" t="s">
-        <v>135</v>
+      <c r="R32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>오</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
@@ -3330,10 +3399,10 @@
         <v>5</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P33" s="4">
         <v>15000</v>
@@ -3341,8 +3410,9 @@
       <c r="Q33" s="4">
         <v>10</v>
       </c>
-      <c r="R33" s="4" t="s">
-        <v>135</v>
+      <c r="R33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>미</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
@@ -3386,10 +3456,10 @@
         <v>5</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P34" s="4">
         <v>15000</v>
@@ -3397,8 +3467,9 @@
       <c r="Q34" s="4">
         <v>10</v>
       </c>
-      <c r="R34" s="4" t="s">
-        <v>135</v>
+      <c r="R34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>신</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
@@ -3442,10 +3513,10 @@
         <v>5</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P35" s="4">
         <v>15000</v>
@@ -3453,8 +3524,9 @@
       <c r="Q35" s="4">
         <v>10</v>
       </c>
-      <c r="R35" s="4" t="s">
-        <v>135</v>
+      <c r="R35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>유</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
@@ -3498,10 +3570,10 @@
         <v>5</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P36" s="4">
         <v>15000</v>
@@ -3509,8 +3581,9 @@
       <c r="Q36" s="4">
         <v>10</v>
       </c>
-      <c r="R36" s="4" t="s">
-        <v>135</v>
+      <c r="R36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>술</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
@@ -3554,10 +3627,10 @@
         <v>5</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P37" s="4">
         <v>15000</v>
@@ -3565,8 +3638,9 @@
       <c r="Q37" s="4">
         <v>10</v>
       </c>
-      <c r="R37" s="4" t="s">
-        <v>136</v>
+      <c r="R37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>해</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
@@ -3610,10 +3684,10 @@
         <v>5</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P38" s="4">
         <v>15000</v>
@@ -3621,8 +3695,9 @@
       <c r="Q38" s="4">
         <v>10</v>
       </c>
-      <c r="R38" s="4" t="s">
-        <v>136</v>
+      <c r="R38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>자</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
@@ -3666,10 +3741,10 @@
         <v>5</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P39" s="4">
         <v>15000</v>
@@ -3677,8 +3752,9 @@
       <c r="Q39" s="4">
         <v>10</v>
       </c>
-      <c r="R39" s="4" t="s">
-        <v>136</v>
+      <c r="R39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>축</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
@@ -3722,10 +3798,10 @@
         <v>5</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P40" s="4">
         <v>15000</v>
@@ -3733,8 +3809,9 @@
       <c r="Q40" s="4">
         <v>10</v>
       </c>
-      <c r="R40" s="4" t="s">
-        <v>136</v>
+      <c r="R40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>인</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
@@ -3778,10 +3855,10 @@
         <v>5</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P41" s="4">
         <v>15000</v>
@@ -3789,8 +3866,9 @@
       <c r="Q41" s="4">
         <v>10</v>
       </c>
-      <c r="R41" s="4" t="s">
-        <v>136</v>
+      <c r="R41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>묘</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
@@ -3834,10 +3912,10 @@
         <v>5</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P42" s="4">
         <v>15000</v>
@@ -3845,8 +3923,9 @@
       <c r="Q42" s="4">
         <v>10</v>
       </c>
-      <c r="R42" s="4" t="s">
-        <v>137</v>
+      <c r="R42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>진</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
@@ -3890,10 +3969,10 @@
         <v>5</v>
       </c>
       <c r="N43" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="O43" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="P43" s="4">
         <v>15000</v>
@@ -3901,8 +3980,9 @@
       <c r="Q43" s="4">
         <v>10</v>
       </c>
-      <c r="R43" s="4" t="s">
-        <v>137</v>
+      <c r="R43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>사</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
@@ -3946,10 +4026,10 @@
         <v>5</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P44" s="4">
         <v>15000</v>
@@ -3957,8 +4037,9 @@
       <c r="Q44" s="4">
         <v>10</v>
       </c>
-      <c r="R44" s="4" t="s">
-        <v>137</v>
+      <c r="R44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>오</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
@@ -4002,10 +4083,10 @@
         <v>5</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P45" s="4">
         <v>15000</v>
@@ -4013,8 +4094,9 @@
       <c r="Q45" s="4">
         <v>10</v>
       </c>
-      <c r="R45" s="4" t="s">
-        <v>137</v>
+      <c r="R45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>미</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
@@ -4058,10 +4140,10 @@
         <v>5</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P46" s="4">
         <v>15000</v>
@@ -4069,8 +4151,9 @@
       <c r="Q46" s="4">
         <v>10</v>
       </c>
-      <c r="R46" s="4" t="s">
-        <v>137</v>
+      <c r="R46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>신</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
@@ -4114,10 +4197,10 @@
         <v>5</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P47" s="4">
         <v>15000</v>
@@ -4125,8 +4208,9 @@
       <c r="Q47" s="4">
         <v>10</v>
       </c>
-      <c r="R47" s="4" t="s">
-        <v>138</v>
+      <c r="R47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>유</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
@@ -4170,10 +4254,10 @@
         <v>5</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P48" s="4">
         <v>15000</v>
@@ -4181,8 +4265,9 @@
       <c r="Q48" s="4">
         <v>10</v>
       </c>
-      <c r="R48" s="4" t="s">
-        <v>138</v>
+      <c r="R48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>술</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
@@ -4226,10 +4311,10 @@
         <v>5</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P49" s="4">
         <v>15000</v>
@@ -4237,8 +4322,9 @@
       <c r="Q49" s="4">
         <v>10</v>
       </c>
-      <c r="R49" s="4" t="s">
-        <v>138</v>
+      <c r="R49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>해</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
@@ -4282,10 +4368,10 @@
         <v>5</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P50" s="4">
         <v>15000</v>
@@ -4293,8 +4379,9 @@
       <c r="Q50" s="4">
         <v>10</v>
       </c>
-      <c r="R50" s="4" t="s">
-        <v>138</v>
+      <c r="R50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>자</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
@@ -4338,10 +4425,10 @@
         <v>5</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P51" s="4">
         <v>15000</v>
@@ -4349,8 +4436,9 @@
       <c r="Q51" s="4">
         <v>10</v>
       </c>
-      <c r="R51" s="4" t="s">
-        <v>138</v>
+      <c r="R51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>축</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
@@ -4394,10 +4482,10 @@
         <v>5</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P52" s="4">
         <v>15000</v>
@@ -4405,8 +4493,9 @@
       <c r="Q52" s="4">
         <v>10</v>
       </c>
-      <c r="R52" s="4" t="s">
-        <v>139</v>
+      <c r="R52" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>인</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
@@ -4450,10 +4539,10 @@
         <v>5</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P53" s="4">
         <v>15000</v>
@@ -4461,8 +4550,9 @@
       <c r="Q53" s="4">
         <v>10</v>
       </c>
-      <c r="R53" s="4" t="s">
-        <v>139</v>
+      <c r="R53" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>묘</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
@@ -4506,10 +4596,10 @@
         <v>5</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P54" s="4">
         <v>15000</v>
@@ -4517,8 +4607,9 @@
       <c r="Q54" s="4">
         <v>10</v>
       </c>
-      <c r="R54" s="4" t="s">
-        <v>139</v>
+      <c r="R54" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>진</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
@@ -4562,10 +4653,10 @@
         <v>5</v>
       </c>
       <c r="N55" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P55" s="4">
         <v>15000</v>
@@ -4573,8 +4664,9 @@
       <c r="Q55" s="4">
         <v>10</v>
       </c>
-      <c r="R55" s="4" t="s">
-        <v>139</v>
+      <c r="R55" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>사</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
@@ -4618,10 +4710,10 @@
         <v>5</v>
       </c>
       <c r="N56" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P56" s="4">
         <v>15000</v>
@@ -4629,8 +4721,9 @@
       <c r="Q56" s="4">
         <v>10</v>
       </c>
-      <c r="R56" s="4" t="s">
-        <v>139</v>
+      <c r="R56" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>오</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
@@ -4674,10 +4767,10 @@
         <v>5</v>
       </c>
       <c r="N57" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P57" s="4">
         <v>15000</v>
@@ -4685,8 +4778,9 @@
       <c r="Q57" s="4">
         <v>10</v>
       </c>
-      <c r="R57" s="4" t="s">
-        <v>140</v>
+      <c r="R57" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>미</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
@@ -4697,10 +4791,10 @@
         <v>8</v>
       </c>
       <c r="C58" s="4">
-        <v>108358786</v>
+        <v>87275588</v>
       </c>
       <c r="D58" s="4">
-        <v>4282950</v>
+        <v>3449620</v>
       </c>
       <c r="E58" s="6">
         <v>0</v>
@@ -4730,10 +4824,10 @@
         <v>5</v>
       </c>
       <c r="N58" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P58" s="4">
         <v>15000</v>
@@ -4741,8 +4835,9 @@
       <c r="Q58" s="4">
         <v>10</v>
       </c>
-      <c r="R58" s="4" t="s">
-        <v>140</v>
+      <c r="R58" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>신</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
@@ -4753,10 +4848,10 @@
         <v>9</v>
       </c>
       <c r="C59" s="4">
-        <v>118764710</v>
+        <v>91627566</v>
       </c>
       <c r="D59" s="4">
-        <v>4675770</v>
+        <v>3607380</v>
       </c>
       <c r="E59" s="6">
         <v>0</v>
@@ -4786,10 +4881,10 @@
         <v>5</v>
       </c>
       <c r="N59" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P59" s="4">
         <v>15000</v>
@@ -4797,8 +4892,9 @@
       <c r="Q59" s="4">
         <v>10</v>
       </c>
-      <c r="R59" s="4" t="s">
-        <v>140</v>
+      <c r="R59" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>유</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
@@ -4809,10 +4905,10 @@
         <v>10</v>
       </c>
       <c r="C60" s="4">
-        <v>169050419</v>
+        <v>94042452</v>
       </c>
       <c r="D60" s="4">
-        <v>6501930</v>
+        <v>3687930</v>
       </c>
       <c r="E60" s="6">
         <v>0</v>
@@ -4842,10 +4938,10 @@
         <v>5</v>
       </c>
       <c r="N60" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P60" s="4">
         <v>15000</v>
@@ -4853,8 +4949,9 @@
       <c r="Q60" s="4">
         <v>10</v>
       </c>
-      <c r="R60" s="4" t="s">
-        <v>140</v>
+      <c r="R60" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>술</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
@@ -4865,10 +4962,10 @@
         <v>11</v>
       </c>
       <c r="C61" s="4">
-        <v>190460160</v>
+        <v>100771726</v>
       </c>
       <c r="D61" s="4">
-        <v>7054080</v>
+        <v>3936390</v>
       </c>
       <c r="E61" s="6">
         <v>0</v>
@@ -4880,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="6">
-        <v>0.15</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="I61" s="6">
         <v>0.4</v>
@@ -4898,10 +4995,10 @@
         <v>5</v>
       </c>
       <c r="N61" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P61" s="4">
         <v>15000</v>
@@ -4909,8 +5006,693 @@
       <c r="Q61" s="4">
         <v>10</v>
       </c>
-      <c r="R61" s="4" t="s">
-        <v>140</v>
+      <c r="R61" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>해</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0</v>
+      </c>
+      <c r="C62" s="4">
+        <v>107816372</v>
+      </c>
+      <c r="D62" s="4">
+        <v>4195180</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" s="6">
+        <v>0</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0</v>
+      </c>
+      <c r="H62" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="J62" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="K62" s="6">
+        <v>0.105</v>
+      </c>
+      <c r="L62" s="6">
+        <v>5.5E-2</v>
+      </c>
+      <c r="M62" s="4">
+        <v>5</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="O62" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P62" s="4">
+        <v>15000</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>10</v>
+      </c>
+      <c r="R62" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>자</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>61</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4">
+        <v>142612080</v>
+      </c>
+      <c r="D63" s="4">
+        <v>5527600</v>
+      </c>
+      <c r="E63" s="6">
+        <v>0</v>
+      </c>
+      <c r="F63" s="6">
+        <v>0</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0</v>
+      </c>
+      <c r="H63" s="6">
+        <v>0.13000000000000012</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="J63" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="K63" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="L63" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="M63" s="4">
+        <v>5</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P63" s="4">
+        <v>15000</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>10</v>
+      </c>
+      <c r="R63" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>축</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" s="4">
+        <v>2</v>
+      </c>
+      <c r="C64" s="4">
+        <v>149047590</v>
+      </c>
+      <c r="D64" s="4">
+        <v>5754730</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0</v>
+      </c>
+      <c r="F64" s="6">
+        <v>0</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="J64" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="K64" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="L64" s="6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M64" s="4">
+        <v>5</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="O64" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P64" s="4">
+        <v>15000</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>10</v>
+      </c>
+      <c r="R64" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>인</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>63</v>
+      </c>
+      <c r="B65" s="4">
+        <v>3</v>
+      </c>
+      <c r="C65" s="4">
+        <v>155679437</v>
+      </c>
+      <c r="D65" s="4">
+        <v>5987670</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
+      <c r="F65" s="6">
+        <v>0</v>
+      </c>
+      <c r="G65" s="6">
+        <v>0</v>
+      </c>
+      <c r="H65" s="6">
+        <v>0.1100000000000001</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="J65" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="K65" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="L65" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M65" s="4">
+        <v>5</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P65" s="4">
+        <v>15000</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>10</v>
+      </c>
+      <c r="R65" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>묘</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" s="4">
+        <v>4</v>
+      </c>
+      <c r="C66" s="4">
+        <v>162511101</v>
+      </c>
+      <c r="D66" s="4">
+        <v>6226470</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6">
+        <v>0</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="J66" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="K66" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="L66" s="6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="M66" s="4">
+        <v>5</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P66" s="4">
+        <v>15000</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>10</v>
+      </c>
+      <c r="R66" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>진</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>65</v>
+      </c>
+      <c r="B67" s="4">
+        <v>5</v>
+      </c>
+      <c r="C67" s="4">
+        <v>169546092</v>
+      </c>
+      <c r="D67" s="4">
+        <v>6471220</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0</v>
+      </c>
+      <c r="F67" s="6">
+        <v>0</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0</v>
+      </c>
+      <c r="H67" s="6">
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="J67" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="K67" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="L67" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="M67" s="4">
+        <v>5</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P67" s="4">
+        <v>15000</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>10</v>
+      </c>
+      <c r="R67" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>사</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" s="4">
+        <v>6</v>
+      </c>
+      <c r="C68" s="4">
+        <v>176787942</v>
+      </c>
+      <c r="D68" s="4">
+        <v>6721970</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F68" s="6">
+        <v>0</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0</v>
+      </c>
+      <c r="H68" s="6">
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="J68" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="K68" s="6">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="L68" s="6">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M68" s="4">
+        <v>5</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="O68" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P68" s="4">
+        <v>15000</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>10</v>
+      </c>
+      <c r="R68" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>오</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>67</v>
+      </c>
+      <c r="B69" s="4">
+        <v>7</v>
+      </c>
+      <c r="C69" s="4">
+        <v>184240214</v>
+      </c>
+      <c r="D69" s="4">
+        <v>6978790</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="6">
+        <v>0</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0</v>
+      </c>
+      <c r="H69" s="6">
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="J69" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="K69" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L69" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="M69" s="4">
+        <v>5</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P69" s="4">
+        <v>15000</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>10</v>
+      </c>
+      <c r="R69" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>미</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" s="4">
+        <v>8</v>
+      </c>
+      <c r="C70" s="4">
+        <v>206285937</v>
+      </c>
+      <c r="D70" s="4">
+        <v>7784370</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6">
+        <v>0</v>
+      </c>
+      <c r="G70" s="6">
+        <v>0</v>
+      </c>
+      <c r="H70" s="6">
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="I70" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="J70" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="K70" s="6">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="L70" s="6">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M70" s="4">
+        <v>5</v>
+      </c>
+      <c r="N70" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="O70" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P70" s="4">
+        <v>15000</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>10</v>
+      </c>
+      <c r="R70" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>신</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>69</v>
+      </c>
+      <c r="B71" s="4">
+        <v>9</v>
+      </c>
+      <c r="C71" s="4">
+        <v>227706994</v>
+      </c>
+      <c r="D71" s="4">
+        <v>8560410</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+      <c r="F71" s="6">
+        <v>0</v>
+      </c>
+      <c r="G71" s="6">
+        <v>0</v>
+      </c>
+      <c r="H71" s="6">
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="I71" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="J71" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="K71" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="L71" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="M71" s="4">
+        <v>5</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P71" s="4">
+        <v>15000</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>10</v>
+      </c>
+      <c r="R71" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>유</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72" s="4">
+        <v>10</v>
+      </c>
+      <c r="C72" s="4">
+        <v>250537981</v>
+      </c>
+      <c r="D72" s="4">
+        <v>9383440</v>
+      </c>
+      <c r="E72" s="6">
+        <v>0</v>
+      </c>
+      <c r="F72" s="6">
+        <v>0</v>
+      </c>
+      <c r="G72" s="6">
+        <v>0</v>
+      </c>
+      <c r="H72" s="6">
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="I72" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="J72" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="K72" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="L72" s="6">
+        <v>0.105</v>
+      </c>
+      <c r="M72" s="4">
+        <v>5</v>
+      </c>
+      <c r="N72" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="O72" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P72" s="4">
+        <v>15000</v>
+      </c>
+      <c r="Q72" s="4">
+        <v>10</v>
+      </c>
+      <c r="R72" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>술</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>71</v>
+      </c>
+      <c r="B73" s="4">
+        <v>11</v>
+      </c>
+      <c r="C73" s="4">
+        <v>274826496</v>
+      </c>
+      <c r="D73" s="4">
+        <v>10254720</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="F73" s="6">
+        <v>0</v>
+      </c>
+      <c r="G73" s="6">
+        <v>0</v>
+      </c>
+      <c r="H73" s="6">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="I73" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="J73" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="K73" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="L73" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="M73" s="4">
+        <v>5</v>
+      </c>
+      <c r="N73" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P73" s="4">
+        <v>15000</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>10</v>
+      </c>
+      <c r="R73" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>해</v>
       </c>
     </row>
   </sheetData>
@@ -4922,10 +5704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D215B922-980F-488C-B802-3970C6526C78}">
-  <dimension ref="A2:AE63"/>
+  <dimension ref="A2:AE75"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView topLeftCell="K52" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61:O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4937,68 +5719,69 @@
     <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.125" customWidth="1"/>
+    <col min="13" max="13" width="9.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.625" style="6" customWidth="1"/>
     <col min="19" max="19" width="13.5" customWidth="1"/>
-    <col min="20" max="20" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.75" customWidth="1"/>
     <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.875" customWidth="1"/>
     <col min="23" max="23" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="P2" t="s">
         <v>61</v>
       </c>
-      <c r="P2" t="s">
+    </row>
+    <row r="3" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="29" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="30"/>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="P3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>12</v>
@@ -5025,15 +5808,15 @@
         <v>7</v>
       </c>
       <c r="AD3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -5045,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>0.01</v>
@@ -5055,7 +5838,7 @@
         <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -5073,11 +5856,11 @@
         <v>15</v>
       </c>
       <c r="T4" s="12">
-        <f>(VLOOKUP(Q4,E:I,5,FALSE)+$L$4+R4*$L$12)*(1+R4*$L$13)*$L$5*(1+R4*$L$14)*$L$6*(1/(1-VLOOKUP(Q4,E:I,4,FALSE)))*S4</f>
+        <f t="shared" ref="T4:T35" si="0">(VLOOKUP(Q4,E:I,5,FALSE)+$L$4+R4*$L$12)*(1+R4*$L$13)*$L$5*(1+R4*$L$14)*$L$6*(1/(1-VLOOKUP(Q4,E:I,4,FALSE)))*S4</f>
         <v>3030.3030303030305</v>
       </c>
       <c r="U4" s="12">
-        <f>(VLOOKUP(Q4,E:I,5,FALSE)+$L$4+R4*$L$12)*(1+R4*$L$13)*(1+R4*$L$14)/(1-VLOOKUP(Q4,E:I,4,FALSE))</f>
+        <f t="shared" ref="U4:U35" si="1">(VLOOKUP(Q4,E:I,5,FALSE)+$L$4+R4*$L$12)*(1+R4*$L$13)*(1+R4*$L$14)/(1-VLOOKUP(Q4,E:I,4,FALSE))</f>
         <v>202.02020202020202</v>
       </c>
       <c r="V4" s="13">
@@ -5123,7 +5906,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5">
         <v>1.1000000000000001</v>
@@ -5135,18 +5918,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H13" si="0">H4+0.01</f>
+        <f t="shared" ref="H5:H13" si="2">H4+0.01</f>
         <v>0.02</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I43" si="1">ROUNDUP(I4*$C$5*IF(F4=F5,1,VLOOKUP(F5,A:C,3,FALSE)),0)</f>
+        <f t="shared" ref="I5:I43" si="3">ROUNDUP(I4*$C$5*IF(F4=F5,1,VLOOKUP(F5,A:C,3,FALSE)),0)</f>
         <v>110</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -5164,11 +5947,11 @@
         <v>12</v>
       </c>
       <c r="T5" s="12">
-        <f t="shared" ref="T5:T35" si="2">(VLOOKUP(Q5,E:I,5,FALSE)+$L$4+R5*$L$12)*(1+R5*$L$13)*$L$5*(1+R5*$L$14)*$L$6*(1/(1-VLOOKUP(Q5,E:I,4,FALSE)))*S5</f>
+        <f t="shared" si="0"/>
         <v>4185.0000000000009</v>
       </c>
       <c r="U5" s="12">
-        <f t="shared" ref="U5:U63" si="3">(VLOOKUP(Q5,E:I,5,FALSE)+$L$4+R5*$L$12)*(1+R5*$L$13)*(1+R5*$L$14)/(1-VLOOKUP(Q5,E:I,4,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>348.75000000000006</v>
       </c>
       <c r="V5" s="13">
@@ -5214,10 +5997,10 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
         <v>81</v>
-      </c>
-      <c r="B6" t="s">
-        <v>82</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
@@ -5226,18 +6009,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -5255,11 +6038,11 @@
         <v>19</v>
       </c>
       <c r="T6" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13496.317010309278</v>
       </c>
       <c r="U6" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>710.33247422680404</v>
       </c>
       <c r="V6" s="13">
@@ -5308,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>1.3</v>
@@ -5320,14 +6103,14 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>134</v>
       </c>
       <c r="P7" s="3">
@@ -5343,11 +6126,11 @@
         <v>20</v>
       </c>
       <c r="T7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>19020</v>
       </c>
       <c r="U7" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>951</v>
       </c>
       <c r="V7" s="13">
@@ -5396,7 +6179,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8">
         <v>1.3</v>
@@ -5408,14 +6191,14 @@
         <v>0</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>148</v>
       </c>
       <c r="P8" s="3">
@@ -5431,11 +6214,11 @@
         <v>20.100000000000001</v>
       </c>
       <c r="T8" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>24728.289473684214</v>
       </c>
       <c r="U8" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1230.2631578947369</v>
       </c>
       <c r="V8" s="13">
@@ -5484,7 +6267,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <v>1.3</v>
@@ -5497,14 +6280,14 @@
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>212</v>
       </c>
       <c r="P9" s="3">
@@ -5520,11 +6303,11 @@
         <v>20.2</v>
       </c>
       <c r="T9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>33121.123404255326</v>
       </c>
       <c r="U9" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1639.6595744680853</v>
       </c>
       <c r="V9" s="13">
@@ -5573,7 +6356,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10">
         <v>1.2</v>
@@ -5586,27 +6369,27 @@
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>234</v>
       </c>
       <c r="K10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="P10" s="3">
         <v>6</v>
@@ -5621,11 +6404,11 @@
         <v>20.3</v>
       </c>
       <c r="T10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>41134.020967741948</v>
       </c>
       <c r="U10" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2026.3064516129036</v>
       </c>
       <c r="V10" s="13">
@@ -5674,7 +6457,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11">
         <v>1.2</v>
@@ -5687,18 +6470,18 @@
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>258</v>
       </c>
       <c r="K11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L11">
         <v>3</v>
@@ -5716,11 +6499,11 @@
         <v>20.399999999999999</v>
       </c>
       <c r="T11" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>50327.686956521713</v>
       </c>
       <c r="U11" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2467.0434782608686</v>
       </c>
       <c r="V11" s="13">
@@ -5769,7 +6552,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>1.2</v>
@@ -5782,18 +6565,18 @@
         <v>1</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.09</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>284</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L12">
         <v>100</v>
@@ -5818,11 +6601,11 @@
         <v>20.5</v>
       </c>
       <c r="T12" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>60815.390109890097</v>
       </c>
       <c r="U12" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2966.604395604395</v>
       </c>
       <c r="V12" s="13">
@@ -5871,7 +6654,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13">
         <v>1.2</v>
@@ -5884,18 +6667,18 @@
         <v>1</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>313</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L13">
         <v>0.05</v>
@@ -5920,11 +6703,11 @@
         <v>20.6</v>
       </c>
       <c r="T13" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>72769.5</v>
       </c>
       <c r="U13" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3532.5</v>
       </c>
       <c r="V13" s="13">
@@ -5977,17 +6760,17 @@
         <v>2</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14">
         <v>0.12</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>448</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L14">
         <v>0.05</v>
@@ -6012,11 +6795,11 @@
         <v>20.7</v>
       </c>
       <c r="T14" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>105261.38181818184</v>
       </c>
       <c r="U14" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5085.090909090909</v>
       </c>
       <c r="V14" s="13">
@@ -6069,14 +6852,14 @@
         <v>2</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H15">
         <f>H14+0.02</f>
         <v>0.13999999999999999</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>493</v>
       </c>
       <c r="P15" s="3">
@@ -6092,11 +6875,11 @@
         <v>20.8</v>
       </c>
       <c r="T15" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>139306.06511627912</v>
       </c>
       <c r="U15" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6697.4069767441879</v>
       </c>
       <c r="V15" s="13">
@@ -6149,14 +6932,14 @@
         <v>2</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:H28" si="8">H15+0.02</f>
         <v>0.15999999999999998</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>543</v>
       </c>
       <c r="P16" s="3">
@@ -6172,11 +6955,11 @@
         <v>20.9</v>
       </c>
       <c r="T16" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>180817.84285714285</v>
       </c>
       <c r="U16" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8651.5714285714294</v>
       </c>
       <c r="V16" s="13">
@@ -6229,14 +7012,14 @@
         <v>2</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <f t="shared" si="8"/>
         <v>0.17999999999999997</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>598</v>
       </c>
       <c r="P17" s="3">
@@ -6252,11 +7035,11 @@
         <v>18</v>
       </c>
       <c r="T17" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>197951.26829268289</v>
       </c>
       <c r="U17" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10997.292682926827</v>
       </c>
       <c r="V17" s="13">
@@ -6309,14 +7092,14 @@
         <v>2</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <f t="shared" si="8"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>658</v>
       </c>
       <c r="P18" s="3">
@@ -6332,11 +7115,11 @@
         <v>21.1</v>
       </c>
       <c r="T18" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>290969</v>
       </c>
       <c r="U18" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13790</v>
       </c>
       <c r="V18" s="13">
@@ -6389,14 +7172,14 @@
         <v>3</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <f t="shared" si="8"/>
         <v>0.21999999999999995</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>941</v>
       </c>
       <c r="P19" s="3">
@@ -6412,11 +7195,11 @@
         <v>21.2</v>
       </c>
       <c r="T19" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>358770.65769230761</v>
       </c>
       <c r="U19" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16923.144230769227</v>
       </c>
       <c r="V19" s="13">
@@ -6469,14 +7252,14 @@
         <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H20">
         <f t="shared" si="8"/>
         <v>0.23999999999999994</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1036</v>
       </c>
       <c r="P20" s="3">
@@ -6492,11 +7275,11 @@
         <v>21.3</v>
       </c>
       <c r="T20" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>412316.43157894746</v>
       </c>
       <c r="U20" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>19357.578947368424</v>
       </c>
       <c r="V20" s="13">
@@ -6549,14 +7332,14 @@
         <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <f t="shared" si="8"/>
         <v>0.25999999999999995</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1140</v>
       </c>
       <c r="P21" s="3">
@@ -6572,11 +7355,11 @@
         <v>21.4</v>
       </c>
       <c r="T21" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>473219.06756756769</v>
       </c>
       <c r="U21" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>22113.040540540547</v>
       </c>
       <c r="V21" s="13">
@@ -6629,14 +7412,14 @@
         <v>3</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <f t="shared" si="8"/>
         <v>0.27999999999999997</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1254</v>
       </c>
       <c r="P22" s="3">
@@ -6652,11 +7435,11 @@
         <v>21.5</v>
       </c>
       <c r="T22" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>542557.27777777787</v>
       </c>
       <c r="U22" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25235.22222222223</v>
       </c>
       <c r="V22" s="13">
@@ -6709,14 +7492,14 @@
         <v>3</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1380</v>
       </c>
       <c r="P23" s="3">
@@ -6732,11 +7515,11 @@
         <v>21.6</v>
       </c>
       <c r="T23" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>621732.85714285716</v>
       </c>
       <c r="U23" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>28783.928571428572</v>
       </c>
       <c r="V23" s="13">
@@ -6789,14 +7572,14 @@
         <v>4</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <f t="shared" si="8"/>
         <v>0.32</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1822</v>
       </c>
       <c r="P24" s="3">
@@ -6812,11 +7595,11 @@
         <v>21.7</v>
       </c>
       <c r="T24" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>763373.44999999984</v>
       </c>
       <c r="U24" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>35178.499999999993</v>
       </c>
       <c r="V24" s="13">
@@ -6869,21 +7652,21 @@
         <v>4</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <f t="shared" si="8"/>
         <v>0.34</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2005</v>
       </c>
       <c r="P25" s="3">
         <v>21</v>
       </c>
       <c r="Q25" s="3">
-        <f t="shared" ref="Q25:Q63" si="9">Q23+1</f>
+        <f t="shared" ref="Q25:Q59" si="9">Q23+1</f>
         <v>20</v>
       </c>
       <c r="R25" s="3">
@@ -6893,11 +7676,11 @@
         <v>21.8</v>
       </c>
       <c r="T25" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>818301.31029411778</v>
       </c>
       <c r="U25" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>37536.757352941182</v>
       </c>
       <c r="V25" s="13">
@@ -6950,14 +7733,14 @@
         <v>4</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H26">
         <f t="shared" si="8"/>
         <v>0.36000000000000004</v>
       </c>
       <c r="I26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2206</v>
       </c>
       <c r="P26" s="3">
@@ -6974,11 +7757,11 @@
         <v>21.9</v>
       </c>
       <c r="T26" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>937479.27272727317</v>
       </c>
       <c r="U26" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>42807.27272727275</v>
       </c>
       <c r="V26" s="13">
@@ -7031,14 +7814,14 @@
         <v>4</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H27">
         <f t="shared" si="8"/>
         <v>0.38000000000000006</v>
       </c>
       <c r="I27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2427</v>
       </c>
       <c r="P27" s="3">
@@ -7055,11 +7838,11 @@
         <v>22</v>
       </c>
       <c r="T27" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1001417.0833333335</v>
       </c>
       <c r="U27" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>45518.958333333343</v>
       </c>
       <c r="V27" s="13">
@@ -7112,14 +7895,14 @@
         <v>4</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H28">
         <f t="shared" si="8"/>
         <v>0.40000000000000008</v>
       </c>
       <c r="I28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2670</v>
       </c>
       <c r="P28" s="3">
@@ -7136,11 +7919,11 @@
         <v>22.1</v>
       </c>
       <c r="T28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1145142.5781250002</v>
       </c>
       <c r="U28" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>51816.406250000007</v>
       </c>
       <c r="V28" s="13">
@@ -7193,14 +7976,14 @@
         <v>5</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H29">
         <f>H28+0.03</f>
         <v>0.43000000000000005</v>
       </c>
       <c r="I29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3525</v>
       </c>
       <c r="P29" s="3">
@@ -7217,11 +8000,11 @@
         <v>19.2</v>
       </c>
       <c r="T29" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1116616.8000000003</v>
       </c>
       <c r="U29" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>58157.125000000015</v>
       </c>
       <c r="V29" s="13">
@@ -7274,14 +8057,14 @@
         <v>5</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H30">
         <f t="shared" ref="H30:H43" si="10">H29+0.03</f>
         <v>0.46000000000000008</v>
       </c>
       <c r="I30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3878</v>
       </c>
       <c r="P30" s="3">
@@ -7298,11 +8081,11 @@
         <v>22.3</v>
       </c>
       <c r="T30" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1554088.0790322588</v>
       </c>
       <c r="U30" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>69690.048387096802</v>
       </c>
       <c r="V30" s="13">
@@ -7355,14 +8138,14 @@
         <v>5</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H31">
         <f t="shared" si="10"/>
         <v>0.4900000000000001</v>
       </c>
       <c r="I31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4266</v>
       </c>
       <c r="P31" s="3">
@@ -7379,11 +8162,11 @@
         <v>22.4</v>
       </c>
       <c r="T31" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1735482.6322580646</v>
       </c>
       <c r="U31" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>77476.903225806454</v>
       </c>
       <c r="V31" s="13">
@@ -7436,14 +8219,14 @@
         <v>5</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32">
         <f t="shared" si="10"/>
         <v>0.52000000000000013</v>
       </c>
       <c r="I32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4693</v>
       </c>
       <c r="P32" s="3">
@@ -7460,11 +8243,11 @@
         <v>22.5</v>
       </c>
       <c r="T32" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2072013.7500000009</v>
       </c>
       <c r="U32" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>92089.500000000058</v>
       </c>
       <c r="V32" s="13">
@@ -7517,14 +8300,14 @@
         <v>5</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33">
         <f t="shared" si="10"/>
         <v>0.55000000000000016</v>
       </c>
       <c r="I33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5163</v>
       </c>
       <c r="P33" s="3">
@@ -7541,11 +8324,11 @@
         <v>22.6</v>
       </c>
       <c r="T33" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2295030.0000000005</v>
       </c>
       <c r="U33" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>101550.00000000003</v>
       </c>
       <c r="V33" s="13">
@@ -7598,14 +8381,14 @@
         <v>6</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H34">
         <f t="shared" si="10"/>
         <v>0.58000000000000018</v>
       </c>
       <c r="I34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6816</v>
       </c>
       <c r="P34" s="3">
@@ -7622,11 +8405,11 @@
         <v>22.7</v>
       </c>
       <c r="T34" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2994737.3245614036</v>
       </c>
       <c r="U34" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>131926.75438596492</v>
       </c>
       <c r="V34" s="13">
@@ -7679,14 +8462,14 @@
         <v>6</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H35">
         <f t="shared" si="10"/>
         <v>0.61000000000000021</v>
       </c>
       <c r="I35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7498</v>
       </c>
       <c r="P35" s="3">
@@ -7703,11 +8486,11 @@
         <v>22.8</v>
       </c>
       <c r="T35" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3287040.0000000005</v>
       </c>
       <c r="U35" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>144168.4210526316</v>
       </c>
       <c r="V35" s="13">
@@ -7760,14 +8543,14 @@
         <v>6</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H36">
         <f t="shared" si="10"/>
         <v>0.64000000000000024</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8248</v>
       </c>
       <c r="P36" s="3">
@@ -7784,11 +8567,11 @@
         <v>22.9</v>
       </c>
       <c r="T36" s="12">
-        <f t="shared" ref="T36:T63" si="11">(VLOOKUP(Q36,E:I,5,FALSE)+$L$4+R36*$L$12)*(1+R36*$L$13)*$L$5*(1+R36*$L$14)*$L$6*(1/(1-VLOOKUP(Q36,E:I,4,FALSE)))*S36</f>
+        <f t="shared" ref="T36:T67" si="11">(VLOOKUP(Q36,E:I,5,FALSE)+$L$4+R36*$L$12)*(1+R36*$L$13)*$L$5*(1+R36*$L$14)*$L$6*(1/(1-VLOOKUP(Q36,E:I,4,FALSE)))*S36</f>
         <v>3961463.3666666676</v>
       </c>
       <c r="U36" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="U36:U67" si="12">(VLOOKUP(Q36,E:I,5,FALSE)+$L$4+R36*$L$12)*(1+R36*$L$13)*(1+R36*$L$14)/(1-VLOOKUP(Q36,E:I,4,FALSE))</f>
         <v>172989.66666666672</v>
       </c>
       <c r="V36" s="13">
@@ -7841,14 +8624,14 @@
         <v>6</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H37">
         <f t="shared" si="10"/>
         <v>0.67000000000000026</v>
       </c>
       <c r="I37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9073</v>
       </c>
       <c r="P37" s="3">
@@ -7869,7 +8652,7 @@
         <v>4322027.1111111119</v>
       </c>
       <c r="U37" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>187914.22222222228</v>
       </c>
       <c r="V37" s="13">
@@ -7922,14 +8705,14 @@
         <v>6</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H38">
         <f t="shared" si="10"/>
         <v>0.70000000000000029</v>
       </c>
       <c r="I38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9981</v>
       </c>
       <c r="P38" s="3">
@@ -7950,7 +8733,7 @@
         <v>5196752.647058825</v>
       </c>
       <c r="U38" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>224967.64705882358</v>
       </c>
       <c r="V38" s="13">
@@ -8003,14 +8786,14 @@
         <v>7</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H39">
         <f t="shared" si="10"/>
         <v>0.73000000000000032</v>
       </c>
       <c r="I39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13175</v>
       </c>
       <c r="P39" s="3">
@@ -8031,7 +8814,7 @@
         <v>5426764.9960784335</v>
       </c>
       <c r="U39" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>233912.28431372557</v>
       </c>
       <c r="V39" s="13">
@@ -8084,14 +8867,14 @@
         <v>7</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H40">
         <f t="shared" si="10"/>
         <v>0.76000000000000034</v>
       </c>
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14493</v>
       </c>
       <c r="P40" s="3">
@@ -8112,7 +8895,7 @@
         <v>6286596.3000000296</v>
       </c>
       <c r="U40" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>269811.00000000012</v>
       </c>
       <c r="V40" s="13">
@@ -8165,14 +8948,14 @@
         <v>7</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H41">
         <f t="shared" si="10"/>
         <v>0.79000000000000037</v>
       </c>
       <c r="I41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15943</v>
       </c>
       <c r="P41" s="3">
@@ -8193,7 +8976,7 @@
         <v>5714719.6812500013</v>
       </c>
       <c r="U41" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>280133.31770833343</v>
       </c>
       <c r="V41" s="13">
@@ -8246,14 +9029,14 @@
         <v>7</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H42">
         <f t="shared" si="10"/>
         <v>0.8200000000000004</v>
       </c>
       <c r="I42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17538</v>
       </c>
       <c r="P42" s="3">
@@ -8274,7 +9057,7 @@
         <v>7623215.6555555593</v>
       </c>
       <c r="U42" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>324392.15555555566</v>
       </c>
       <c r="V42" s="13">
@@ -8327,14 +9110,14 @@
         <v>7</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H43">
         <f t="shared" si="10"/>
         <v>0.85000000000000042</v>
       </c>
       <c r="I43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19292</v>
       </c>
       <c r="P43" s="3">
@@ -8355,7 +9138,7 @@
         <v>7937712.5000000382</v>
       </c>
       <c r="U43" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>336343.75000000012</v>
       </c>
       <c r="V43" s="13">
@@ -8418,7 +9201,7 @@
         <v>10198394.400000006</v>
       </c>
       <c r="U44" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>430312.00000000029</v>
       </c>
       <c r="V44" s="13">
@@ -8481,7 +9264,7 @@
         <v>10596704.066666717</v>
       </c>
       <c r="U45" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>445239.66666666686</v>
       </c>
       <c r="V45" s="13">
@@ -8544,7 +9327,7 @@
         <v>12488275.800000062</v>
       </c>
       <c r="U46" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>522522.00000000041</v>
       </c>
       <c r="V46" s="13">
@@ -8607,7 +9390,7 @@
         <v>12960156.615384679</v>
       </c>
       <c r="U47" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>540006.52564102609</v>
       </c>
       <c r="V47" s="13">
@@ -8670,7 +9453,7 @@
         <v>15368302.222222295</v>
       </c>
       <c r="U48" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>637688.88888888934</v>
       </c>
       <c r="V48" s="13">
@@ -8733,7 +9516,7 @@
         <v>16439320.822222294</v>
       </c>
       <c r="U49" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>679310.7777777781</v>
       </c>
       <c r="V49" s="13">
@@ -8796,7 +9579,7 @@
         <v>20228477.563636463</v>
       </c>
       <c r="U50" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>832447.63636363717</v>
       </c>
       <c r="V50" s="13">
@@ -8859,7 +9642,7 @@
         <v>21563889.660606172</v>
       </c>
       <c r="U51" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>883765.96969697066</v>
       </c>
       <c r="V51" s="13">
@@ -8922,7 +9705,7 @@
         <v>26689986.40000014</v>
       </c>
       <c r="U52" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1089387.2000000014</v>
       </c>
       <c r="V52" s="13">
@@ -8985,7 +9768,7 @@
         <v>24904098.000000026</v>
       </c>
       <c r="U53" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1152967.5000000012</v>
       </c>
       <c r="V53" s="13">
@@ -9048,7 +9831,7 @@
         <v>39634443.333333537</v>
       </c>
       <c r="U54" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1604633.3333333349</v>
       </c>
       <c r="V54" s="13">
@@ -9111,7 +9894,7 @@
         <v>41949728.148148365</v>
       </c>
       <c r="U55" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1691521.2962962983</v>
       </c>
       <c r="V55" s="13">
@@ -9174,7 +9957,7 @@
         <v>53050147.200000301</v>
       </c>
       <c r="U56" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2130528.0000000037</v>
       </c>
       <c r="V56" s="13">
@@ -9237,7 +10020,7 @@
         <v>56005826.04166697</v>
       </c>
       <c r="U57" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2240233.0416666702</v>
       </c>
       <c r="V57" s="13">
@@ -9300,7 +10083,7 @@
         <v>71842773.809524223</v>
       </c>
       <c r="U58" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2862261.90476191</v>
       </c>
       <c r="V58" s="13">
@@ -9363,7 +10146,7 @@
         <v>79312646.400000453</v>
       </c>
       <c r="U59" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3147327.2380952439</v>
       </c>
       <c r="V59" s="13">
@@ -9412,8 +10195,7 @@
         <v>56</v>
       </c>
       <c r="Q60" s="3">
-        <f t="shared" si="9"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R60" s="3">
         <v>88</v>
@@ -9423,19 +10205,19 @@
       </c>
       <c r="T60" s="12">
         <f t="shared" si="11"/>
-        <v>108358786.80000068</v>
+        <v>87275588.400000513</v>
       </c>
       <c r="U60" s="12">
-        <f t="shared" si="3"/>
-        <v>4282956.0000000102</v>
+        <f t="shared" si="12"/>
+        <v>3449628.0000000065</v>
       </c>
       <c r="V60" s="13">
         <f t="shared" si="4"/>
-        <v>108358786</v>
+        <v>87275588</v>
       </c>
       <c r="W60" s="13">
         <f t="shared" si="5"/>
-        <v>4282950</v>
+        <v>3449620</v>
       </c>
       <c r="X60" s="4">
         <f>Gacha!C61</f>
@@ -9475,30 +10257,29 @@
         <v>57</v>
       </c>
       <c r="Q61" s="3">
-        <f t="shared" si="9"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R61" s="3">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="S61" s="3">
         <v>25.400000000000102</v>
       </c>
       <c r="T61" s="12">
         <f t="shared" si="11"/>
-        <v>118764710.40000077</v>
+        <v>91627566.904762417</v>
       </c>
       <c r="U61" s="12">
-        <f t="shared" si="3"/>
-        <v>4675776.0000000112</v>
+        <f t="shared" si="12"/>
+        <v>3607384.5238095303</v>
       </c>
       <c r="V61" s="13">
         <f t="shared" si="4"/>
-        <v>118764710</v>
+        <v>91627566</v>
       </c>
       <c r="W61" s="13">
         <f t="shared" si="5"/>
-        <v>4675770</v>
+        <v>3607380</v>
       </c>
       <c r="X61" s="4">
         <f>Gacha!C62</f>
@@ -9538,30 +10319,29 @@
         <v>58</v>
       </c>
       <c r="Q62" s="3">
-        <f t="shared" si="9"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R62" s="3">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="S62" s="3">
-        <v>26</v>
+        <v>25.500000000000099</v>
       </c>
       <c r="T62" s="12">
         <f t="shared" si="11"/>
-        <v>169050419.20000052</v>
+        <v>94042452.696429089</v>
       </c>
       <c r="U62" s="12">
-        <f t="shared" si="3"/>
-        <v>6501939.2000000207</v>
+        <f t="shared" si="12"/>
+        <v>3687939.3214285779</v>
       </c>
       <c r="V62" s="13">
         <f t="shared" si="4"/>
-        <v>169050419</v>
+        <v>94042452</v>
       </c>
       <c r="W62" s="13">
         <f t="shared" si="5"/>
-        <v>6501930</v>
+        <v>3687930</v>
       </c>
       <c r="X62" s="4">
         <f>Gacha!C63</f>
@@ -9601,30 +10381,29 @@
         <v>59</v>
       </c>
       <c r="Q63" s="3">
-        <f t="shared" si="9"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R63" s="3">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S63" s="3">
-        <v>27</v>
+        <v>25.600000000000101</v>
       </c>
       <c r="T63" s="12">
         <f t="shared" si="11"/>
-        <v>190460160.00000057</v>
+        <v>100771726.628572</v>
       </c>
       <c r="U63" s="12">
-        <f t="shared" si="3"/>
-        <v>7054080.0000000196</v>
+        <f t="shared" si="12"/>
+        <v>3936395.5714285788</v>
       </c>
       <c r="V63" s="13">
         <f t="shared" si="4"/>
-        <v>190460160</v>
+        <v>100771726</v>
       </c>
       <c r="W63" s="13">
         <f t="shared" si="5"/>
-        <v>7054080</v>
+        <v>3936390</v>
       </c>
       <c r="X63" s="4">
         <f>Gacha!C64</f>
@@ -9640,7 +10419,7 @@
       </c>
       <c r="AA63" s="4">
         <f>Gacha!F64</f>
-        <v>0.15</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="AB63" s="4">
         <f>Gacha!G64</f>
@@ -9657,6 +10436,752 @@
       <c r="AE63" s="4">
         <f>Gacha!J64</f>
         <v>0.05</v>
+      </c>
+    </row>
+    <row r="64" spans="16:31" x14ac:dyDescent="0.3">
+      <c r="P64" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>37</v>
+      </c>
+      <c r="R64" s="3">
+        <v>97</v>
+      </c>
+      <c r="S64" s="3">
+        <v>25.700000000000099</v>
+      </c>
+      <c r="T64" s="12">
+        <f t="shared" si="11"/>
+        <v>107816372.90357207</v>
+      </c>
+      <c r="U64" s="12">
+        <f t="shared" si="12"/>
+        <v>4195189.6071428657</v>
+      </c>
+      <c r="V64" s="13">
+        <f t="shared" ref="V64:V75" si="13">ROUNDDOWN(T64,0)</f>
+        <v>107816372</v>
+      </c>
+      <c r="W64" s="13">
+        <f t="shared" ref="W64:W75" si="14">ROUNDDOWN(U64,-1)</f>
+        <v>4195180</v>
+      </c>
+      <c r="X64" s="4">
+        <f>Gacha!C65</f>
+        <v>0</v>
+      </c>
+      <c r="Y64" s="4">
+        <f>Gacha!D65</f>
+        <v>0</v>
+      </c>
+      <c r="Z64" s="4">
+        <f>Gacha!E65</f>
+        <v>0</v>
+      </c>
+      <c r="AA64" s="4">
+        <f>Gacha!F65</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB64" s="4">
+        <f>Gacha!G65</f>
+        <v>0.4</v>
+      </c>
+      <c r="AC64" s="4">
+        <f>Gacha!H65</f>
+        <v>0.3</v>
+      </c>
+      <c r="AD64" s="4">
+        <f>Gacha!I65</f>
+        <v>0.105</v>
+      </c>
+      <c r="AE64" s="4">
+        <f>Gacha!J65</f>
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="12:31" x14ac:dyDescent="0.3">
+      <c r="P65" s="3">
+        <v>61</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>38</v>
+      </c>
+      <c r="R65" s="3">
+        <v>100</v>
+      </c>
+      <c r="S65" s="3">
+        <v>25.8000000000001</v>
+      </c>
+      <c r="T65" s="12">
+        <f t="shared" si="11"/>
+        <v>142612080.00000086</v>
+      </c>
+      <c r="U65" s="12">
+        <f t="shared" si="12"/>
+        <v>5527600.0000000121</v>
+      </c>
+      <c r="V65" s="13">
+        <f t="shared" si="13"/>
+        <v>142612080</v>
+      </c>
+      <c r="W65" s="13">
+        <f t="shared" si="14"/>
+        <v>5527600</v>
+      </c>
+      <c r="X65" s="4">
+        <f>Gacha!C66</f>
+        <v>0</v>
+      </c>
+      <c r="Y65" s="4">
+        <f>Gacha!D66</f>
+        <v>0</v>
+      </c>
+      <c r="Z65" s="4">
+        <f>Gacha!E66</f>
+        <v>0</v>
+      </c>
+      <c r="AA65" s="4">
+        <f>Gacha!F66</f>
+        <v>0.13000000000000012</v>
+      </c>
+      <c r="AB65" s="4">
+        <f>Gacha!G66</f>
+        <v>0.4</v>
+      </c>
+      <c r="AC65" s="4">
+        <f>Gacha!H66</f>
+        <v>0.3</v>
+      </c>
+      <c r="AD65" s="4">
+        <f>Gacha!I66</f>
+        <v>0.11</v>
+      </c>
+      <c r="AE65" s="4">
+        <f>Gacha!J66</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="66" spans="12:31" x14ac:dyDescent="0.3">
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="P66" s="3">
+        <v>62</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>38</v>
+      </c>
+      <c r="R66" s="3">
+        <v>102</v>
+      </c>
+      <c r="S66" s="3">
+        <v>25.900000000000102</v>
+      </c>
+      <c r="T66" s="12">
+        <f t="shared" si="11"/>
+        <v>149047590.45555648</v>
+      </c>
+      <c r="U66" s="12">
+        <f t="shared" si="12"/>
+        <v>5754733.222222236</v>
+      </c>
+      <c r="V66" s="13">
+        <f t="shared" si="13"/>
+        <v>149047590</v>
+      </c>
+      <c r="W66" s="13">
+        <f t="shared" si="14"/>
+        <v>5754730</v>
+      </c>
+      <c r="X66" s="4">
+        <f>Gacha!C67</f>
+        <v>0</v>
+      </c>
+      <c r="Y66" s="4">
+        <f>Gacha!D67</f>
+        <v>0</v>
+      </c>
+      <c r="Z66" s="4">
+        <f>Gacha!E67</f>
+        <v>0</v>
+      </c>
+      <c r="AA66" s="4">
+        <f>Gacha!F67</f>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="AB66" s="4">
+        <f>Gacha!G67</f>
+        <v>0.4</v>
+      </c>
+      <c r="AC66" s="4">
+        <f>Gacha!H67</f>
+        <v>0.3</v>
+      </c>
+      <c r="AD66" s="4">
+        <f>Gacha!I67</f>
+        <v>0.115</v>
+      </c>
+      <c r="AE66" s="4">
+        <f>Gacha!J67</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="12:31" x14ac:dyDescent="0.3">
+      <c r="P67" s="3">
+        <v>63</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>38</v>
+      </c>
+      <c r="R67" s="3">
+        <v>104</v>
+      </c>
+      <c r="S67" s="3">
+        <v>26.000000000000099</v>
+      </c>
+      <c r="T67" s="12">
+        <f t="shared" si="11"/>
+        <v>155679437.33333427</v>
+      </c>
+      <c r="U67" s="12">
+        <f t="shared" si="12"/>
+        <v>5987670.66666668</v>
+      </c>
+      <c r="V67" s="13">
+        <f t="shared" si="13"/>
+        <v>155679437</v>
+      </c>
+      <c r="W67" s="13">
+        <f t="shared" si="14"/>
+        <v>5987670</v>
+      </c>
+      <c r="X67" s="4">
+        <f>Gacha!C68</f>
+        <v>0</v>
+      </c>
+      <c r="Y67" s="4">
+        <f>Gacha!D68</f>
+        <v>0</v>
+      </c>
+      <c r="Z67" s="4">
+        <f>Gacha!E68</f>
+        <v>0</v>
+      </c>
+      <c r="AA67" s="4">
+        <f>Gacha!F68</f>
+        <v>0.1100000000000001</v>
+      </c>
+      <c r="AB67" s="4">
+        <f>Gacha!G68</f>
+        <v>0.4</v>
+      </c>
+      <c r="AC67" s="4">
+        <f>Gacha!H68</f>
+        <v>0.3</v>
+      </c>
+      <c r="AD67" s="4">
+        <f>Gacha!I68</f>
+        <v>0.12</v>
+      </c>
+      <c r="AE67" s="4">
+        <f>Gacha!J68</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="12:31" x14ac:dyDescent="0.3">
+      <c r="P68" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>38</v>
+      </c>
+      <c r="R68" s="3">
+        <v>106</v>
+      </c>
+      <c r="S68" s="3">
+        <v>26.100000000000101</v>
+      </c>
+      <c r="T68" s="12">
+        <f t="shared" ref="T68:T75" si="15">(VLOOKUP(Q68,E:I,5,FALSE)+$L$4+R68*$L$12)*(1+R68*$L$13)*$L$5*(1+R68*$L$14)*$L$6*(1/(1-VLOOKUP(Q68,E:I,4,FALSE)))*S68</f>
+        <v>162511101.90000102</v>
+      </c>
+      <c r="U68" s="12">
+        <f t="shared" ref="U68:U75" si="16">(VLOOKUP(Q68,E:I,5,FALSE)+$L$4+R68*$L$12)*(1+R68*$L$13)*(1+R68*$L$14)/(1-VLOOKUP(Q68,E:I,4,FALSE))</f>
+        <v>6226479.0000000149</v>
+      </c>
+      <c r="V68" s="13">
+        <f t="shared" si="13"/>
+        <v>162511101</v>
+      </c>
+      <c r="W68" s="13">
+        <f t="shared" si="14"/>
+        <v>6226470</v>
+      </c>
+      <c r="X68" s="4">
+        <f>Gacha!C69</f>
+        <v>0</v>
+      </c>
+      <c r="Y68" s="4">
+        <f>Gacha!D69</f>
+        <v>0</v>
+      </c>
+      <c r="Z68" s="4">
+        <f>Gacha!E69</f>
+        <v>0</v>
+      </c>
+      <c r="AA68" s="4">
+        <f>Gacha!F69</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AB68" s="4">
+        <f>Gacha!G69</f>
+        <v>0.4</v>
+      </c>
+      <c r="AC68" s="4">
+        <f>Gacha!H69</f>
+        <v>0.3</v>
+      </c>
+      <c r="AD68" s="4">
+        <f>Gacha!I69</f>
+        <v>0.125</v>
+      </c>
+      <c r="AE68" s="4">
+        <f>Gacha!J69</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="12:31" x14ac:dyDescent="0.3">
+      <c r="P69" s="3">
+        <v>65</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>38</v>
+      </c>
+      <c r="R69" s="3">
+        <v>108</v>
+      </c>
+      <c r="S69" s="3">
+        <v>26.200000000000099</v>
+      </c>
+      <c r="T69" s="12">
+        <f t="shared" si="15"/>
+        <v>169546092.08888993</v>
+      </c>
+      <c r="U69" s="12">
+        <f t="shared" si="16"/>
+        <v>6471224.8888889039</v>
+      </c>
+      <c r="V69" s="13">
+        <f t="shared" si="13"/>
+        <v>169546092</v>
+      </c>
+      <c r="W69" s="13">
+        <f t="shared" si="14"/>
+        <v>6471220</v>
+      </c>
+      <c r="X69" s="4">
+        <f>Gacha!C70</f>
+        <v>0</v>
+      </c>
+      <c r="Y69" s="4">
+        <f>Gacha!D70</f>
+        <v>0</v>
+      </c>
+      <c r="Z69" s="4">
+        <f>Gacha!E70</f>
+        <v>0</v>
+      </c>
+      <c r="AA69" s="4">
+        <f>Gacha!F70</f>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="AB69" s="4">
+        <f>Gacha!G70</f>
+        <v>0.4</v>
+      </c>
+      <c r="AC69" s="4">
+        <f>Gacha!H70</f>
+        <v>0.3</v>
+      </c>
+      <c r="AD69" s="4">
+        <f>Gacha!I70</f>
+        <v>0.13</v>
+      </c>
+      <c r="AE69" s="4">
+        <f>Gacha!J70</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="70" spans="12:31" x14ac:dyDescent="0.3">
+      <c r="P70" s="3">
+        <v>66</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>38</v>
+      </c>
+      <c r="R70" s="3">
+        <v>110</v>
+      </c>
+      <c r="S70" s="3">
+        <v>26.3000000000001</v>
+      </c>
+      <c r="T70" s="12">
+        <f t="shared" si="15"/>
+        <v>176787942.50000107</v>
+      </c>
+      <c r="U70" s="12">
+        <f t="shared" si="16"/>
+        <v>6721975.0000000149</v>
+      </c>
+      <c r="V70" s="13">
+        <f t="shared" si="13"/>
+        <v>176787942</v>
+      </c>
+      <c r="W70" s="13">
+        <f t="shared" si="14"/>
+        <v>6721970</v>
+      </c>
+      <c r="X70" s="4">
+        <f>Gacha!C71</f>
+        <v>0</v>
+      </c>
+      <c r="Y70" s="4">
+        <f>Gacha!D71</f>
+        <v>0</v>
+      </c>
+      <c r="Z70" s="4">
+        <f>Gacha!E71</f>
+        <v>0</v>
+      </c>
+      <c r="AA70" s="4">
+        <f>Gacha!F71</f>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="AB70" s="4">
+        <f>Gacha!G71</f>
+        <v>0.4</v>
+      </c>
+      <c r="AC70" s="4">
+        <f>Gacha!H71</f>
+        <v>0.3</v>
+      </c>
+      <c r="AD70" s="4">
+        <f>Gacha!I71</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="AE70" s="4">
+        <f>Gacha!J71</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="12:31" x14ac:dyDescent="0.3">
+      <c r="P71" s="3">
+        <v>67</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>38</v>
+      </c>
+      <c r="R71" s="3">
+        <v>112</v>
+      </c>
+      <c r="S71" s="3">
+        <v>26.400000000000102</v>
+      </c>
+      <c r="T71" s="12">
+        <f t="shared" si="15"/>
+        <v>184240214.40000114</v>
+      </c>
+      <c r="U71" s="12">
+        <f t="shared" si="16"/>
+        <v>6978796.0000000168</v>
+      </c>
+      <c r="V71" s="13">
+        <f t="shared" si="13"/>
+        <v>184240214</v>
+      </c>
+      <c r="W71" s="13">
+        <f t="shared" si="14"/>
+        <v>6978790</v>
+      </c>
+      <c r="X71" s="4">
+        <f>Gacha!C72</f>
+        <v>0</v>
+      </c>
+      <c r="Y71" s="4">
+        <f>Gacha!D72</f>
+        <v>0</v>
+      </c>
+      <c r="Z71" s="4">
+        <f>Gacha!E72</f>
+        <v>0</v>
+      </c>
+      <c r="AA71" s="4">
+        <f>Gacha!F72</f>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="AB71" s="4">
+        <f>Gacha!G72</f>
+        <v>0.4</v>
+      </c>
+      <c r="AC71" s="4">
+        <f>Gacha!H72</f>
+        <v>0.3</v>
+      </c>
+      <c r="AD71" s="4">
+        <f>Gacha!I72</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AE71" s="4">
+        <f>Gacha!J72</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="72" spans="12:31" x14ac:dyDescent="0.3">
+      <c r="P72" s="3">
+        <v>68</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>39</v>
+      </c>
+      <c r="R72" s="3">
+        <v>105</v>
+      </c>
+      <c r="S72" s="3">
+        <v>26.500000000000099</v>
+      </c>
+      <c r="T72" s="12">
+        <f t="shared" si="15"/>
+        <v>206285937.50000137</v>
+      </c>
+      <c r="U72" s="12">
+        <f t="shared" si="16"/>
+        <v>7784375.0000000224</v>
+      </c>
+      <c r="V72" s="13">
+        <f t="shared" si="13"/>
+        <v>206285937</v>
+      </c>
+      <c r="W72" s="13">
+        <f t="shared" si="14"/>
+        <v>7784370</v>
+      </c>
+      <c r="X72" s="4">
+        <f>Gacha!C73</f>
+        <v>0</v>
+      </c>
+      <c r="Y72" s="4">
+        <f>Gacha!D73</f>
+        <v>0</v>
+      </c>
+      <c r="Z72" s="4">
+        <f>Gacha!E73</f>
+        <v>0</v>
+      </c>
+      <c r="AA72" s="4">
+        <f>Gacha!F73</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="AB72" s="4">
+        <f>Gacha!G73</f>
+        <v>0.4</v>
+      </c>
+      <c r="AC72" s="4">
+        <f>Gacha!H73</f>
+        <v>0.3</v>
+      </c>
+      <c r="AD72" s="4">
+        <f>Gacha!I73</f>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AE72" s="4">
+        <f>Gacha!J73</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="12:31" x14ac:dyDescent="0.3">
+      <c r="P73" s="3">
+        <v>69</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>39</v>
+      </c>
+      <c r="R73" s="3">
+        <v>110</v>
+      </c>
+      <c r="S73" s="3">
+        <v>26.600000000000101</v>
+      </c>
+      <c r="T73" s="12">
+        <f t="shared" si="15"/>
+        <v>227706994.66666818</v>
+      </c>
+      <c r="U73" s="12">
+        <f t="shared" si="16"/>
+        <v>8560413.3333333582</v>
+      </c>
+      <c r="V73" s="13">
+        <f t="shared" si="13"/>
+        <v>227706994</v>
+      </c>
+      <c r="W73" s="13">
+        <f t="shared" si="14"/>
+        <v>8560410</v>
+      </c>
+      <c r="X73" s="4">
+        <f>Gacha!C74</f>
+        <v>0</v>
+      </c>
+      <c r="Y73" s="4">
+        <f>Gacha!D74</f>
+        <v>0</v>
+      </c>
+      <c r="Z73" s="4">
+        <f>Gacha!E74</f>
+        <v>0</v>
+      </c>
+      <c r="AA73" s="4">
+        <f>Gacha!F74</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AB73" s="4">
+        <f>Gacha!G74</f>
+        <v>0.4</v>
+      </c>
+      <c r="AC73" s="4">
+        <f>Gacha!H74</f>
+        <v>0.3</v>
+      </c>
+      <c r="AD73" s="4">
+        <f>Gacha!I74</f>
+        <v>0.15</v>
+      </c>
+      <c r="AE73" s="4">
+        <f>Gacha!J74</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="74" spans="12:31" x14ac:dyDescent="0.3">
+      <c r="P74" s="3">
+        <v>70</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>39</v>
+      </c>
+      <c r="R74" s="3">
+        <v>115</v>
+      </c>
+      <c r="S74" s="3">
+        <v>26.700000000000099</v>
+      </c>
+      <c r="T74" s="12">
+        <f t="shared" si="15"/>
+        <v>250537981.50000161</v>
+      </c>
+      <c r="U74" s="12">
+        <f t="shared" si="16"/>
+        <v>9383445.0000000261</v>
+      </c>
+      <c r="V74" s="13">
+        <f t="shared" si="13"/>
+        <v>250537981</v>
+      </c>
+      <c r="W74" s="13">
+        <f t="shared" si="14"/>
+        <v>9383440</v>
+      </c>
+      <c r="X74" s="4">
+        <f>Gacha!C75</f>
+        <v>0</v>
+      </c>
+      <c r="Y74" s="4">
+        <f>Gacha!D75</f>
+        <v>0</v>
+      </c>
+      <c r="Z74" s="4">
+        <f>Gacha!E75</f>
+        <v>0</v>
+      </c>
+      <c r="AA74" s="4">
+        <f>Gacha!F75</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="AB74" s="4">
+        <f>Gacha!G75</f>
+        <v>0.4</v>
+      </c>
+      <c r="AC74" s="4">
+        <f>Gacha!H75</f>
+        <v>0.3</v>
+      </c>
+      <c r="AD74" s="4">
+        <f>Gacha!I75</f>
+        <v>0.155</v>
+      </c>
+      <c r="AE74" s="4">
+        <f>Gacha!J75</f>
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="75" spans="12:31" x14ac:dyDescent="0.3">
+      <c r="P75" s="3">
+        <v>71</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>39</v>
+      </c>
+      <c r="R75" s="3">
+        <v>120</v>
+      </c>
+      <c r="S75" s="3">
+        <v>26.8000000000001</v>
+      </c>
+      <c r="T75" s="12">
+        <f t="shared" si="15"/>
+        <v>274826496.00000185</v>
+      </c>
+      <c r="U75" s="12">
+        <f t="shared" si="16"/>
+        <v>10254720.000000028</v>
+      </c>
+      <c r="V75" s="13">
+        <f t="shared" si="13"/>
+        <v>274826496</v>
+      </c>
+      <c r="W75" s="13">
+        <f t="shared" si="14"/>
+        <v>10254720</v>
+      </c>
+      <c r="X75" s="4">
+        <f>Gacha!C76</f>
+        <v>0</v>
+      </c>
+      <c r="Y75" s="4">
+        <f>Gacha!D76</f>
+        <v>0</v>
+      </c>
+      <c r="Z75" s="4">
+        <f>Gacha!E76</f>
+        <v>0</v>
+      </c>
+      <c r="AA75" s="4">
+        <f>Gacha!F76</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AB75" s="4">
+        <f>Gacha!G76</f>
+        <v>0.4</v>
+      </c>
+      <c r="AC75" s="4">
+        <f>Gacha!H76</f>
+        <v>0.3</v>
+      </c>
+      <c r="AD75" s="4">
+        <f>Gacha!I76</f>
+        <v>0.16</v>
+      </c>
+      <c r="AE75" s="4">
+        <f>Gacha!J76</f>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -9665,7 +11190,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD($P1,12)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9675,10 +11200,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D332C7-12D3-4F60-807E-97DF73C6F089}">
-  <dimension ref="B2:W65"/>
+  <dimension ref="B2:W76"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="N66" sqref="N66:N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9691,10 +11216,10 @@
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" t="s">
         <v>98</v>
-      </c>
-      <c r="N2" t="s">
-        <v>99</v>
       </c>
       <c r="O2">
         <v>5</v>
@@ -9702,33 +11227,33 @@
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C3" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>87</v>
-      </c>
       <c r="H3" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I3" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>94</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -9749,19 +11274,19 @@
         <v>7</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="K4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="18" t="s">
-        <v>103</v>
-      </c>
       <c r="N4" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>2</v>
@@ -9782,13 +11307,13 @@
         <v>7</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="W4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
@@ -14289,7 +15814,8 @@
         <v>0</v>
       </c>
       <c r="F64" s="6">
-        <v>0.15</v>
+        <f>1-SUM(G64:J64)</f>
+        <v>0.15000000000000002</v>
       </c>
       <c r="G64" s="6">
         <v>0.4</v>
@@ -14327,7 +15853,7 @@
       </c>
       <c r="R64" s="4">
         <f>K64*$O$2*F64</f>
-        <v>3.75</v>
+        <v>3.7500000000000004</v>
       </c>
       <c r="S64" s="4">
         <f>K64*$O$2*G64</f>
@@ -14351,26 +15877,916 @@
       </c>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B65" s="14"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="4"/>
-      <c r="N65" s="14"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="4"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="4"/>
-      <c r="W65" s="4"/>
+      <c r="B65" s="14">
+        <v>60</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
+      <c r="F65" s="6">
+        <f t="shared" ref="F65:F76" si="14">1-SUM(G65:J65)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G65" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H65" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0.105</v>
+      </c>
+      <c r="J65" s="6">
+        <v>5.5E-2</v>
+      </c>
+      <c r="K65" s="4">
+        <v>5</v>
+      </c>
+      <c r="L65">
+        <f t="shared" ref="L65:L76" si="15">SUM(C65:J65)</f>
+        <v>1</v>
+      </c>
+      <c r="N65" s="14">
+        <v>60</v>
+      </c>
+      <c r="O65" s="4">
+        <f t="shared" ref="O65:O76" si="16">K65*$O$2*C65</f>
+        <v>0</v>
+      </c>
+      <c r="P65" s="4">
+        <f t="shared" ref="P65:P76" si="17">K65*$O$2*D65</f>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="4">
+        <f t="shared" ref="Q65:Q76" si="18">K65*$O$2*E65</f>
+        <v>0</v>
+      </c>
+      <c r="R65" s="4">
+        <f t="shared" ref="R65:R76" si="19">K65*$O$2*F65</f>
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="S65" s="4">
+        <f t="shared" ref="S65:S76" si="20">K65*$O$2*G65</f>
+        <v>10</v>
+      </c>
+      <c r="T65" s="4">
+        <f t="shared" ref="T65:T76" si="21">K65*$O$2*H65</f>
+        <v>7.5</v>
+      </c>
+      <c r="U65" s="4">
+        <f t="shared" ref="U65:U76" si="22">K65*$O$2*I65</f>
+        <v>2.625</v>
+      </c>
+      <c r="V65" s="4">
+        <f t="shared" ref="V65:V76" si="23">K65*$O$2*J65</f>
+        <v>1.375</v>
+      </c>
+      <c r="W65" s="4">
+        <f t="shared" ref="W65:W76" si="24">SUM(O65:V65)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B66" s="14">
+        <v>61</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6">
+        <f t="shared" si="14"/>
+        <v>0.13000000000000012</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="J66" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="K66" s="4">
+        <v>5</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N66" s="14">
+        <v>61</v>
+      </c>
+      <c r="O66" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R66" s="4">
+        <f t="shared" si="19"/>
+        <v>3.2500000000000027</v>
+      </c>
+      <c r="S66" s="4">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="T66" s="4">
+        <f t="shared" si="21"/>
+        <v>7.5</v>
+      </c>
+      <c r="U66" s="4">
+        <f t="shared" si="22"/>
+        <v>2.75</v>
+      </c>
+      <c r="V66" s="4">
+        <f t="shared" si="23"/>
+        <v>1.5</v>
+      </c>
+      <c r="W66" s="4">
+        <f t="shared" si="24"/>
+        <v>25.000000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B67" s="14">
+        <v>62</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0</v>
+      </c>
+      <c r="F67" s="6">
+        <f t="shared" si="14"/>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H67" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0.115</v>
+      </c>
+      <c r="J67" s="6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K67" s="4">
+        <v>5</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N67" s="14">
+        <v>62</v>
+      </c>
+      <c r="O67" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R67" s="4">
+        <f t="shared" si="19"/>
+        <v>3.0000000000000027</v>
+      </c>
+      <c r="S67" s="4">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="T67" s="4">
+        <f t="shared" si="21"/>
+        <v>7.5</v>
+      </c>
+      <c r="U67" s="4">
+        <f t="shared" si="22"/>
+        <v>2.875</v>
+      </c>
+      <c r="V67" s="4">
+        <f t="shared" si="23"/>
+        <v>1.625</v>
+      </c>
+      <c r="W67" s="4">
+        <f t="shared" si="24"/>
+        <v>25.000000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B68" s="14">
+        <v>63</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F68" s="6">
+        <f t="shared" si="14"/>
+        <v>0.1100000000000001</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H68" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="J68" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K68" s="4">
+        <v>5</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N68" s="14">
+        <v>63</v>
+      </c>
+      <c r="O68" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R68" s="4">
+        <f t="shared" si="19"/>
+        <v>2.7500000000000027</v>
+      </c>
+      <c r="S68" s="4">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="T68" s="4">
+        <f t="shared" si="21"/>
+        <v>7.5</v>
+      </c>
+      <c r="U68" s="4">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="V68" s="4">
+        <f t="shared" si="23"/>
+        <v>1.7500000000000002</v>
+      </c>
+      <c r="W68" s="4">
+        <f t="shared" si="24"/>
+        <v>25.000000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B69" s="14">
+        <v>64</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="6">
+        <f t="shared" si="14"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H69" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="J69" s="6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K69" s="4">
+        <v>5</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N69" s="14">
+        <v>64</v>
+      </c>
+      <c r="O69" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R69" s="4">
+        <f t="shared" si="19"/>
+        <v>2.5000000000000022</v>
+      </c>
+      <c r="S69" s="4">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="T69" s="4">
+        <f t="shared" si="21"/>
+        <v>7.5</v>
+      </c>
+      <c r="U69" s="4">
+        <f t="shared" si="22"/>
+        <v>3.125</v>
+      </c>
+      <c r="V69" s="4">
+        <f t="shared" si="23"/>
+        <v>1.875</v>
+      </c>
+      <c r="W69" s="4">
+        <f t="shared" si="24"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B70" s="14">
+        <v>65</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6">
+        <f t="shared" si="14"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="G70" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H70" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I70" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="J70" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="K70" s="4">
+        <v>5</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N70" s="14">
+        <v>65</v>
+      </c>
+      <c r="O70" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="4">
+        <f t="shared" si="19"/>
+        <v>2.2500000000000018</v>
+      </c>
+      <c r="S70" s="4">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="T70" s="4">
+        <f t="shared" si="21"/>
+        <v>7.5</v>
+      </c>
+      <c r="U70" s="4">
+        <f t="shared" si="22"/>
+        <v>3.25</v>
+      </c>
+      <c r="V70" s="4">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="W70" s="4">
+        <f t="shared" si="24"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B71" s="14">
+        <v>66</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+      <c r="F71" s="6">
+        <f t="shared" si="14"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="G71" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H71" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I71" s="6">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="J71" s="6">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K71" s="4">
+        <v>5</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N71" s="14">
+        <v>66</v>
+      </c>
+      <c r="O71" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R71" s="4">
+        <f t="shared" si="19"/>
+        <v>2.0000000000000018</v>
+      </c>
+      <c r="S71" s="4">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="T71" s="4">
+        <f t="shared" si="21"/>
+        <v>7.5</v>
+      </c>
+      <c r="U71" s="4">
+        <f t="shared" si="22"/>
+        <v>3.375</v>
+      </c>
+      <c r="V71" s="4">
+        <f t="shared" si="23"/>
+        <v>2.125</v>
+      </c>
+      <c r="W71" s="4">
+        <f t="shared" si="24"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B72" s="14">
+        <v>67</v>
+      </c>
+      <c r="C72" s="4">
+        <v>0</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="6">
+        <v>0</v>
+      </c>
+      <c r="F72" s="6">
+        <f t="shared" si="14"/>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="G72" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H72" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I72" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J72" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="K72" s="4">
+        <v>5</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N72" s="14">
+        <v>67</v>
+      </c>
+      <c r="O72" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R72" s="4">
+        <f t="shared" si="19"/>
+        <v>1.7500000000000016</v>
+      </c>
+      <c r="S72" s="4">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="T72" s="4">
+        <f t="shared" si="21"/>
+        <v>7.5</v>
+      </c>
+      <c r="U72" s="4">
+        <f t="shared" si="22"/>
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="V72" s="4">
+        <f t="shared" si="23"/>
+        <v>2.25</v>
+      </c>
+      <c r="W72" s="4">
+        <f t="shared" si="24"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B73" s="14">
+        <v>68</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="F73" s="6">
+        <f t="shared" si="14"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="G73" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H73" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I73" s="6">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="J73" s="6">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K73" s="4">
+        <v>5</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N73" s="14">
+        <v>68</v>
+      </c>
+      <c r="O73" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R73" s="4">
+        <f t="shared" si="19"/>
+        <v>1.5000000000000013</v>
+      </c>
+      <c r="S73" s="4">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="T73" s="4">
+        <f t="shared" si="21"/>
+        <v>7.5</v>
+      </c>
+      <c r="U73" s="4">
+        <f t="shared" si="22"/>
+        <v>3.6249999999999996</v>
+      </c>
+      <c r="V73" s="4">
+        <f t="shared" si="23"/>
+        <v>2.375</v>
+      </c>
+      <c r="W73" s="4">
+        <f t="shared" si="24"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B74" s="14">
+        <v>69</v>
+      </c>
+      <c r="C74" s="4">
+        <v>0</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="F74" s="6">
+        <f t="shared" si="14"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="G74" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H74" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="J74" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K74" s="4">
+        <v>5</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N74" s="14">
+        <v>69</v>
+      </c>
+      <c r="O74" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R74" s="4">
+        <f t="shared" si="19"/>
+        <v>1.2500000000000011</v>
+      </c>
+      <c r="S74" s="4">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="T74" s="4">
+        <f t="shared" si="21"/>
+        <v>7.5</v>
+      </c>
+      <c r="U74" s="4">
+        <f t="shared" si="22"/>
+        <v>3.75</v>
+      </c>
+      <c r="V74" s="4">
+        <f t="shared" si="23"/>
+        <v>2.5</v>
+      </c>
+      <c r="W74" s="4">
+        <f t="shared" si="24"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B75" s="14">
+        <v>70</v>
+      </c>
+      <c r="C75" s="4">
+        <v>0</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0</v>
+      </c>
+      <c r="E75" s="6">
+        <v>0</v>
+      </c>
+      <c r="F75" s="6">
+        <f t="shared" si="14"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="G75" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H75" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I75" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="J75" s="6">
+        <v>0.105</v>
+      </c>
+      <c r="K75" s="4">
+        <v>5</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N75" s="14">
+        <v>70</v>
+      </c>
+      <c r="O75" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="4">
+        <f t="shared" si="19"/>
+        <v>1.0000000000000009</v>
+      </c>
+      <c r="S75" s="4">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="T75" s="4">
+        <f t="shared" si="21"/>
+        <v>7.5</v>
+      </c>
+      <c r="U75" s="4">
+        <f t="shared" si="22"/>
+        <v>3.875</v>
+      </c>
+      <c r="V75" s="4">
+        <f t="shared" si="23"/>
+        <v>2.625</v>
+      </c>
+      <c r="W75" s="4">
+        <f t="shared" si="24"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B76" s="14">
+        <v>71</v>
+      </c>
+      <c r="C76" s="4">
+        <v>0</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
+      <c r="F76" s="6">
+        <f t="shared" si="14"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="G76" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H76" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I76" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="J76" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="K76" s="4">
+        <v>5</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N76" s="14">
+        <v>71</v>
+      </c>
+      <c r="O76" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R76" s="4">
+        <f t="shared" si="19"/>
+        <v>0.75000000000000067</v>
+      </c>
+      <c r="S76" s="4">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="T76" s="4">
+        <f t="shared" si="21"/>
+        <v>7.5</v>
+      </c>
+      <c r="U76" s="4">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="V76" s="4">
+        <f t="shared" si="23"/>
+        <v>2.75</v>
+      </c>
+      <c r="W76" s="4">
+        <f t="shared" si="24"/>
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14380,10 +16796,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4A8E7C-BCE9-444A-AF20-45D33AF776F9}">
-  <dimension ref="D2:AB107"/>
+  <dimension ref="D2:AB159"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G66"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14395,6 +16811,7 @@
     <col min="12" max="12" width="9.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20.25" style="19" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="17.75" customWidth="1"/>
@@ -14402,21 +16819,21 @@
   <sheetData>
     <row r="2" spans="4:28" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2">
         <v>0.2</v>
       </c>
       <c r="N2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O2">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="4:28" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -14424,7 +16841,7 @@
     </row>
     <row r="4" spans="4:28" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -14432,7 +16849,7 @@
     </row>
     <row r="5" spans="4:28" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="4:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -14440,55 +16857,55 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" t="s">
         <v>112</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>113</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
+        <v>202</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N6" t="s">
-        <v>203</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+      <c r="S6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="T6" s="2" t="s">
+      <c r="W6" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="W6" s="30" t="s">
+      <c r="X6" s="32"/>
+      <c r="AA6" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="X6" s="31"/>
-      <c r="AA6" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB6" s="29"/>
+      <c r="AB6" s="30"/>
     </row>
     <row r="7" spans="4:28" x14ac:dyDescent="0.3">
       <c r="D7" s="3">
@@ -14540,7 +16957,7 @@
         <v>5</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T7" s="5">
         <f>$AB$7</f>
@@ -14557,7 +16974,7 @@
         <v>0.3</v>
       </c>
       <c r="AA7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB7">
         <v>100</v>
@@ -14609,7 +17026,7 @@
         <v>4</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T8" s="5">
         <f>ROUNDDOWN(ROUNDUP(T7*$AB$8,2)*IF(Q7=Q8,1,VLOOKUP(Q8,Z:AB,3,FALSE)),-1)</f>
@@ -14626,7 +17043,7 @@
         <v>0.25</v>
       </c>
       <c r="AA8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB8">
         <v>1.1000000000000001</v>
@@ -14678,7 +17095,7 @@
         <v>3</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T9" s="5">
         <f t="shared" ref="T9:T46" si="4">ROUNDDOWN(ROUNDUP(T8*$AB$8,2)*IF(Q8=Q9,1,VLOOKUP(Q9,Z:AB,3,FALSE)),-1)</f>
@@ -14695,10 +17112,10 @@
         <v>0.2</v>
       </c>
       <c r="Z9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA9" t="s">
         <v>81</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="10" spans="4:28" x14ac:dyDescent="0.3">
@@ -14747,7 +17164,7 @@
         <v>2</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T10" s="5">
         <f t="shared" si="4"/>
@@ -14767,7 +17184,7 @@
         <v>1</v>
       </c>
       <c r="AA10" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB10">
         <v>1.3</v>
@@ -14819,7 +17236,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T11" s="5">
         <f t="shared" si="4"/>
@@ -14839,7 +17256,7 @@
         <v>2</v>
       </c>
       <c r="AA11" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB11">
         <v>1.3</v>
@@ -14892,7 +17309,7 @@
         <v>5</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T12" s="5">
         <f t="shared" si="4"/>
@@ -14903,7 +17320,7 @@
         <v>60</v>
       </c>
       <c r="W12" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X12" s="14">
         <f>SUM(X7:X11)</f>
@@ -14913,7 +17330,7 @@
         <v>3</v>
       </c>
       <c r="AA12" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB12">
         <v>1.3</v>
@@ -14966,7 +17383,7 @@
         <v>4</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T13" s="5">
         <f t="shared" si="4"/>
@@ -14980,7 +17397,7 @@
         <v>4</v>
       </c>
       <c r="AA13" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB13">
         <v>1.2</v>
@@ -15033,7 +17450,7 @@
         <v>3</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T14" s="5">
         <f t="shared" si="4"/>
@@ -15047,7 +17464,7 @@
         <v>5</v>
       </c>
       <c r="AA14" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB14">
         <v>1.2</v>
@@ -15100,7 +17517,7 @@
         <v>2</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T15" s="5">
         <f t="shared" si="4"/>
@@ -15114,7 +17531,7 @@
         <v>6</v>
       </c>
       <c r="AA15" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB15">
         <v>1.2</v>
@@ -15167,7 +17584,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T16" s="5">
         <f t="shared" si="4"/>
@@ -15181,7 +17598,7 @@
         <v>7</v>
       </c>
       <c r="AA16" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB16">
         <v>1.2</v>
@@ -15234,7 +17651,7 @@
         <v>5</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T17" s="5">
         <f t="shared" si="4"/>
@@ -15292,7 +17709,7 @@
         <v>4</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T18" s="5">
         <f t="shared" si="4"/>
@@ -15303,7 +17720,7 @@
         <v>110</v>
       </c>
       <c r="Z18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="4:28" x14ac:dyDescent="0.3">
@@ -15353,7 +17770,7 @@
         <v>3</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T19" s="5">
         <f t="shared" si="4"/>
@@ -15364,7 +17781,7 @@
         <v>96</v>
       </c>
       <c r="Z19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="4:28" x14ac:dyDescent="0.3">
@@ -15414,7 +17831,7 @@
         <v>2</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T20" s="5">
         <f t="shared" si="4"/>
@@ -15428,7 +17845,7 @@
         <v>1</v>
       </c>
       <c r="AA20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB20">
         <f>SUM(U7:U11)</f>
@@ -15465,7 +17882,7 @@
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="N21" s="8">
         <f t="shared" si="2"/>
@@ -15482,7 +17899,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T21" s="5">
         <f t="shared" si="4"/>
@@ -15496,7 +17913,7 @@
         <v>2</v>
       </c>
       <c r="AA21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB21" s="21">
         <f>SUM(U12:U16)</f>
@@ -15533,11 +17950,11 @@
       </c>
       <c r="M22">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="N22" s="8">
         <f t="shared" si="2"/>
-        <v>0.2857142857142857</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="P22" s="3">
         <v>15</v>
@@ -15550,7 +17967,7 @@
         <v>5</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T22" s="5">
         <f t="shared" si="4"/>
@@ -15564,7 +17981,7 @@
         <v>3</v>
       </c>
       <c r="AA22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB22" s="21">
         <f>SUM(U17:U21)</f>
@@ -15605,7 +18022,7 @@
       </c>
       <c r="N23" s="8">
         <f t="shared" si="2"/>
-        <v>0.2857142857142857</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="P23" s="3">
         <v>16</v>
@@ -15618,7 +18035,7 @@
         <v>4</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T23" s="5">
         <f t="shared" si="4"/>
@@ -15632,7 +18049,7 @@
         <v>4</v>
       </c>
       <c r="AA23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB23" s="21">
         <f>SUM(U22:U26)</f>
@@ -15673,7 +18090,7 @@
       </c>
       <c r="N24" s="8">
         <f t="shared" si="2"/>
-        <v>0.2857142857142857</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="P24" s="3">
         <v>17</v>
@@ -15686,7 +18103,7 @@
         <v>3</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T24" s="5">
         <f t="shared" si="4"/>
@@ -15700,7 +18117,7 @@
         <v>5</v>
       </c>
       <c r="AA24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB24" s="21">
         <f>SUM(U27:U31)</f>
@@ -15754,7 +18171,7 @@
         <v>2</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T25" s="5">
         <f t="shared" si="4"/>
@@ -15768,7 +18185,7 @@
         <v>6</v>
       </c>
       <c r="AA25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB25" s="21">
         <f>SUM(U32:U36)</f>
@@ -15822,7 +18239,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T26" s="5">
         <f t="shared" si="4"/>
@@ -15836,7 +18253,7 @@
         <v>7</v>
       </c>
       <c r="AA26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB26" s="21">
         <f>SUM(U37:U41)</f>
@@ -15873,7 +18290,7 @@
       </c>
       <c r="M27">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="N27" s="8">
         <f t="shared" si="2"/>
@@ -15890,7 +18307,7 @@
         <v>5</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T27" s="5">
         <f t="shared" si="4"/>
@@ -15904,7 +18321,7 @@
         <v>8</v>
       </c>
       <c r="AA27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB27" s="21">
         <f>SUM(U42:U46)</f>
@@ -15941,7 +18358,7 @@
       </c>
       <c r="M28">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="N28" s="8">
         <f t="shared" si="2"/>
@@ -15958,7 +18375,7 @@
         <v>4</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T28" s="5">
         <f t="shared" si="4"/>
@@ -15999,11 +18416,11 @@
       </c>
       <c r="M29">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="N29" s="8">
         <f t="shared" si="2"/>
-        <v>0.42857142857142855</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="P29" s="3">
         <v>22</v>
@@ -16016,7 +18433,7 @@
         <v>3</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T29" s="5">
         <f t="shared" si="4"/>
@@ -16061,7 +18478,7 @@
       </c>
       <c r="N30" s="8">
         <f t="shared" si="2"/>
-        <v>0.42857142857142855</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="P30" s="3">
         <v>23</v>
@@ -16074,7 +18491,7 @@
         <v>2</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T30" s="5">
         <f t="shared" si="4"/>
@@ -16115,11 +18532,11 @@
       </c>
       <c r="M31">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="N31" s="8">
         <f t="shared" si="2"/>
-        <v>0.42857142857142855</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="P31" s="3">
         <v>24</v>
@@ -16132,7 +18549,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T31" s="5">
         <f t="shared" si="4"/>
@@ -16173,7 +18590,7 @@
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="N32" s="8">
         <f t="shared" si="2"/>
@@ -16190,7 +18607,7 @@
         <v>5</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T32" s="5">
         <f t="shared" si="4"/>
@@ -16231,7 +18648,7 @@
       </c>
       <c r="M33">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="N33" s="8">
         <f t="shared" si="2"/>
@@ -16248,7 +18665,7 @@
         <v>4</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T33" s="5">
         <f t="shared" si="4"/>
@@ -16289,11 +18706,11 @@
       </c>
       <c r="M34">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="N34" s="8">
         <f t="shared" si="2"/>
-        <v>0.5714285714285714</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="P34" s="3">
         <v>27</v>
@@ -16306,7 +18723,7 @@
         <v>3</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T34" s="5">
         <f t="shared" si="4"/>
@@ -16347,11 +18764,11 @@
       </c>
       <c r="M35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N35" s="8">
         <f t="shared" si="2"/>
-        <v>0.5714285714285714</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="P35" s="3">
         <v>28</v>
@@ -16364,7 +18781,7 @@
         <v>2</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T35" s="5">
         <f t="shared" si="4"/>
@@ -16405,11 +18822,11 @@
       </c>
       <c r="M36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N36" s="8">
         <f t="shared" si="2"/>
-        <v>0.5714285714285714</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="P36" s="3">
         <v>29</v>
@@ -16422,7 +18839,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T36" s="5">
         <f t="shared" si="4"/>
@@ -16463,11 +18880,11 @@
       </c>
       <c r="M37">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N37" s="8">
         <f t="shared" si="2"/>
-        <v>0.5714285714285714</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="P37" s="3">
         <v>30</v>
@@ -16480,7 +18897,7 @@
         <v>5</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T37" s="5">
         <f t="shared" si="4"/>
@@ -16521,11 +18938,11 @@
       </c>
       <c r="M38">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N38" s="8">
         <f t="shared" si="2"/>
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="P38" s="3">
         <v>31</v>
@@ -16538,7 +18955,7 @@
         <v>4</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T38" s="5">
         <f t="shared" si="4"/>
@@ -16579,11 +18996,11 @@
       </c>
       <c r="M39">
         <f t="shared" ref="M39:M70" si="7">ROUNDUP(L39/VLOOKUP($O$2,D:E,2,FALSE),0)/$F$3</f>
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="N39" s="8">
         <f t="shared" ref="N39:N70" si="8">ROUNDUP(L39/VLOOKUP($O$2,D:F,3,FALSE),0)/$F$4</f>
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="P39" s="3">
         <v>32</v>
@@ -16596,7 +19013,7 @@
         <v>3</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T39" s="5">
         <f t="shared" si="4"/>
@@ -16637,11 +19054,11 @@
       </c>
       <c r="M40">
         <f t="shared" si="7"/>
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="N40" s="8">
         <f t="shared" si="8"/>
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="P40" s="3">
         <v>33</v>
@@ -16654,7 +19071,7 @@
         <v>2</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T40" s="5">
         <f t="shared" si="4"/>
@@ -16695,11 +19112,11 @@
       </c>
       <c r="M41">
         <f t="shared" si="7"/>
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="N41" s="8">
         <f t="shared" si="8"/>
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="P41" s="3">
         <v>34</v>
@@ -16712,7 +19129,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T41" s="5">
         <f t="shared" si="4"/>
@@ -16753,11 +19170,11 @@
       </c>
       <c r="M42">
         <f t="shared" si="7"/>
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="N42" s="8">
         <f t="shared" si="8"/>
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="P42" s="3">
         <v>35</v>
@@ -16770,7 +19187,7 @@
         <v>5</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T42" s="5">
         <f t="shared" si="4"/>
@@ -16811,11 +19228,11 @@
       </c>
       <c r="M43">
         <f t="shared" si="7"/>
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="N43" s="8">
         <f t="shared" si="8"/>
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="P43" s="3">
         <v>36</v>
@@ -16828,7 +19245,7 @@
         <v>4</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T43" s="5">
         <f t="shared" si="4"/>
@@ -16869,11 +19286,11 @@
       </c>
       <c r="M44">
         <f t="shared" si="7"/>
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="N44" s="8">
         <f t="shared" si="8"/>
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="P44" s="3">
         <v>37</v>
@@ -16886,7 +19303,7 @@
         <v>3</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T44" s="5">
         <f t="shared" si="4"/>
@@ -16927,11 +19344,11 @@
       </c>
       <c r="M45">
         <f t="shared" si="7"/>
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="N45" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="P45" s="3">
         <v>38</v>
@@ -16944,7 +19361,7 @@
         <v>2</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T45" s="5">
         <f t="shared" si="4"/>
@@ -16985,11 +19402,11 @@
       </c>
       <c r="M46">
         <f t="shared" si="7"/>
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="N46" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="P46" s="3">
         <v>39</v>
@@ -17002,7 +19419,7 @@
         <v>1</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T46" s="5">
         <f t="shared" si="4"/>
@@ -17043,11 +19460,11 @@
       </c>
       <c r="M47">
         <f t="shared" si="7"/>
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="N47" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="48" spans="4:21" x14ac:dyDescent="0.3">
@@ -17080,11 +19497,11 @@
       </c>
       <c r="M48">
         <f t="shared" si="7"/>
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="N48" s="8">
         <f t="shared" si="8"/>
-        <v>1.1428571428571428</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="49" spans="4:14" x14ac:dyDescent="0.3">
@@ -17117,11 +19534,11 @@
       </c>
       <c r="M49">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="N49" s="8">
         <f t="shared" si="8"/>
-        <v>1.1428571428571428</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="50" spans="4:14" x14ac:dyDescent="0.3">
@@ -17154,11 +19571,11 @@
       </c>
       <c r="M50">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="N50" s="8">
         <f t="shared" si="8"/>
-        <v>1.2857142857142858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="4:14" x14ac:dyDescent="0.3">
@@ -17191,11 +19608,11 @@
       </c>
       <c r="M51">
         <f t="shared" si="7"/>
-        <v>2.2000000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="N51" s="8">
         <f t="shared" si="8"/>
-        <v>1.2857142857142858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="4:14" x14ac:dyDescent="0.3">
@@ -17228,11 +19645,11 @@
       </c>
       <c r="M52">
         <f t="shared" si="7"/>
-        <v>2.2000000000000002</v>
+        <v>1.8</v>
       </c>
       <c r="N52" s="8">
         <f t="shared" si="8"/>
-        <v>1.4285714285714286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="4:14" x14ac:dyDescent="0.3">
@@ -17265,11 +19682,11 @@
       </c>
       <c r="M53">
         <f t="shared" si="7"/>
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N53" s="8">
         <f t="shared" si="8"/>
-        <v>1.4285714285714286</v>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="54" spans="4:14" x14ac:dyDescent="0.3">
@@ -17302,11 +19719,11 @@
       </c>
       <c r="M54">
         <f t="shared" si="7"/>
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N54" s="8">
         <f t="shared" si="8"/>
-        <v>1.5714285714285714</v>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="55" spans="4:14" x14ac:dyDescent="0.3">
@@ -17339,11 +19756,11 @@
       </c>
       <c r="M55">
         <f t="shared" si="7"/>
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N55" s="8">
         <f t="shared" si="8"/>
-        <v>1.5714285714285714</v>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="56" spans="4:14" x14ac:dyDescent="0.3">
@@ -17376,11 +19793,11 @@
       </c>
       <c r="M56">
         <f t="shared" si="7"/>
-        <v>2.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N56" s="8">
         <f t="shared" si="8"/>
-        <v>1.7142857142857142</v>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="57" spans="4:14" x14ac:dyDescent="0.3">
@@ -17413,11 +19830,11 @@
       </c>
       <c r="M57">
         <f t="shared" si="7"/>
-        <v>2.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N57" s="8">
         <f t="shared" si="8"/>
-        <v>1.7142857142857142</v>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="58" spans="4:14" x14ac:dyDescent="0.3">
@@ -17450,11 +19867,11 @@
       </c>
       <c r="M58">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N58" s="8">
         <f t="shared" si="8"/>
-        <v>1.8571428571428572</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="59" spans="4:14" x14ac:dyDescent="0.3">
@@ -17487,11 +19904,11 @@
       </c>
       <c r="M59">
         <f t="shared" si="7"/>
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="N59" s="8">
         <f t="shared" si="8"/>
-        <v>1.8571428571428572</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="60" spans="4:14" x14ac:dyDescent="0.3">
@@ -17524,11 +19941,11 @@
       </c>
       <c r="M60">
         <f t="shared" si="7"/>
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N60" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="61" spans="4:14" x14ac:dyDescent="0.3">
@@ -17561,11 +19978,11 @@
       </c>
       <c r="M61">
         <f t="shared" si="7"/>
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N61" s="8">
         <f t="shared" si="8"/>
-        <v>2.1428571428571428</v>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="62" spans="4:14" x14ac:dyDescent="0.3">
@@ -17598,11 +20015,11 @@
       </c>
       <c r="M62">
         <f t="shared" si="7"/>
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N62" s="8">
         <f t="shared" si="8"/>
-        <v>2.1428571428571428</v>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="63" spans="4:14" x14ac:dyDescent="0.3">
@@ -17635,11 +20052,11 @@
       </c>
       <c r="M63">
         <f t="shared" si="7"/>
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N63" s="8">
         <f t="shared" si="8"/>
-        <v>2.2857142857142856</v>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="64" spans="4:14" x14ac:dyDescent="0.3">
@@ -17672,11 +20089,11 @@
       </c>
       <c r="M64">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N64" s="8">
         <f t="shared" si="8"/>
-        <v>2.4285714285714284</v>
+        <v>1.8571428571428572</v>
       </c>
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.3">
@@ -17709,11 +20126,11 @@
       </c>
       <c r="M65">
         <f t="shared" si="7"/>
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N65" s="8">
         <f t="shared" si="8"/>
-        <v>2.4285714285714284</v>
+        <v>1.8571428571428572</v>
       </c>
     </row>
     <row r="66" spans="4:14" x14ac:dyDescent="0.3">
@@ -17746,18 +20163,28 @@
       </c>
       <c r="M66">
         <f t="shared" si="7"/>
-        <v>4.4000000000000004</v>
+        <v>3.4</v>
       </c>
       <c r="N66" s="8">
         <f t="shared" si="8"/>
-        <v>2.5714285714285716</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D67" s="3"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
+      <c r="D67" s="3">
+        <v>60</v>
+      </c>
+      <c r="E67" s="8">
+        <f>ROUNDUP(Gacha!C65*Level!$AB$20+Gacha!D65*Level!$AB$21+Gacha!E65*Level!$AB82+Gacha!F65*Level!$AB$23+Gacha!G65*Level!$AB$24++Gacha!H65*Level!$AB$25+Gacha!I65*Level!$AB$26+Gacha!J65*Level!$AB$27,2)*Gacha!K65</f>
+        <v>16204.250000000002</v>
+      </c>
+      <c r="F67" s="8">
+        <f t="shared" ref="F67:F78" si="9">E67*(1+$F$2)</f>
+        <v>19445.100000000002</v>
+      </c>
+      <c r="G67" s="20">
+        <v>22000</v>
+      </c>
       <c r="I67" s="3">
         <v>60</v>
       </c>
@@ -17773,18 +20200,28 @@
       </c>
       <c r="M67">
         <f t="shared" si="7"/>
-        <v>4.5999999999999996</v>
+        <v>3.4</v>
       </c>
       <c r="N67" s="8">
         <f t="shared" si="8"/>
-        <v>2.7142857142857144</v>
+        <v>2.1428571428571428</v>
       </c>
     </row>
     <row r="68" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D68" s="3"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
+      <c r="D68" s="3">
+        <v>61</v>
+      </c>
+      <c r="E68" s="8">
+        <f>ROUNDUP(Gacha!C66*Level!$AB$20+Gacha!D66*Level!$AB$21+Gacha!E66*Level!$AB83+Gacha!F66*Level!$AB$23+Gacha!G66*Level!$AB$24++Gacha!H66*Level!$AB$25+Gacha!I66*Level!$AB$26+Gacha!J66*Level!$AB$27,2)*Gacha!K66</f>
+        <v>16636.349999999999</v>
+      </c>
+      <c r="F68" s="8">
+        <f t="shared" si="9"/>
+        <v>19963.62</v>
+      </c>
+      <c r="G68" s="20">
+        <v>24000</v>
+      </c>
       <c r="I68" s="3">
         <v>61</v>
       </c>
@@ -17800,18 +20237,28 @@
       </c>
       <c r="M68">
         <f t="shared" si="7"/>
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="N68" s="8">
         <f t="shared" si="8"/>
-        <v>2.8571428571428572</v>
+        <v>2.1428571428571428</v>
       </c>
     </row>
     <row r="69" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D69" s="3"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+      <c r="D69" s="3">
+        <v>62</v>
+      </c>
+      <c r="E69" s="8">
+        <f>ROUNDUP(Gacha!C67*Level!$AB$20+Gacha!D67*Level!$AB$21+Gacha!E67*Level!$AB84+Gacha!F67*Level!$AB$23+Gacha!G67*Level!$AB$24++Gacha!H67*Level!$AB$25+Gacha!I67*Level!$AB$26+Gacha!J67*Level!$AB$27,2)*Gacha!K67</f>
+        <v>17068.5</v>
+      </c>
+      <c r="F69" s="8">
+        <f t="shared" si="9"/>
+        <v>20482.2</v>
+      </c>
+      <c r="G69" s="20">
+        <v>26000</v>
+      </c>
       <c r="I69" s="3">
         <v>62</v>
       </c>
@@ -17827,18 +20274,28 @@
       </c>
       <c r="M69">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="N69" s="8">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>2.2857142857142856</v>
       </c>
     </row>
     <row r="70" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D70" s="3"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
+      <c r="D70" s="3">
+        <v>63</v>
+      </c>
+      <c r="E70" s="8">
+        <f>ROUNDUP(Gacha!C68*Level!$AB$20+Gacha!D68*Level!$AB$21+Gacha!E68*Level!$AB85+Gacha!F68*Level!$AB$23+Gacha!G68*Level!$AB$24++Gacha!H68*Level!$AB$25+Gacha!I68*Level!$AB$26+Gacha!J68*Level!$AB$27,2)*Gacha!K68</f>
+        <v>17500.600000000002</v>
+      </c>
+      <c r="F70" s="8">
+        <f t="shared" si="9"/>
+        <v>21000.720000000001</v>
+      </c>
+      <c r="G70" s="20">
+        <v>28000</v>
+      </c>
       <c r="I70" s="3">
         <v>63</v>
       </c>
@@ -17854,18 +20311,28 @@
       </c>
       <c r="M70">
         <f t="shared" si="7"/>
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="N70" s="8">
         <f t="shared" si="8"/>
-        <v>3.1428571428571428</v>
+        <v>2.4285714285714284</v>
       </c>
     </row>
     <row r="71" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D71" s="3"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
+      <c r="D71" s="3">
+        <v>64</v>
+      </c>
+      <c r="E71" s="8">
+        <f>ROUNDUP(Gacha!C69*Level!$AB$20+Gacha!D69*Level!$AB$21+Gacha!E69*Level!$AB86+Gacha!F69*Level!$AB$23+Gacha!G69*Level!$AB$24++Gacha!H69*Level!$AB$25+Gacha!I69*Level!$AB$26+Gacha!J69*Level!$AB$27,2)*Gacha!K69</f>
+        <v>17932.7</v>
+      </c>
+      <c r="F71" s="8">
+        <f t="shared" si="9"/>
+        <v>21519.24</v>
+      </c>
+      <c r="G71" s="20">
+        <v>30000</v>
+      </c>
       <c r="I71" s="3">
         <v>64</v>
       </c>
@@ -17880,19 +20347,29 @@
         <v>433350</v>
       </c>
       <c r="M71">
-        <f t="shared" ref="M71:M102" si="9">ROUNDUP(L71/VLOOKUP($O$2,D:E,2,FALSE),0)/$F$3</f>
-        <v>5.6</v>
+        <f t="shared" ref="M71:M102" si="10">ROUNDUP(L71/VLOOKUP($O$2,D:E,2,FALSE),0)/$F$3</f>
+        <v>4.2</v>
       </c>
       <c r="N71" s="8">
-        <f t="shared" ref="N71:N106" si="10">ROUNDUP(L71/VLOOKUP($O$2,D:F,3,FALSE),0)/$F$4</f>
-        <v>3.2857142857142856</v>
+        <f t="shared" ref="N71:N106" si="11">ROUNDUP(L71/VLOOKUP($O$2,D:F,3,FALSE),0)/$F$4</f>
+        <v>2.5714285714285716</v>
       </c>
     </row>
     <row r="72" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D72" s="3"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
+      <c r="D72" s="3">
+        <v>65</v>
+      </c>
+      <c r="E72" s="8">
+        <f>ROUNDUP(Gacha!C70*Level!$AB$20+Gacha!D70*Level!$AB$21+Gacha!E70*Level!$AB87+Gacha!F70*Level!$AB$23+Gacha!G70*Level!$AB$24++Gacha!H70*Level!$AB$25+Gacha!I70*Level!$AB$26+Gacha!J70*Level!$AB$27,2)*Gacha!K70</f>
+        <v>18364.8</v>
+      </c>
+      <c r="F72" s="8">
+        <f t="shared" si="9"/>
+        <v>22037.759999999998</v>
+      </c>
+      <c r="G72" s="20">
+        <v>32000</v>
+      </c>
       <c r="I72" s="3">
         <v>65</v>
       </c>
@@ -17907,19 +20384,29 @@
         <v>457350</v>
       </c>
       <c r="M72">
+        <f t="shared" si="10"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N72" s="8">
+        <f t="shared" si="11"/>
+        <v>2.7142857142857144</v>
+      </c>
+    </row>
+    <row r="73" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D73" s="3">
+        <v>66</v>
+      </c>
+      <c r="E73" s="8">
+        <f>ROUNDUP(Gacha!C71*Level!$AB$20+Gacha!D71*Level!$AB$21+Gacha!E71*Level!$AB88+Gacha!F71*Level!$AB$23+Gacha!G71*Level!$AB$24++Gacha!H71*Level!$AB$25+Gacha!I71*Level!$AB$26+Gacha!J71*Level!$AB$27,2)*Gacha!K71</f>
+        <v>18796.95</v>
+      </c>
+      <c r="F73" s="8">
         <f t="shared" si="9"/>
-        <v>5.8</v>
-      </c>
-      <c r="N72" s="8">
-        <f t="shared" si="10"/>
-        <v>3.5714285714285716</v>
-      </c>
-    </row>
-    <row r="73" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D73" s="3"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
+        <v>22556.34</v>
+      </c>
+      <c r="G73" s="20">
+        <v>34000</v>
+      </c>
       <c r="I73" s="3">
         <v>66</v>
       </c>
@@ -17934,19 +20421,29 @@
         <v>483350</v>
       </c>
       <c r="M73">
+        <f t="shared" si="10"/>
+        <v>4.8</v>
+      </c>
+      <c r="N73" s="8">
+        <f t="shared" si="11"/>
+        <v>2.8571428571428572</v>
+      </c>
+    </row>
+    <row r="74" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D74" s="3">
+        <v>67</v>
+      </c>
+      <c r="E74" s="8">
+        <f>ROUNDUP(Gacha!C72*Level!$AB$20+Gacha!D72*Level!$AB$21+Gacha!E72*Level!$AB89+Gacha!F72*Level!$AB$23+Gacha!G72*Level!$AB$24++Gacha!H72*Level!$AB$25+Gacha!I72*Level!$AB$26+Gacha!J72*Level!$AB$27,2)*Gacha!K72</f>
+        <v>19229.050000000003</v>
+      </c>
+      <c r="F74" s="8">
         <f t="shared" si="9"/>
-        <v>6.2</v>
-      </c>
-      <c r="N73" s="8">
-        <f t="shared" si="10"/>
-        <v>3.7142857142857144</v>
-      </c>
-    </row>
-    <row r="74" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D74" s="3"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
+        <v>23074.860000000004</v>
+      </c>
+      <c r="G74" s="20">
+        <v>36000</v>
+      </c>
       <c r="I74" s="3">
         <v>67</v>
       </c>
@@ -17961,19 +20458,29 @@
         <v>511350</v>
       </c>
       <c r="M74">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="N74" s="8">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D75" s="3">
+        <v>68</v>
+      </c>
+      <c r="E75" s="8">
+        <f>ROUNDUP(Gacha!C73*Level!$AB$20+Gacha!D73*Level!$AB$21+Gacha!E73*Level!$AB90+Gacha!F73*Level!$AB$23+Gacha!G73*Level!$AB$24++Gacha!H73*Level!$AB$25+Gacha!I73*Level!$AB$26+Gacha!J73*Level!$AB$27,2)*Gacha!K73</f>
+        <v>19661.150000000001</v>
+      </c>
+      <c r="F75" s="8">
         <f t="shared" si="9"/>
-        <v>6.6</v>
-      </c>
-      <c r="N74" s="8">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D75" s="3"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
+        <v>23593.38</v>
+      </c>
+      <c r="G75" s="20">
+        <v>38000</v>
+      </c>
       <c r="I75" s="3">
         <v>68</v>
       </c>
@@ -17988,19 +20495,29 @@
         <v>541350</v>
       </c>
       <c r="M75">
+        <f t="shared" si="10"/>
+        <v>5.2</v>
+      </c>
+      <c r="N75" s="8">
+        <f t="shared" si="11"/>
+        <v>3.1428571428571428</v>
+      </c>
+    </row>
+    <row r="76" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D76" s="3">
+        <v>69</v>
+      </c>
+      <c r="E76" s="8">
+        <f>ROUNDUP(Gacha!C74*Level!$AB$20+Gacha!D74*Level!$AB$21+Gacha!E74*Level!$AB91+Gacha!F74*Level!$AB$23+Gacha!G74*Level!$AB$24++Gacha!H74*Level!$AB$25+Gacha!I74*Level!$AB$26+Gacha!J74*Level!$AB$27,2)*Gacha!K74</f>
+        <v>20093.25</v>
+      </c>
+      <c r="F76" s="8">
         <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="N75" s="8">
-        <f t="shared" si="10"/>
-        <v>4.1428571428571432</v>
-      </c>
-    </row>
-    <row r="76" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D76" s="3"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
+        <v>24111.899999999998</v>
+      </c>
+      <c r="G76" s="20">
+        <v>40000</v>
+      </c>
       <c r="I76" s="3">
         <v>69</v>
       </c>
@@ -18015,19 +20532,29 @@
         <v>573350</v>
       </c>
       <c r="M76">
+        <f t="shared" si="10"/>
+        <v>5.6</v>
+      </c>
+      <c r="N76" s="8">
+        <f t="shared" si="11"/>
+        <v>3.2857142857142856</v>
+      </c>
+    </row>
+    <row r="77" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D77" s="3">
+        <v>70</v>
+      </c>
+      <c r="E77" s="8">
+        <f>ROUNDUP(Gacha!C75*Level!$AB$20+Gacha!D75*Level!$AB$21+Gacha!E75*Level!$AB92+Gacha!F75*Level!$AB$23+Gacha!G75*Level!$AB$24++Gacha!H75*Level!$AB$25+Gacha!I75*Level!$AB$26+Gacha!J75*Level!$AB$27,2)*Gacha!K75</f>
+        <v>20525.400000000001</v>
+      </c>
+      <c r="F77" s="8">
         <f t="shared" si="9"/>
-        <v>7.4</v>
-      </c>
-      <c r="N76" s="8">
-        <f t="shared" si="10"/>
-        <v>4.4285714285714288</v>
-      </c>
-    </row>
-    <row r="77" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D77" s="3"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
+        <v>24630.48</v>
+      </c>
+      <c r="G77" s="20">
+        <v>42000</v>
+      </c>
       <c r="I77" s="3">
         <v>70</v>
       </c>
@@ -18042,19 +20569,29 @@
         <v>607350</v>
       </c>
       <c r="M77">
+        <f t="shared" si="10"/>
+        <v>5.8</v>
+      </c>
+      <c r="N77" s="8">
+        <f t="shared" si="11"/>
+        <v>3.5714285714285716</v>
+      </c>
+    </row>
+    <row r="78" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D78" s="3">
+        <v>71</v>
+      </c>
+      <c r="E78" s="8">
+        <f>ROUNDUP(Gacha!C76*Level!$AB$20+Gacha!D76*Level!$AB$21+Gacha!E76*Level!$AB93+Gacha!F76*Level!$AB$23+Gacha!G76*Level!$AB$24++Gacha!H76*Level!$AB$25+Gacha!I76*Level!$AB$26+Gacha!J76*Level!$AB$27,2)*Gacha!K76</f>
+        <v>20957.5</v>
+      </c>
+      <c r="F78" s="8">
         <f t="shared" si="9"/>
-        <v>7.8</v>
-      </c>
-      <c r="N77" s="8">
-        <f t="shared" si="10"/>
-        <v>4.7142857142857144</v>
-      </c>
-    </row>
-    <row r="78" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D78" s="3"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
+        <v>25149</v>
+      </c>
+      <c r="G78" s="20">
+        <v>44000</v>
+      </c>
       <c r="I78" s="3">
         <v>71</v>
       </c>
@@ -18069,19 +20606,19 @@
         <v>643350</v>
       </c>
       <c r="M78">
-        <f t="shared" si="9"/>
-        <v>8.1999999999999993</v>
+        <f t="shared" si="10"/>
+        <v>6.2</v>
       </c>
       <c r="N78" s="8">
-        <f t="shared" si="10"/>
-        <v>4.8571428571428568</v>
+        <f t="shared" si="11"/>
+        <v>3.7142857142857144</v>
       </c>
     </row>
     <row r="79" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D79" s="3"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
+      <c r="G79" s="20"/>
       <c r="I79" s="3">
         <v>72</v>
       </c>
@@ -18096,19 +20633,19 @@
         <v>681350</v>
       </c>
       <c r="M79">
-        <f t="shared" si="9"/>
-        <v>8.8000000000000007</v>
+        <f t="shared" si="10"/>
+        <v>6.6</v>
       </c>
       <c r="N79" s="8">
-        <f t="shared" si="10"/>
-        <v>5.1428571428571432</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D80" s="3"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
+      <c r="G80" s="20"/>
       <c r="I80" s="3">
         <v>73</v>
       </c>
@@ -18123,19 +20660,19 @@
         <v>721350</v>
       </c>
       <c r="M80">
-        <f t="shared" si="9"/>
-        <v>9.1999999999999993</v>
+        <f t="shared" si="10"/>
+        <v>7</v>
       </c>
       <c r="N80" s="8">
-        <f t="shared" si="10"/>
-        <v>5.5714285714285712</v>
+        <f t="shared" si="11"/>
+        <v>4.1428571428571432</v>
       </c>
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D81" s="3"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
+      <c r="G81" s="20"/>
       <c r="I81" s="3">
         <v>74</v>
       </c>
@@ -18150,19 +20687,19 @@
         <v>763350</v>
       </c>
       <c r="M81">
-        <f t="shared" si="9"/>
-        <v>9.8000000000000007</v>
+        <f t="shared" si="10"/>
+        <v>7.4</v>
       </c>
       <c r="N81" s="8">
-        <f t="shared" si="10"/>
-        <v>5.8571428571428568</v>
+        <f t="shared" si="11"/>
+        <v>4.4285714285714288</v>
       </c>
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D82" s="3"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
+      <c r="G82" s="20"/>
       <c r="I82" s="3">
         <v>75</v>
       </c>
@@ -18177,12 +20714,12 @@
         <v>807350</v>
       </c>
       <c r="M82">
-        <f t="shared" si="9"/>
-        <v>10.4</v>
+        <f t="shared" si="10"/>
+        <v>7.8</v>
       </c>
       <c r="N82" s="8">
-        <f t="shared" si="10"/>
-        <v>6.1428571428571432</v>
+        <f t="shared" si="11"/>
+        <v>4.7142857142857144</v>
       </c>
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.3">
@@ -18204,12 +20741,12 @@
         <v>853350</v>
       </c>
       <c r="M83">
-        <f t="shared" si="9"/>
-        <v>11</v>
+        <f t="shared" si="10"/>
+        <v>8.1999999999999993</v>
       </c>
       <c r="N83" s="8">
-        <f t="shared" si="10"/>
-        <v>6.5714285714285712</v>
+        <f t="shared" si="11"/>
+        <v>4.8571428571428568</v>
       </c>
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.3">
@@ -18231,12 +20768,12 @@
         <v>901350</v>
       </c>
       <c r="M84">
-        <f t="shared" si="9"/>
-        <v>11.6</v>
+        <f t="shared" si="10"/>
+        <v>8.8000000000000007</v>
       </c>
       <c r="N84" s="8">
-        <f t="shared" si="10"/>
-        <v>6.8571428571428568</v>
+        <f t="shared" si="11"/>
+        <v>5.1428571428571432</v>
       </c>
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.3">
@@ -18258,12 +20795,12 @@
         <v>951350</v>
       </c>
       <c r="M85">
-        <f t="shared" si="9"/>
-        <v>12.2</v>
+        <f t="shared" si="10"/>
+        <v>9.1999999999999993</v>
       </c>
       <c r="N85" s="8">
-        <f t="shared" si="10"/>
-        <v>7.2857142857142856</v>
+        <f t="shared" si="11"/>
+        <v>5.4285714285714288</v>
       </c>
     </row>
     <row r="86" spans="4:14" x14ac:dyDescent="0.3">
@@ -18285,12 +20822,12 @@
         <v>1003350</v>
       </c>
       <c r="M86">
-        <f t="shared" si="9"/>
-        <v>12.8</v>
+        <f t="shared" si="10"/>
+        <v>9.6</v>
       </c>
       <c r="N86" s="8">
-        <f t="shared" si="10"/>
-        <v>7.7142857142857144</v>
+        <f t="shared" si="11"/>
+        <v>5.7142857142857144</v>
       </c>
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.3">
@@ -18312,12 +20849,12 @@
         <v>1057350</v>
       </c>
       <c r="M87">
-        <f t="shared" si="9"/>
-        <v>13.6</v>
+        <f t="shared" si="10"/>
+        <v>10.199999999999999</v>
       </c>
       <c r="N87" s="8">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f t="shared" si="11"/>
+        <v>6.1428571428571432</v>
       </c>
     </row>
     <row r="88" spans="4:14" x14ac:dyDescent="0.3">
@@ -18339,12 +20876,12 @@
         <v>1113350</v>
       </c>
       <c r="M88">
-        <f t="shared" si="9"/>
-        <v>14.2</v>
+        <f t="shared" si="10"/>
+        <v>10.8</v>
       </c>
       <c r="N88" s="8">
-        <f t="shared" si="10"/>
-        <v>8.4285714285714288</v>
+        <f t="shared" si="11"/>
+        <v>6.4285714285714288</v>
       </c>
     </row>
     <row r="89" spans="4:14" x14ac:dyDescent="0.3">
@@ -18366,12 +20903,12 @@
         <v>1171350</v>
       </c>
       <c r="M89">
-        <f t="shared" si="9"/>
-        <v>15</v>
+        <f t="shared" si="10"/>
+        <v>11.2</v>
       </c>
       <c r="N89" s="8">
-        <f t="shared" si="10"/>
-        <v>8.8571428571428577</v>
+        <f t="shared" si="11"/>
+        <v>6.7142857142857144</v>
       </c>
     </row>
     <row r="90" spans="4:14" x14ac:dyDescent="0.3">
@@ -18393,12 +20930,12 @@
         <v>1231350</v>
       </c>
       <c r="M90">
-        <f t="shared" si="9"/>
-        <v>15.8</v>
+        <f t="shared" si="10"/>
+        <v>11.8</v>
       </c>
       <c r="N90" s="8">
-        <f t="shared" si="10"/>
-        <v>9.4285714285714288</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="4:14" x14ac:dyDescent="0.3">
@@ -18420,12 +20957,12 @@
         <v>1293350</v>
       </c>
       <c r="M91">
-        <f t="shared" si="9"/>
-        <v>16.600000000000001</v>
+        <f t="shared" si="10"/>
+        <v>12.4</v>
       </c>
       <c r="N91" s="8">
-        <f t="shared" si="10"/>
-        <v>9.8571428571428577</v>
+        <f t="shared" si="11"/>
+        <v>7.4285714285714288</v>
       </c>
     </row>
     <row r="92" spans="4:14" x14ac:dyDescent="0.3">
@@ -18447,12 +20984,12 @@
         <v>1357350</v>
       </c>
       <c r="M92">
-        <f t="shared" si="9"/>
-        <v>17.399999999999999</v>
+        <f t="shared" si="10"/>
+        <v>13</v>
       </c>
       <c r="N92" s="8">
-        <f t="shared" si="10"/>
-        <v>10.285714285714286</v>
+        <f t="shared" si="11"/>
+        <v>7.7142857142857144</v>
       </c>
     </row>
     <row r="93" spans="4:14" x14ac:dyDescent="0.3">
@@ -18474,12 +21011,12 @@
         <v>1423350</v>
       </c>
       <c r="M93">
-        <f t="shared" si="9"/>
-        <v>18.2</v>
+        <f t="shared" si="10"/>
+        <v>13.6</v>
       </c>
       <c r="N93" s="8">
-        <f t="shared" si="10"/>
-        <v>10.857142857142858</v>
+        <f t="shared" si="11"/>
+        <v>8.1428571428571423</v>
       </c>
     </row>
     <row r="94" spans="4:14" x14ac:dyDescent="0.3">
@@ -18501,12 +21038,12 @@
         <v>1491350</v>
       </c>
       <c r="M94">
-        <f t="shared" si="9"/>
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>14.4</v>
       </c>
       <c r="N94" s="8">
-        <f t="shared" si="10"/>
-        <v>11.285714285714286</v>
+        <f t="shared" si="11"/>
+        <v>8.5714285714285712</v>
       </c>
     </row>
     <row r="95" spans="4:14" x14ac:dyDescent="0.3">
@@ -18528,12 +21065,12 @@
         <v>1561350</v>
       </c>
       <c r="M95">
-        <f t="shared" si="9"/>
-        <v>19.8</v>
+        <f t="shared" si="10"/>
+        <v>15</v>
       </c>
       <c r="N95" s="8">
-        <f t="shared" si="10"/>
-        <v>11.857142857142858</v>
+        <f t="shared" si="11"/>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="4:14" x14ac:dyDescent="0.3">
@@ -18555,15 +21092,15 @@
         <v>1636350</v>
       </c>
       <c r="M96">
-        <f t="shared" si="9"/>
-        <v>20.8</v>
+        <f t="shared" si="10"/>
+        <v>15.8</v>
       </c>
       <c r="N96" s="8">
-        <f t="shared" si="10"/>
-        <v>12.428571428571429</v>
-      </c>
-    </row>
-    <row r="97" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>9.4285714285714288</v>
+      </c>
+    </row>
+    <row r="97" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D97" s="3"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
@@ -18582,15 +21119,15 @@
         <v>1716350</v>
       </c>
       <c r="M97">
-        <f t="shared" si="9"/>
-        <v>21.8</v>
+        <f t="shared" si="10"/>
+        <v>16.399999999999999</v>
       </c>
       <c r="N97" s="8">
-        <f t="shared" si="10"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>9.8571428571428577</v>
+      </c>
+    </row>
+    <row r="98" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D98" s="3"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
@@ -18609,15 +21146,15 @@
         <v>1801350</v>
       </c>
       <c r="M98">
-        <f t="shared" si="9"/>
-        <v>23</v>
+        <f t="shared" si="10"/>
+        <v>17.2</v>
       </c>
       <c r="N98" s="8">
-        <f t="shared" si="10"/>
-        <v>13.714285714285714</v>
-      </c>
-    </row>
-    <row r="99" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>10.285714285714286</v>
+      </c>
+    </row>
+    <row r="99" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D99" s="3"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
@@ -18636,15 +21173,15 @@
         <v>1891350</v>
       </c>
       <c r="M99">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f t="shared" si="10"/>
+        <v>18.2</v>
       </c>
       <c r="N99" s="8">
-        <f t="shared" si="10"/>
-        <v>14.285714285714286</v>
-      </c>
-    </row>
-    <row r="100" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>10.857142857142858</v>
+      </c>
+    </row>
+    <row r="100" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D100" s="3"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
@@ -18663,15 +21200,15 @@
         <v>1986350</v>
       </c>
       <c r="M100">
-        <f t="shared" si="9"/>
-        <v>25.2</v>
+        <f t="shared" si="10"/>
+        <v>19</v>
       </c>
       <c r="N100" s="8">
-        <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>11.285714285714286</v>
+      </c>
+    </row>
+    <row r="101" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D101" s="3"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
@@ -18690,15 +21227,15 @@
         <v>2086350</v>
       </c>
       <c r="M101">
-        <f t="shared" si="9"/>
-        <v>26.6</v>
+        <f t="shared" si="10"/>
+        <v>20</v>
       </c>
       <c r="N101" s="8">
-        <f t="shared" si="10"/>
-        <v>15.857142857142858</v>
-      </c>
-    </row>
-    <row r="102" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>11.857142857142858</v>
+      </c>
+    </row>
+    <row r="102" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D102" s="3"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
@@ -18717,15 +21254,15 @@
         <v>2196350</v>
       </c>
       <c r="M102">
-        <f t="shared" si="9"/>
-        <v>28</v>
+        <f t="shared" si="10"/>
+        <v>21</v>
       </c>
       <c r="N102" s="8">
-        <f t="shared" si="10"/>
-        <v>16.714285714285715</v>
-      </c>
-    </row>
-    <row r="103" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>12.571428571428571</v>
+      </c>
+    </row>
+    <row r="103" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D103" s="3"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
@@ -18744,15 +21281,15 @@
         <v>2316350</v>
       </c>
       <c r="M103">
-        <f t="shared" ref="M103:M106" si="11">ROUNDUP(L103/VLOOKUP($O$2,D:E,2,FALSE),0)/$F$3</f>
-        <v>29.4</v>
+        <f t="shared" ref="M103:M106" si="12">ROUNDUP(L103/VLOOKUP($O$2,D:E,2,FALSE),0)/$F$3</f>
+        <v>22.2</v>
       </c>
       <c r="N103" s="8">
-        <f t="shared" si="10"/>
-        <v>17.571428571428573</v>
-      </c>
-    </row>
-    <row r="104" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>13.285714285714286</v>
+      </c>
+    </row>
+    <row r="104" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D104" s="3"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
@@ -18771,15 +21308,15 @@
         <v>2446350</v>
       </c>
       <c r="M104">
+        <f t="shared" si="12"/>
+        <v>23.4</v>
+      </c>
+      <c r="N104" s="8">
         <f t="shared" si="11"/>
-        <v>31.2</v>
-      </c>
-      <c r="N104" s="8">
-        <f t="shared" si="10"/>
-        <v>18.571428571428573</v>
-      </c>
-    </row>
-    <row r="105" spans="4:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D105" s="3"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
@@ -18798,15 +21335,15 @@
         <v>2586350</v>
       </c>
       <c r="M105">
+        <f t="shared" si="12"/>
+        <v>24.8</v>
+      </c>
+      <c r="N105" s="8">
         <f t="shared" si="11"/>
-        <v>32.799999999999997</v>
-      </c>
-      <c r="N105" s="8">
-        <f t="shared" si="10"/>
-        <v>19.571428571428573</v>
-      </c>
-    </row>
-    <row r="106" spans="4:14" x14ac:dyDescent="0.3">
+        <v>14.714285714285714</v>
+      </c>
+    </row>
+    <row r="106" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D106" s="3"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
@@ -18825,17 +21362,865 @@
         <v>2736350</v>
       </c>
       <c r="M106">
+        <f t="shared" si="12"/>
+        <v>26.2</v>
+      </c>
+      <c r="N106" s="8">
         <f t="shared" si="11"/>
+        <v>15.571428571428571</v>
+      </c>
+      <c r="O106" s="28"/>
+    </row>
+    <row r="107" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="I107" s="3">
+        <v>100</v>
+      </c>
+      <c r="J107" s="4">
+        <v>100</v>
+      </c>
+      <c r="K107" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L107" s="20">
+        <f>SUM($K$7:K107)</f>
+        <v>2886350</v>
+      </c>
+      <c r="M107">
+        <f t="shared" ref="M107:M128" si="13">ROUNDUP(L107/VLOOKUP($O$2,D:E,2,FALSE),0)/$F$3</f>
+        <v>27.6</v>
+      </c>
+      <c r="N107" s="8">
+        <f t="shared" ref="N107:N128" si="14">ROUNDUP(L107/VLOOKUP($O$2,D:F,3,FALSE),0)/$F$4</f>
+        <v>16.428571428571427</v>
+      </c>
+    </row>
+    <row r="108" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="I108" s="3">
+        <v>101</v>
+      </c>
+      <c r="J108" s="4">
+        <v>101</v>
+      </c>
+      <c r="K108" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L108" s="20">
+        <f>SUM($K$7:K108)</f>
+        <v>3036350</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="13"/>
+        <v>29</v>
+      </c>
+      <c r="N108" s="8">
+        <f t="shared" si="14"/>
+        <v>17.285714285714285</v>
+      </c>
+    </row>
+    <row r="109" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="I109" s="3">
+        <v>102</v>
+      </c>
+      <c r="J109" s="4">
+        <v>102</v>
+      </c>
+      <c r="K109" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L109" s="20">
+        <f>SUM($K$7:K109)</f>
+        <v>3186350</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="13"/>
+        <v>30.6</v>
+      </c>
+      <c r="N109" s="8">
+        <f t="shared" si="14"/>
+        <v>18.142857142857142</v>
+      </c>
+    </row>
+    <row r="110" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="I110" s="3">
+        <v>103</v>
+      </c>
+      <c r="J110" s="4">
+        <v>103</v>
+      </c>
+      <c r="K110" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L110" s="20">
+        <f>SUM($K$7:K110)</f>
+        <v>3336350</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="13"/>
+        <v>32</v>
+      </c>
+      <c r="N110" s="8">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="I111" s="3">
+        <v>104</v>
+      </c>
+      <c r="J111" s="4">
+        <v>104</v>
+      </c>
+      <c r="K111" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L111" s="20">
+        <f>SUM($K$7:K111)</f>
+        <v>3486350</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="13"/>
+        <v>33.4</v>
+      </c>
+      <c r="N111" s="8">
+        <f t="shared" si="14"/>
+        <v>19.857142857142858</v>
+      </c>
+    </row>
+    <row r="112" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="I112" s="3">
+        <v>105</v>
+      </c>
+      <c r="J112" s="4">
+        <v>105</v>
+      </c>
+      <c r="K112" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L112" s="20">
+        <f>SUM($K$7:K112)</f>
+        <v>3636350</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="13"/>
         <v>34.799999999999997</v>
       </c>
-      <c r="N106" s="8">
-        <f t="shared" si="10"/>
+      <c r="N112" s="8">
+        <f t="shared" si="14"/>
         <v>20.714285714285715</v>
       </c>
     </row>
-    <row r="107" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="L107" s="20"/>
-      <c r="N107" s="8"/>
+    <row r="113" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I113" s="3">
+        <v>106</v>
+      </c>
+      <c r="J113" s="4">
+        <v>106</v>
+      </c>
+      <c r="K113" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L113" s="20">
+        <f>SUM($K$7:K113)</f>
+        <v>3786350</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="13"/>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="N113" s="8">
+        <f t="shared" si="14"/>
+        <v>21.571428571428573</v>
+      </c>
+    </row>
+    <row r="114" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I114" s="3">
+        <v>107</v>
+      </c>
+      <c r="J114" s="4">
+        <v>107</v>
+      </c>
+      <c r="K114" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L114" s="20">
+        <f>SUM($K$7:K114)</f>
+        <v>3936350</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="13"/>
+        <v>37.6</v>
+      </c>
+      <c r="N114" s="8">
+        <f t="shared" si="14"/>
+        <v>22.428571428571427</v>
+      </c>
+    </row>
+    <row r="115" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I115" s="3">
+        <v>108</v>
+      </c>
+      <c r="J115" s="4">
+        <v>108</v>
+      </c>
+      <c r="K115" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L115" s="20">
+        <f>SUM($K$7:K115)</f>
+        <v>4086350</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="13"/>
+        <v>39</v>
+      </c>
+      <c r="N115" s="8">
+        <f t="shared" si="14"/>
+        <v>23.285714285714285</v>
+      </c>
+    </row>
+    <row r="116" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I116" s="3">
+        <v>109</v>
+      </c>
+      <c r="J116" s="4">
+        <v>109</v>
+      </c>
+      <c r="K116" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L116" s="20">
+        <f>SUM($K$7:K116)</f>
+        <v>4236350</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="13"/>
+        <v>40.6</v>
+      </c>
+      <c r="N116" s="8">
+        <f t="shared" si="14"/>
+        <v>24.142857142857142</v>
+      </c>
+    </row>
+    <row r="117" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I117" s="3">
+        <v>110</v>
+      </c>
+      <c r="J117" s="4">
+        <v>110</v>
+      </c>
+      <c r="K117" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L117" s="20">
+        <f>SUM($K$7:K117)</f>
+        <v>4386350</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="13"/>
+        <v>42</v>
+      </c>
+      <c r="N117" s="8">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I118" s="3">
+        <v>111</v>
+      </c>
+      <c r="J118" s="4">
+        <v>111</v>
+      </c>
+      <c r="K118" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L118" s="20">
+        <f>SUM($K$7:K118)</f>
+        <v>4536350</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="13"/>
+        <v>43.4</v>
+      </c>
+      <c r="N118" s="8">
+        <f t="shared" si="14"/>
+        <v>25.857142857142858</v>
+      </c>
+    </row>
+    <row r="119" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I119" s="3">
+        <v>112</v>
+      </c>
+      <c r="J119" s="4">
+        <v>112</v>
+      </c>
+      <c r="K119" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L119" s="20">
+        <f>SUM($K$7:K119)</f>
+        <v>4686350</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="13"/>
+        <v>44.8</v>
+      </c>
+      <c r="N119" s="8">
+        <f t="shared" si="14"/>
+        <v>26.714285714285715</v>
+      </c>
+    </row>
+    <row r="120" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I120" s="3">
+        <v>113</v>
+      </c>
+      <c r="J120" s="4">
+        <v>113</v>
+      </c>
+      <c r="K120" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L120" s="20">
+        <f>SUM($K$7:K120)</f>
+        <v>4836350</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="13"/>
+        <v>46.2</v>
+      </c>
+      <c r="N120" s="8">
+        <f t="shared" si="14"/>
+        <v>27.571428571428573</v>
+      </c>
+    </row>
+    <row r="121" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I121" s="3">
+        <v>114</v>
+      </c>
+      <c r="J121" s="4">
+        <v>114</v>
+      </c>
+      <c r="K121" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L121" s="20">
+        <f>SUM($K$7:K121)</f>
+        <v>4986350</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="13"/>
+        <v>47.6</v>
+      </c>
+      <c r="N121" s="8">
+        <f t="shared" si="14"/>
+        <v>28.428571428571427</v>
+      </c>
+    </row>
+    <row r="122" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I122" s="3">
+        <v>115</v>
+      </c>
+      <c r="J122" s="4">
+        <v>115</v>
+      </c>
+      <c r="K122" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L122" s="20">
+        <f>SUM($K$7:K122)</f>
+        <v>5136350</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="13"/>
+        <v>49.2</v>
+      </c>
+      <c r="N122" s="8">
+        <f t="shared" si="14"/>
+        <v>29.285714285714285</v>
+      </c>
+    </row>
+    <row r="123" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I123" s="3">
+        <v>116</v>
+      </c>
+      <c r="J123" s="4">
+        <v>116</v>
+      </c>
+      <c r="K123" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L123" s="20">
+        <f>SUM($K$7:K123)</f>
+        <v>5286350</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="13"/>
+        <v>50.6</v>
+      </c>
+      <c r="N123" s="8">
+        <f t="shared" si="14"/>
+        <v>30.142857142857142</v>
+      </c>
+    </row>
+    <row r="124" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I124" s="3">
+        <v>117</v>
+      </c>
+      <c r="J124" s="4">
+        <v>117</v>
+      </c>
+      <c r="K124" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L124" s="20">
+        <f>SUM($K$7:K124)</f>
+        <v>5436350</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="13"/>
+        <v>52</v>
+      </c>
+      <c r="N124" s="8">
+        <f t="shared" si="14"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I125" s="3">
+        <v>118</v>
+      </c>
+      <c r="J125" s="4">
+        <v>118</v>
+      </c>
+      <c r="K125" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L125" s="20">
+        <f>SUM($K$7:K125)</f>
+        <v>5586350</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="13"/>
+        <v>53.4</v>
+      </c>
+      <c r="N125" s="8">
+        <f t="shared" si="14"/>
+        <v>31.857142857142858</v>
+      </c>
+    </row>
+    <row r="126" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I126" s="3">
+        <v>119</v>
+      </c>
+      <c r="J126" s="4">
+        <v>119</v>
+      </c>
+      <c r="K126" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L126" s="20">
+        <f>SUM($K$7:K126)</f>
+        <v>5736350</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="13"/>
+        <v>54.8</v>
+      </c>
+      <c r="N126" s="8">
+        <f t="shared" si="14"/>
+        <v>32.714285714285715</v>
+      </c>
+    </row>
+    <row r="127" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I127" s="3">
+        <v>120</v>
+      </c>
+      <c r="J127" s="4">
+        <v>120</v>
+      </c>
+      <c r="K127" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L127" s="20">
+        <f>SUM($K$7:K127)</f>
+        <v>5886350</v>
+      </c>
+      <c r="M127">
+        <f t="shared" si="13"/>
+        <v>56.2</v>
+      </c>
+      <c r="N127" s="8">
+        <f t="shared" si="14"/>
+        <v>33.571428571428569</v>
+      </c>
+    </row>
+    <row r="128" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I128" s="3">
+        <v>121</v>
+      </c>
+      <c r="J128" s="4">
+        <v>121</v>
+      </c>
+      <c r="K128" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L128" s="20">
+        <f>SUM($K$7:K128)</f>
+        <v>6036350</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="13"/>
+        <v>57.8</v>
+      </c>
+      <c r="N128" s="8">
+        <f t="shared" si="14"/>
+        <v>34.428571428571431</v>
+      </c>
+    </row>
+    <row r="129" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I129" s="3">
+        <v>122</v>
+      </c>
+      <c r="J129" s="4">
+        <v>122</v>
+      </c>
+      <c r="K129" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L129" s="20">
+        <f>SUM($K$7:K129)</f>
+        <v>6186350</v>
+      </c>
+      <c r="M129">
+        <f t="shared" ref="M129:M157" si="15">ROUNDUP(L129/VLOOKUP($O$2,D:E,2,FALSE),0)/$F$3</f>
+        <v>59.2</v>
+      </c>
+      <c r="N129" s="8">
+        <f t="shared" ref="N129:N157" si="16">ROUNDUP(L129/VLOOKUP($O$2,D:F,3,FALSE),0)/$F$4</f>
+        <v>35.142857142857146</v>
+      </c>
+    </row>
+    <row r="130" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I130" s="3">
+        <v>123</v>
+      </c>
+      <c r="J130" s="4">
+        <v>123</v>
+      </c>
+      <c r="K130" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L130" s="20">
+        <f>SUM($K$7:K130)</f>
+        <v>6336350</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="15"/>
+        <v>60.6</v>
+      </c>
+      <c r="N130" s="8">
+        <f t="shared" si="16"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I131" s="3">
+        <v>124</v>
+      </c>
+      <c r="J131" s="4">
+        <v>124</v>
+      </c>
+      <c r="K131" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L131" s="20">
+        <f>SUM($K$7:K131)</f>
+        <v>6486350</v>
+      </c>
+      <c r="M131">
+        <f t="shared" si="15"/>
+        <v>62</v>
+      </c>
+      <c r="N131" s="8">
+        <f t="shared" si="16"/>
+        <v>36.857142857142854</v>
+      </c>
+    </row>
+    <row r="132" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I132" s="3">
+        <v>125</v>
+      </c>
+      <c r="J132" s="4">
+        <v>125</v>
+      </c>
+      <c r="K132" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L132" s="20">
+        <f>SUM($K$7:K132)</f>
+        <v>6636350</v>
+      </c>
+      <c r="M132">
+        <f t="shared" si="15"/>
+        <v>63.4</v>
+      </c>
+      <c r="N132" s="8">
+        <f t="shared" si="16"/>
+        <v>37.714285714285715</v>
+      </c>
+    </row>
+    <row r="133" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I133" s="3">
+        <v>126</v>
+      </c>
+      <c r="J133" s="4">
+        <v>126</v>
+      </c>
+      <c r="K133" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L133" s="20">
+        <f>SUM($K$7:K133)</f>
+        <v>6786350</v>
+      </c>
+      <c r="M133">
+        <f t="shared" si="15"/>
+        <v>64.8</v>
+      </c>
+      <c r="N133" s="8">
+        <f t="shared" si="16"/>
+        <v>38.571428571428569</v>
+      </c>
+    </row>
+    <row r="134" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I134" s="3">
+        <v>127</v>
+      </c>
+      <c r="J134" s="4">
+        <v>127</v>
+      </c>
+      <c r="K134" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L134" s="20">
+        <f>SUM($K$7:K134)</f>
+        <v>6936350</v>
+      </c>
+      <c r="M134">
+        <f t="shared" si="15"/>
+        <v>66.2</v>
+      </c>
+      <c r="N134" s="8">
+        <f t="shared" si="16"/>
+        <v>39.428571428571431</v>
+      </c>
+    </row>
+    <row r="135" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I135" s="3">
+        <v>128</v>
+      </c>
+      <c r="J135" s="4">
+        <v>128</v>
+      </c>
+      <c r="K135" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L135" s="20">
+        <f>SUM($K$7:K135)</f>
+        <v>7086350</v>
+      </c>
+      <c r="M135">
+        <f t="shared" si="15"/>
+        <v>67.8</v>
+      </c>
+      <c r="N135" s="8">
+        <f t="shared" si="16"/>
+        <v>40.285714285714285</v>
+      </c>
+    </row>
+    <row r="136" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I136" s="3">
+        <v>129</v>
+      </c>
+      <c r="J136" s="4">
+        <v>129</v>
+      </c>
+      <c r="K136" s="13">
+        <v>150000</v>
+      </c>
+      <c r="L136" s="20">
+        <f>SUM($K$7:K136)</f>
+        <v>7236350</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="15"/>
+        <v>69.2</v>
+      </c>
+      <c r="N136" s="8">
+        <f t="shared" si="16"/>
+        <v>41.142857142857146</v>
+      </c>
+    </row>
+    <row r="137" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I137" s="3"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="13"/>
+      <c r="L137" s="20"/>
+      <c r="N137" s="8"/>
+    </row>
+    <row r="138" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I138" s="3"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="13"/>
+      <c r="L138" s="20"/>
+      <c r="N138" s="8"/>
+    </row>
+    <row r="139" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I139" s="3"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="13"/>
+      <c r="L139" s="20"/>
+      <c r="N139" s="8"/>
+    </row>
+    <row r="140" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I140" s="3"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="13"/>
+      <c r="L140" s="20"/>
+      <c r="N140" s="8"/>
+    </row>
+    <row r="141" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I141" s="3"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="13"/>
+      <c r="L141" s="20"/>
+      <c r="N141" s="8"/>
+    </row>
+    <row r="142" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I142" s="3"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="13"/>
+      <c r="L142" s="20"/>
+      <c r="N142" s="8"/>
+    </row>
+    <row r="143" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I143" s="3"/>
+      <c r="J143" s="4"/>
+      <c r="K143" s="13"/>
+      <c r="L143" s="20"/>
+      <c r="N143" s="8"/>
+    </row>
+    <row r="144" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I144" s="3"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="13"/>
+      <c r="L144" s="20"/>
+      <c r="N144" s="8"/>
+    </row>
+    <row r="145" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I145" s="3"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="13"/>
+      <c r="L145" s="20"/>
+      <c r="N145" s="8"/>
+    </row>
+    <row r="146" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I146" s="3"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="13"/>
+      <c r="L146" s="20"/>
+      <c r="N146" s="8"/>
+    </row>
+    <row r="147" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I147" s="3"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="13"/>
+      <c r="L147" s="20"/>
+      <c r="N147" s="8"/>
+    </row>
+    <row r="148" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I148" s="3"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="13"/>
+      <c r="L148" s="20"/>
+      <c r="N148" s="8"/>
+    </row>
+    <row r="149" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I149" s="3"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="13"/>
+      <c r="L149" s="20"/>
+      <c r="N149" s="8"/>
+    </row>
+    <row r="150" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I150" s="3"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="13"/>
+      <c r="L150" s="20"/>
+      <c r="N150" s="8"/>
+    </row>
+    <row r="151" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I151" s="3"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="13"/>
+      <c r="L151" s="20"/>
+      <c r="N151" s="8"/>
+    </row>
+    <row r="152" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I152" s="3"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="13"/>
+      <c r="L152" s="20"/>
+      <c r="N152" s="8"/>
+    </row>
+    <row r="153" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I153" s="3"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="13"/>
+      <c r="L153" s="20"/>
+      <c r="N153" s="8"/>
+    </row>
+    <row r="154" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I154" s="3"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="13"/>
+      <c r="L154" s="20"/>
+      <c r="N154" s="8"/>
+    </row>
+    <row r="155" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I155" s="3"/>
+      <c r="J155" s="4"/>
+      <c r="K155" s="13"/>
+      <c r="L155" s="20"/>
+      <c r="N155" s="8"/>
+    </row>
+    <row r="156" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I156" s="3"/>
+      <c r="J156" s="4"/>
+      <c r="K156" s="13"/>
+      <c r="L156" s="20"/>
+      <c r="N156" s="8"/>
+    </row>
+    <row r="157" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I157" s="3"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="13"/>
+      <c r="L157" s="20"/>
+      <c r="N157" s="8"/>
+    </row>
+    <row r="158" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I158" s="3"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="13"/>
+      <c r="L158" s="20"/>
+      <c r="N158" s="8"/>
+    </row>
+    <row r="159" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I159" s="3"/>
+      <c r="J159" s="4"/>
+      <c r="K159" s="13"/>
+      <c r="L159" s="20"/>
+      <c r="N159" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -18849,10 +22234,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B8B5DE-2DC6-44B1-95E9-B97BFB59448B}">
-  <dimension ref="B2:X63"/>
+  <dimension ref="B2:X75"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G63"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18876,10 +22261,10 @@
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -18887,58 +22272,58 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>146</v>
-      </c>
       <c r="J3" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K3">
         <v>10</v>
       </c>
       <c r="N3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O3" t="s">
         <v>166</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>167</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>168</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>169</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>170</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
+        <v>177</v>
+      </c>
+      <c r="U3" t="s">
         <v>171</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>178</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>172</v>
       </c>
-      <c r="V3" t="s">
-        <v>179</v>
-      </c>
-      <c r="W3" t="s">
-        <v>173</v>
-      </c>
       <c r="X3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.3">
@@ -18963,13 +22348,13 @@
         <v>100,1,1,1</v>
       </c>
       <c r="J4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K4">
         <v>14</v>
       </c>
       <c r="N4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O4">
         <v>10</v>
@@ -19029,14 +22414,14 @@
         <v>150,1,1,1</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5">
         <f>K4*7</f>
         <v>98</v>
       </c>
       <c r="N5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O5">
         <v>20</v>
@@ -19098,14 +22483,14 @@
         <v>200,1,1,1</v>
       </c>
       <c r="J6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K6">
         <f>K3*K5*1.2</f>
         <v>1176</v>
       </c>
       <c r="N6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O6">
         <v>40</v>
@@ -19189,7 +22574,7 @@
         <v>300,1,1,1</v>
       </c>
       <c r="J8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K8">
         <v>30</v>
@@ -19217,7 +22602,7 @@
         <v>350,1,1,1</v>
       </c>
       <c r="J9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K9">
         <f>K8*5</f>
@@ -19246,7 +22631,7 @@
         <v>400,1,1,1</v>
       </c>
       <c r="J10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K10">
         <f>K8*7</f>
@@ -19275,7 +22660,7 @@
         <v>450,1,1,1</v>
       </c>
       <c r="J11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K11">
         <f>K9*K3</f>
@@ -19304,7 +22689,7 @@
         <v>500,1,1,1</v>
       </c>
       <c r="J12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K12">
         <f>K10*K3*1.2</f>
@@ -20431,6 +23816,270 @@
       <c r="G63" t="str">
         <f t="shared" si="0"/>
         <v>20000,1,1,1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B64" s="3">
+        <v>60</v>
+      </c>
+      <c r="C64" s="25">
+        <f>Level!G67</f>
+        <v>22000</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" ref="G64:G75" si="4">C64&amp;","&amp;D64&amp;","&amp;E64&amp;","&amp;F64</f>
+        <v>22000,1,1,1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="3">
+        <v>61</v>
+      </c>
+      <c r="C65" s="25">
+        <f>Level!G68</f>
+        <v>24000</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="4"/>
+        <v>24000,1,1,1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="3">
+        <v>62</v>
+      </c>
+      <c r="C66" s="25">
+        <f>Level!G69</f>
+        <v>26000</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="4"/>
+        <v>26000,1,1,1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="3">
+        <v>63</v>
+      </c>
+      <c r="C67" s="25">
+        <f>Level!G70</f>
+        <v>28000</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3">
+        <v>1</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="4"/>
+        <v>28000,1,1,1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="3">
+        <v>64</v>
+      </c>
+      <c r="C68" s="25">
+        <f>Level!G71</f>
+        <v>30000</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="4"/>
+        <v>30000,1,1,1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="3">
+        <v>65</v>
+      </c>
+      <c r="C69" s="25">
+        <f>Level!G72</f>
+        <v>32000</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="4"/>
+        <v>32000,1,1,1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="3">
+        <v>66</v>
+      </c>
+      <c r="C70" s="25">
+        <f>Level!G73</f>
+        <v>34000</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="4"/>
+        <v>34000,1,1,1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="3">
+        <v>67</v>
+      </c>
+      <c r="C71" s="25">
+        <f>Level!G74</f>
+        <v>36000</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="4"/>
+        <v>36000,1,1,1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="3">
+        <v>68</v>
+      </c>
+      <c r="C72" s="25">
+        <f>Level!G75</f>
+        <v>38000</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="4"/>
+        <v>38000,1,1,1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="3">
+        <v>69</v>
+      </c>
+      <c r="C73" s="25">
+        <f>Level!G76</f>
+        <v>40000</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="4"/>
+        <v>40000,1,1,1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="3">
+        <v>70</v>
+      </c>
+      <c r="C74" s="25">
+        <f>Level!G77</f>
+        <v>42000</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3">
+        <v>1</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="4"/>
+        <v>42000,1,1,1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B75" s="3">
+        <v>71</v>
+      </c>
+      <c r="C75" s="25">
+        <f>Level!G78</f>
+        <v>44000</v>
+      </c>
+      <c r="D75" s="3">
+        <v>1</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="3">
+        <v>1</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="4"/>
+        <v>44000,1,1,1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DimensionDungeon.xlsx
+++ b/Assets/06.Table/DimensionDungeon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE227A6-CC91-4B84-86FE-EDE147F90D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397F0B9D-4B7F-4869-8529-7D221C31EE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DimensionDungeon" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="245">
   <si>
     <t>id</t>
   </si>
@@ -884,6 +884,9 @@
   </si>
   <si>
     <t>44000,1,1,1</t>
+  </si>
+  <si>
+    <t>스페셜 베기4</t>
   </si>
 </sst>
 </file>
@@ -896,7 +899,7 @@
     <numFmt numFmtId="178" formatCode="#,##0.000"/>
     <numFmt numFmtId="179" formatCode="#,##0.00000000000000_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1188,21 +1191,7 @@
     <cellStyle name="입력" xfId="2" builtinId="20"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1522,13 +1511,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="6" bestFit="1" customWidth="1"/>
@@ -1547,7 +1536,7 @@
     <col min="18" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="17.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1603,7 +1592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" s="4" customFormat="1">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1659,7 +1648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" s="4" customFormat="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1715,7 +1704,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" s="4" customFormat="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1771,7 +1760,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="4" customFormat="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1827,7 +1816,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="4" customFormat="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1883,7 +1872,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="4" customFormat="1">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1939,7 +1928,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1995,7 +1984,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -2051,7 +2040,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -2107,7 +2096,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -2163,7 +2152,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -2219,7 +2208,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -2275,7 +2264,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -2332,7 +2321,7 @@
         <v>자</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -2389,7 +2378,7 @@
         <v>축</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -2446,7 +2435,7 @@
         <v>인</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -2503,7 +2492,7 @@
         <v>묘</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -2560,7 +2549,7 @@
         <v>진</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -2617,7 +2606,7 @@
         <v>사</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -2674,7 +2663,7 @@
         <v>오</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -2731,7 +2720,7 @@
         <v>미</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -2788,7 +2777,7 @@
         <v>신</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -2845,7 +2834,7 @@
         <v>유</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -2902,7 +2891,7 @@
         <v>술</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -2959,7 +2948,7 @@
         <v>해</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -3016,7 +3005,7 @@
         <v>자</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -3073,7 +3062,7 @@
         <v>축</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -3130,7 +3119,7 @@
         <v>인</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -3187,7 +3176,7 @@
         <v>묘</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -3244,7 +3233,7 @@
         <v>진</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -3301,7 +3290,7 @@
         <v>사</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -3358,7 +3347,7 @@
         <v>오</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -3415,7 +3404,7 @@
         <v>미</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -3472,7 +3461,7 @@
         <v>신</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -3529,7 +3518,7 @@
         <v>유</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -3586,7 +3575,7 @@
         <v>술</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -3643,7 +3632,7 @@
         <v>해</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -3700,7 +3689,7 @@
         <v>자</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -3757,7 +3746,7 @@
         <v>축</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -3814,7 +3803,7 @@
         <v>인</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -3871,7 +3860,7 @@
         <v>묘</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -3928,7 +3917,7 @@
         <v>진</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -3985,7 +3974,7 @@
         <v>사</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -4042,7 +4031,7 @@
         <v>오</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -4099,7 +4088,7 @@
         <v>미</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -4156,7 +4145,7 @@
         <v>신</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -4213,7 +4202,7 @@
         <v>유</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -4270,7 +4259,7 @@
         <v>술</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -4327,7 +4316,7 @@
         <v>해</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -4384,7 +4373,7 @@
         <v>자</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -4441,7 +4430,7 @@
         <v>축</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -4498,7 +4487,7 @@
         <v>인</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -4555,7 +4544,7 @@
         <v>묘</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -4612,7 +4601,7 @@
         <v>진</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -4669,7 +4658,7 @@
         <v>사</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -4726,7 +4715,7 @@
         <v>오</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -4783,7 +4772,7 @@
         <v>미</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -4840,7 +4829,7 @@
         <v>신</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -4897,7 +4886,7 @@
         <v>유</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -4954,7 +4943,7 @@
         <v>술</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -5011,7 +5000,7 @@
         <v>해</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -5068,7 +5057,7 @@
         <v>자</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -5125,7 +5114,7 @@
         <v>축</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -5182,7 +5171,7 @@
         <v>인</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -5239,7 +5228,7 @@
         <v>묘</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -5296,7 +5285,7 @@
         <v>진</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -5353,7 +5342,7 @@
         <v>사</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -5410,7 +5399,7 @@
         <v>오</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -5467,7 +5456,7 @@
         <v>미</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -5524,7 +5513,7 @@
         <v>신</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -5581,7 +5570,7 @@
         <v>유</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -5638,7 +5627,7 @@
         <v>술</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -5710,7 +5699,7 @@
       <selection activeCell="K61" sqref="K61:O72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.625" bestFit="1" customWidth="1"/>
@@ -5728,7 +5717,7 @@
     <col min="23" max="23" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31">
       <c r="E2" t="s">
         <v>59</v>
       </c>
@@ -5739,7 +5728,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" ht="17.25" thickBot="1">
       <c r="B3" s="29" t="s">
         <v>62</v>
       </c>
@@ -5814,7 +5803,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31">
       <c r="B4" t="s">
         <v>76</v>
       </c>
@@ -5904,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31">
       <c r="B5" t="s">
         <v>78</v>
       </c>
@@ -5995,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -6086,7 +6075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -6174,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31">
       <c r="A8" s="14">
         <v>2</v>
       </c>
@@ -6262,7 +6251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31">
       <c r="A9" s="14">
         <v>3</v>
       </c>
@@ -6351,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" ht="17.25" thickBot="1">
       <c r="A10" s="14">
         <v>4</v>
       </c>
@@ -6452,7 +6441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31">
       <c r="A11" s="14">
         <v>5</v>
       </c>
@@ -6547,7 +6536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31">
       <c r="A12" s="14">
         <v>6</v>
       </c>
@@ -6649,7 +6638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31">
       <c r="A13" s="14">
         <v>7</v>
       </c>
@@ -6751,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31">
       <c r="E14" s="3">
         <v>10</v>
       </c>
@@ -6843,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31">
       <c r="E15" s="3">
         <v>11</v>
       </c>
@@ -6923,7 +6912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31">
       <c r="E16" s="3">
         <v>12</v>
       </c>
@@ -7003,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:31">
       <c r="E17" s="3">
         <v>13</v>
       </c>
@@ -7083,7 +7072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:31">
       <c r="E18" s="15">
         <v>14</v>
       </c>
@@ -7163,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:31">
       <c r="E19" s="3">
         <v>15</v>
       </c>
@@ -7243,7 +7232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:31">
       <c r="E20" s="3">
         <v>16</v>
       </c>
@@ -7323,7 +7312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:31">
       <c r="E21" s="3">
         <v>17</v>
       </c>
@@ -7403,7 +7392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:31">
       <c r="E22" s="3">
         <v>18</v>
       </c>
@@ -7483,7 +7472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:31">
       <c r="E23" s="15">
         <v>19</v>
       </c>
@@ -7563,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:31">
       <c r="E24" s="3">
         <v>20</v>
       </c>
@@ -7643,7 +7632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:31">
       <c r="E25" s="3">
         <v>21</v>
       </c>
@@ -7724,7 +7713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:31">
       <c r="E26" s="3">
         <v>22</v>
       </c>
@@ -7805,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:31">
       <c r="E27" s="3">
         <v>23</v>
       </c>
@@ -7886,7 +7875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:31">
       <c r="E28" s="15">
         <v>24</v>
       </c>
@@ -7967,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:31">
       <c r="E29" s="3">
         <v>25</v>
       </c>
@@ -8048,7 +8037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:31">
       <c r="E30" s="3">
         <v>26</v>
       </c>
@@ -8129,7 +8118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:31">
       <c r="E31" s="3">
         <v>27</v>
       </c>
@@ -8210,7 +8199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:31">
       <c r="E32" s="3">
         <v>28</v>
       </c>
@@ -8291,7 +8280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:31">
       <c r="E33" s="15">
         <v>29</v>
       </c>
@@ -8372,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:31">
       <c r="E34" s="3">
         <v>30</v>
       </c>
@@ -8453,7 +8442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:31">
       <c r="E35" s="3">
         <v>31</v>
       </c>
@@ -8534,7 +8523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:31">
       <c r="E36" s="3">
         <v>32</v>
       </c>
@@ -8615,7 +8604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:31">
       <c r="E37" s="3">
         <v>33</v>
       </c>
@@ -8696,7 +8685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:31">
       <c r="E38" s="15">
         <v>34</v>
       </c>
@@ -8777,7 +8766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:31">
       <c r="E39" s="3">
         <v>35</v>
       </c>
@@ -8858,7 +8847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:31">
       <c r="E40" s="3">
         <v>36</v>
       </c>
@@ -8939,7 +8928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:31">
       <c r="E41" s="3">
         <v>37</v>
       </c>
@@ -9020,7 +9009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:31">
       <c r="E42" s="3">
         <v>38</v>
       </c>
@@ -9101,7 +9090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:31">
       <c r="E43" s="3">
         <v>39</v>
       </c>
@@ -9182,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:31">
       <c r="P44" s="3">
         <v>40</v>
       </c>
@@ -9245,7 +9234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:31">
       <c r="P45" s="3">
         <v>41</v>
       </c>
@@ -9308,7 +9297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:31">
       <c r="P46" s="3">
         <v>42</v>
       </c>
@@ -9371,7 +9360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:31">
       <c r="P47" s="3">
         <v>43</v>
       </c>
@@ -9434,7 +9423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="5:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:31">
       <c r="P48" s="3">
         <v>44</v>
       </c>
@@ -9497,7 +9486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="16:31">
       <c r="P49" s="3">
         <v>45</v>
       </c>
@@ -9560,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="16:31">
       <c r="P50" s="3">
         <v>46</v>
       </c>
@@ -9623,7 +9612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="16:31">
       <c r="P51" s="3">
         <v>47</v>
       </c>
@@ -9686,7 +9675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="16:31">
       <c r="P52" s="3">
         <v>48</v>
       </c>
@@ -9749,7 +9738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="16:31">
       <c r="P53" s="3">
         <v>49</v>
       </c>
@@ -9812,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="54" spans="16:31">
       <c r="P54" s="3">
         <v>50</v>
       </c>
@@ -9875,7 +9864,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="55" spans="16:31">
       <c r="P55" s="3">
         <v>51</v>
       </c>
@@ -9938,7 +9927,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="56" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="56" spans="16:31">
       <c r="P56" s="3">
         <v>52</v>
       </c>
@@ -10001,7 +9990,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="57" spans="16:31">
       <c r="P57" s="3">
         <v>53</v>
       </c>
@@ -10064,7 +10053,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="58" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="58" spans="16:31">
       <c r="P58" s="3">
         <v>54</v>
       </c>
@@ -10127,7 +10116,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="16:31">
       <c r="P59" s="3">
         <v>55</v>
       </c>
@@ -10190,7 +10179,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="60" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="60" spans="16:31">
       <c r="P60" s="3">
         <v>56</v>
       </c>
@@ -10252,7 +10241,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="61" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="61" spans="16:31">
       <c r="P61" s="3">
         <v>57</v>
       </c>
@@ -10314,7 +10303,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="62" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="62" spans="16:31">
       <c r="P62" s="3">
         <v>58</v>
       </c>
@@ -10376,7 +10365,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="63" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="63" spans="16:31">
       <c r="P63" s="3">
         <v>59</v>
       </c>
@@ -10438,7 +10427,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="64" spans="16:31" x14ac:dyDescent="0.3">
+    <row r="64" spans="16:31">
       <c r="P64" s="3">
         <v>60</v>
       </c>
@@ -10500,7 +10489,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="65" spans="12:31" x14ac:dyDescent="0.3">
+    <row r="65" spans="12:31">
       <c r="P65" s="3">
         <v>61</v>
       </c>
@@ -10562,7 +10551,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="66" spans="12:31" x14ac:dyDescent="0.3">
+    <row r="66" spans="12:31">
       <c r="L66" s="20"/>
       <c r="M66" s="20"/>
       <c r="P66" s="3">
@@ -10626,7 +10615,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="12:31" x14ac:dyDescent="0.3">
+    <row r="67" spans="12:31">
       <c r="P67" s="3">
         <v>63</v>
       </c>
@@ -10688,7 +10677,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="68" spans="12:31" x14ac:dyDescent="0.3">
+    <row r="68" spans="12:31">
       <c r="P68" s="3">
         <v>64</v>
       </c>
@@ -10750,7 +10739,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="69" spans="12:31" x14ac:dyDescent="0.3">
+    <row r="69" spans="12:31">
       <c r="P69" s="3">
         <v>65</v>
       </c>
@@ -10812,7 +10801,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="70" spans="12:31" x14ac:dyDescent="0.3">
+    <row r="70" spans="12:31">
       <c r="P70" s="3">
         <v>66</v>
       </c>
@@ -10874,7 +10863,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="71" spans="12:31" x14ac:dyDescent="0.3">
+    <row r="71" spans="12:31">
       <c r="P71" s="3">
         <v>67</v>
       </c>
@@ -10936,7 +10925,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="72" spans="12:31" x14ac:dyDescent="0.3">
+    <row r="72" spans="12:31">
       <c r="P72" s="3">
         <v>68</v>
       </c>
@@ -10998,7 +10987,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="12:31" x14ac:dyDescent="0.3">
+    <row r="73" spans="12:31">
       <c r="P73" s="3">
         <v>69</v>
       </c>
@@ -11060,7 +11049,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="74" spans="12:31" x14ac:dyDescent="0.3">
+    <row r="74" spans="12:31">
       <c r="P74" s="3">
         <v>70</v>
       </c>
@@ -11122,7 +11111,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="75" spans="12:31" x14ac:dyDescent="0.3">
+    <row r="75" spans="12:31">
       <c r="P75" s="3">
         <v>71</v>
       </c>
@@ -11190,7 +11179,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($P1,12)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11206,7 +11195,7 @@
       <selection activeCell="N66" sqref="N66:N74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
@@ -11214,7 +11203,7 @@
     <col min="14" max="14" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:23">
       <c r="C2" t="s">
         <v>97</v>
       </c>
@@ -11225,7 +11214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23">
       <c r="C3" s="14" t="s">
         <v>99</v>
       </c>
@@ -11251,7 +11240,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23" ht="17.25" thickBot="1">
       <c r="B4" s="17" t="s">
         <v>100</v>
       </c>
@@ -11316,7 +11305,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23">
       <c r="B5" s="14">
         <v>0</v>
       </c>
@@ -11392,7 +11381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23">
       <c r="B6" s="14">
         <v>1</v>
       </c>
@@ -11468,7 +11457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23">
       <c r="B7" s="14">
         <v>2</v>
       </c>
@@ -11544,7 +11533,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23">
       <c r="B8" s="14">
         <v>3</v>
       </c>
@@ -11620,7 +11609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:23">
       <c r="B9" s="14">
         <v>4</v>
       </c>
@@ -11696,7 +11685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23">
       <c r="B10" s="14">
         <v>5</v>
       </c>
@@ -11772,7 +11761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23">
       <c r="B11" s="14">
         <v>6</v>
       </c>
@@ -11848,7 +11837,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23">
       <c r="B12" s="14">
         <v>7</v>
       </c>
@@ -11924,7 +11913,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23">
       <c r="B13" s="14">
         <v>8</v>
       </c>
@@ -12000,7 +11989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:23">
       <c r="B14" s="14">
         <v>9</v>
       </c>
@@ -12076,7 +12065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23">
       <c r="B15" s="14">
         <v>10</v>
       </c>
@@ -12152,7 +12141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:23">
       <c r="B16" s="14">
         <v>11</v>
       </c>
@@ -12228,7 +12217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:23">
       <c r="B17" s="14">
         <v>12</v>
       </c>
@@ -12304,7 +12293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:23">
       <c r="B18" s="14">
         <v>13</v>
       </c>
@@ -12380,7 +12369,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:23">
       <c r="B19" s="14">
         <v>14</v>
       </c>
@@ -12456,7 +12445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:23">
       <c r="B20" s="14">
         <v>15</v>
       </c>
@@ -12532,7 +12521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:23">
       <c r="B21" s="14">
         <v>16</v>
       </c>
@@ -12608,7 +12597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:23">
       <c r="B22" s="14">
         <v>17</v>
       </c>
@@ -12684,7 +12673,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:23">
       <c r="B23" s="14">
         <v>18</v>
       </c>
@@ -12760,7 +12749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:23">
       <c r="B24" s="14">
         <v>19</v>
       </c>
@@ -12836,7 +12825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:23">
       <c r="B25" s="14">
         <v>20</v>
       </c>
@@ -12912,7 +12901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:23">
       <c r="B26" s="14">
         <v>21</v>
       </c>
@@ -12988,7 +12977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:23">
       <c r="B27" s="14">
         <v>22</v>
       </c>
@@ -13064,7 +13053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:23">
       <c r="B28" s="14">
         <v>23</v>
       </c>
@@ -13140,7 +13129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:23">
       <c r="B29" s="14">
         <v>24</v>
       </c>
@@ -13216,7 +13205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:23">
       <c r="B30" s="14">
         <v>25</v>
       </c>
@@ -13292,7 +13281,7 @@
         <v>24.999999999999996</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:23">
       <c r="B31" s="14">
         <v>26</v>
       </c>
@@ -13368,7 +13357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:23">
       <c r="B32" s="14">
         <v>27</v>
       </c>
@@ -13444,7 +13433,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:23">
       <c r="B33" s="14">
         <v>28</v>
       </c>
@@ -13520,7 +13509,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:23">
       <c r="B34" s="14">
         <v>29</v>
       </c>
@@ -13596,7 +13585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:23">
       <c r="B35" s="14">
         <v>30</v>
       </c>
@@ -13672,7 +13661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:23">
       <c r="B36" s="14">
         <v>31</v>
       </c>
@@ -13748,7 +13737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:23">
       <c r="B37" s="14">
         <v>32</v>
       </c>
@@ -13824,7 +13813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:23">
       <c r="B38" s="14">
         <v>33</v>
       </c>
@@ -13900,7 +13889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:23">
       <c r="B39" s="14">
         <v>34</v>
       </c>
@@ -13976,7 +13965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:23">
       <c r="B40" s="14">
         <v>35</v>
       </c>
@@ -14052,7 +14041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:23">
       <c r="B41" s="14">
         <v>36</v>
       </c>
@@ -14128,7 +14117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:23">
       <c r="B42" s="14">
         <v>37</v>
       </c>
@@ -14204,7 +14193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:23">
       <c r="B43" s="14">
         <v>38</v>
       </c>
@@ -14280,7 +14269,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:23">
       <c r="B44" s="14">
         <v>39</v>
       </c>
@@ -14356,7 +14345,7 @@
         <v>25.000000000000004</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:23">
       <c r="B45" s="14">
         <v>40</v>
       </c>
@@ -14432,7 +14421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:23">
       <c r="B46" s="14">
         <v>41</v>
       </c>
@@ -14508,7 +14497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:23">
       <c r="B47" s="14">
         <v>42</v>
       </c>
@@ -14584,7 +14573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:23">
       <c r="B48" s="14">
         <v>43</v>
       </c>
@@ -14660,7 +14649,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:23">
       <c r="B49" s="14">
         <v>44</v>
       </c>
@@ -14736,7 +14725,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:23">
       <c r="B50" s="14">
         <v>45</v>
       </c>
@@ -14812,7 +14801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:23">
       <c r="B51" s="14">
         <v>46</v>
       </c>
@@ -14888,7 +14877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:23">
       <c r="B52" s="14">
         <v>47</v>
       </c>
@@ -14964,7 +14953,7 @@
         <v>24.999999999999996</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:23">
       <c r="B53" s="14">
         <v>48</v>
       </c>
@@ -15040,7 +15029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:23">
       <c r="B54" s="14">
         <v>49</v>
       </c>
@@ -15116,7 +15105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:23">
       <c r="B55" s="14">
         <v>50</v>
       </c>
@@ -15192,7 +15181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:23">
       <c r="B56" s="14">
         <v>51</v>
       </c>
@@ -15268,7 +15257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:23">
       <c r="B57" s="14">
         <v>52</v>
       </c>
@@ -15344,7 +15333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:23">
       <c r="B58" s="14">
         <v>53</v>
       </c>
@@ -15420,7 +15409,7 @@
         <v>24.999999999999996</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:23">
       <c r="B59" s="14">
         <v>54</v>
       </c>
@@ -15496,7 +15485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:23">
       <c r="B60" s="14">
         <v>55</v>
       </c>
@@ -15572,7 +15561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:23">
       <c r="B61" s="14">
         <v>56</v>
       </c>
@@ -15648,7 +15637,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:23">
       <c r="B62" s="14">
         <v>57</v>
       </c>
@@ -15724,7 +15713,7 @@
         <v>24.999999999999996</v>
       </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:23">
       <c r="B63" s="14">
         <v>58</v>
       </c>
@@ -15800,7 +15789,7 @@
         <v>24.999999999999996</v>
       </c>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:23">
       <c r="B64" s="14">
         <v>59</v>
       </c>
@@ -15876,7 +15865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:23">
       <c r="B65" s="14">
         <v>60</v>
       </c>
@@ -15952,7 +15941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:23">
       <c r="B66" s="14">
         <v>61</v>
       </c>
@@ -16028,7 +16017,7 @@
         <v>25.000000000000004</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:23">
       <c r="B67" s="14">
         <v>62</v>
       </c>
@@ -16104,7 +16093,7 @@
         <v>25.000000000000004</v>
       </c>
     </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:23">
       <c r="B68" s="14">
         <v>63</v>
       </c>
@@ -16180,7 +16169,7 @@
         <v>25.000000000000004</v>
       </c>
     </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:23">
       <c r="B69" s="14">
         <v>64</v>
       </c>
@@ -16256,7 +16245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:23">
       <c r="B70" s="14">
         <v>65</v>
       </c>
@@ -16332,7 +16321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:23">
       <c r="B71" s="14">
         <v>66</v>
       </c>
@@ -16408,7 +16397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:23">
       <c r="B72" s="14">
         <v>67</v>
       </c>
@@ -16484,7 +16473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:23">
       <c r="B73" s="14">
         <v>68</v>
       </c>
@@ -16560,7 +16549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:23">
       <c r="B74" s="14">
         <v>69</v>
       </c>
@@ -16636,7 +16625,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:23">
       <c r="B75" s="14">
         <v>70</v>
       </c>
@@ -16712,7 +16701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:23">
       <c r="B76" s="14">
         <v>71</v>
       </c>
@@ -16798,11 +16787,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4A8E7C-BCE9-444A-AF20-45D33AF776F9}">
   <dimension ref="D2:AB159"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="I136" sqref="I136"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="20.375" customWidth="1"/>
     <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
@@ -16817,7 +16806,7 @@
     <col min="27" max="27" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:28">
       <c r="E2" t="s">
         <v>104</v>
       </c>
@@ -16831,7 +16820,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:28">
       <c r="E3" t="s">
         <v>106</v>
       </c>
@@ -16839,7 +16828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:28">
       <c r="E4" t="s">
         <v>107</v>
       </c>
@@ -16847,12 +16836,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:28">
       <c r="D5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="4:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:28" ht="17.25" thickBot="1">
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
@@ -16907,7 +16896,7 @@
       </c>
       <c r="AB6" s="30"/>
     </row>
-    <row r="7" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:28">
       <c r="D7" s="3">
         <v>0</v>
       </c>
@@ -16980,7 +16969,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:28">
       <c r="D8" s="3">
         <v>1</v>
       </c>
@@ -17049,7 +17038,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:28">
       <c r="D9" s="3">
         <v>2</v>
       </c>
@@ -17118,7 +17107,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:28">
       <c r="D10" s="3">
         <v>3</v>
       </c>
@@ -17190,7 +17179,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="11" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:28">
       <c r="D11" s="3">
         <v>4</v>
       </c>
@@ -17262,7 +17251,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="12" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:28">
       <c r="D12" s="3">
         <v>5</v>
       </c>
@@ -17336,7 +17325,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="13" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:28">
       <c r="D13" s="3">
         <v>6</v>
       </c>
@@ -17403,7 +17392,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="14" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:28">
       <c r="D14" s="3">
         <v>7</v>
       </c>
@@ -17470,7 +17459,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:28">
       <c r="D15" s="3">
         <v>8</v>
       </c>
@@ -17537,7 +17526,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="4:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:28" ht="17.25" customHeight="1">
       <c r="D16" s="3">
         <v>9</v>
       </c>
@@ -17604,7 +17593,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:28">
       <c r="D17" s="3">
         <v>10</v>
       </c>
@@ -17662,7 +17651,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:28">
       <c r="D18" s="3">
         <v>11</v>
       </c>
@@ -17723,7 +17712,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:28">
       <c r="D19" s="3">
         <v>12</v>
       </c>
@@ -17784,7 +17773,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:28">
       <c r="D20" s="3">
         <v>13</v>
       </c>
@@ -17852,7 +17841,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:28">
       <c r="D21" s="3">
         <v>14</v>
       </c>
@@ -17920,7 +17909,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:28">
       <c r="D22" s="3">
         <v>15</v>
       </c>
@@ -17988,7 +17977,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="23" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:28">
       <c r="D23" s="3">
         <v>16</v>
       </c>
@@ -18056,7 +18045,7 @@
         <v>934.5</v>
       </c>
     </row>
-    <row r="24" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:28">
       <c r="D24" s="3">
         <v>17</v>
       </c>
@@ -18124,7 +18113,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="25" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:28">
       <c r="D25" s="3">
         <v>18</v>
       </c>
@@ -18192,7 +18181,7 @@
         <v>3402.5</v>
       </c>
     </row>
-    <row r="26" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:28">
       <c r="D26" s="3">
         <v>19</v>
       </c>
@@ -18260,7 +18249,7 @@
         <v>6540.5</v>
       </c>
     </row>
-    <row r="27" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:28">
       <c r="D27" s="3">
         <v>20</v>
       </c>
@@ -18328,7 +18317,7 @@
         <v>12613</v>
       </c>
     </row>
-    <row r="28" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:28">
       <c r="D28" s="3">
         <v>21</v>
       </c>
@@ -18386,7 +18375,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="29" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:28">
       <c r="D29" s="3">
         <v>22</v>
       </c>
@@ -18444,7 +18433,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="30" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:28">
       <c r="D30" s="3">
         <v>23</v>
       </c>
@@ -18502,7 +18491,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="31" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:28">
       <c r="D31" s="3">
         <v>24</v>
       </c>
@@ -18560,7 +18549,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="4:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:28">
       <c r="D32" s="3">
         <v>25</v>
       </c>
@@ -18618,7 +18607,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="33" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:21">
       <c r="D33" s="3">
         <v>26</v>
       </c>
@@ -18676,7 +18665,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="34" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:21">
       <c r="D34" s="3">
         <v>27</v>
       </c>
@@ -18734,7 +18723,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="35" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:21">
       <c r="D35" s="3">
         <v>28</v>
       </c>
@@ -18792,7 +18781,7 @@
         <v>583.5</v>
       </c>
     </row>
-    <row r="36" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:21">
       <c r="D36" s="3">
         <v>29</v>
       </c>
@@ -18850,7 +18839,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="37" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:21">
       <c r="D37" s="3">
         <v>30</v>
       </c>
@@ -18908,7 +18897,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="38" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:21">
       <c r="D38" s="3">
         <v>31</v>
       </c>
@@ -18966,7 +18955,7 @@
         <v>1547.5</v>
       </c>
     </row>
-    <row r="39" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:21">
       <c r="D39" s="3">
         <v>32</v>
       </c>
@@ -19024,7 +19013,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="40" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:21">
       <c r="D40" s="3">
         <v>33</v>
       </c>
@@ -19082,7 +19071,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="41" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:21">
       <c r="D41" s="3">
         <v>34</v>
       </c>
@@ -19140,7 +19129,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="42" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:21">
       <c r="D42" s="3">
         <v>35</v>
       </c>
@@ -19198,7 +19187,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="43" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:21">
       <c r="D43" s="3">
         <v>36</v>
       </c>
@@ -19256,7 +19245,7 @@
         <v>2982.5</v>
       </c>
     </row>
-    <row r="44" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:21">
       <c r="D44" s="3">
         <v>37</v>
       </c>
@@ -19314,7 +19303,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="45" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:21">
       <c r="D45" s="3">
         <v>38</v>
       </c>
@@ -19372,7 +19361,7 @@
         <v>2164.5</v>
       </c>
     </row>
-    <row r="46" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:21">
       <c r="D46" s="3">
         <v>39</v>
       </c>
@@ -19430,7 +19419,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="47" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:21">
       <c r="D47" s="3">
         <v>40</v>
       </c>
@@ -19467,7 +19456,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="48" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:21">
       <c r="D48" s="3">
         <v>41</v>
       </c>
@@ -19504,7 +19493,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="49" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:14">
       <c r="D49" s="3">
         <v>42</v>
       </c>
@@ -19541,7 +19530,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="50" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:14">
       <c r="D50" s="3">
         <v>43</v>
       </c>
@@ -19578,7 +19567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:14">
       <c r="D51" s="3">
         <v>44</v>
       </c>
@@ -19615,7 +19604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:14">
       <c r="D52" s="3">
         <v>45</v>
       </c>
@@ -19652,7 +19641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:14">
       <c r="D53" s="3">
         <v>46</v>
       </c>
@@ -19689,7 +19678,7 @@
         <v>1.1428571428571428</v>
       </c>
     </row>
-    <row r="54" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:14">
       <c r="D54" s="3">
         <v>47</v>
       </c>
@@ -19726,7 +19715,7 @@
         <v>1.1428571428571428</v>
       </c>
     </row>
-    <row r="55" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:14">
       <c r="D55" s="3">
         <v>48</v>
       </c>
@@ -19763,7 +19752,7 @@
         <v>1.1428571428571428</v>
       </c>
     </row>
-    <row r="56" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:14">
       <c r="D56" s="3">
         <v>49</v>
       </c>
@@ -19800,7 +19789,7 @@
         <v>1.2857142857142858</v>
       </c>
     </row>
-    <row r="57" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:14">
       <c r="D57" s="3">
         <v>50</v>
       </c>
@@ -19837,7 +19826,7 @@
         <v>1.2857142857142858</v>
       </c>
     </row>
-    <row r="58" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:14">
       <c r="D58" s="3">
         <v>51</v>
       </c>
@@ -19874,7 +19863,7 @@
         <v>1.4285714285714286</v>
       </c>
     </row>
-    <row r="59" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:14">
       <c r="D59" s="3">
         <v>52</v>
       </c>
@@ -19911,7 +19900,7 @@
         <v>1.4285714285714286</v>
       </c>
     </row>
-    <row r="60" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:14">
       <c r="D60" s="3">
         <v>53</v>
       </c>
@@ -19948,7 +19937,7 @@
         <v>1.5714285714285714</v>
       </c>
     </row>
-    <row r="61" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:14">
       <c r="D61" s="3">
         <v>54</v>
       </c>
@@ -19985,7 +19974,7 @@
         <v>1.5714285714285714</v>
       </c>
     </row>
-    <row r="62" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:14">
       <c r="D62" s="3">
         <v>55</v>
       </c>
@@ -20022,7 +20011,7 @@
         <v>1.7142857142857142</v>
       </c>
     </row>
-    <row r="63" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:14">
       <c r="D63" s="3">
         <v>56</v>
       </c>
@@ -20059,7 +20048,7 @@
         <v>1.7142857142857142</v>
       </c>
     </row>
-    <row r="64" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:14">
       <c r="D64" s="3">
         <v>57</v>
       </c>
@@ -20096,7 +20085,7 @@
         <v>1.8571428571428572</v>
       </c>
     </row>
-    <row r="65" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:14">
       <c r="D65" s="3">
         <v>58</v>
       </c>
@@ -20133,7 +20122,7 @@
         <v>1.8571428571428572</v>
       </c>
     </row>
-    <row r="66" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:14">
       <c r="D66" s="3">
         <v>59</v>
       </c>
@@ -20170,7 +20159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:14">
       <c r="D67" s="3">
         <v>60</v>
       </c>
@@ -20207,7 +20196,7 @@
         <v>2.1428571428571428</v>
       </c>
     </row>
-    <row r="68" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:14">
       <c r="D68" s="3">
         <v>61</v>
       </c>
@@ -20244,7 +20233,7 @@
         <v>2.1428571428571428</v>
       </c>
     </row>
-    <row r="69" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:14">
       <c r="D69" s="3">
         <v>62</v>
       </c>
@@ -20281,7 +20270,7 @@
         <v>2.2857142857142856</v>
       </c>
     </row>
-    <row r="70" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:14">
       <c r="D70" s="3">
         <v>63</v>
       </c>
@@ -20318,7 +20307,7 @@
         <v>2.4285714285714284</v>
       </c>
     </row>
-    <row r="71" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:14">
       <c r="D71" s="3">
         <v>64</v>
       </c>
@@ -20355,7 +20344,7 @@
         <v>2.5714285714285716</v>
       </c>
     </row>
-    <row r="72" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:14">
       <c r="D72" s="3">
         <v>65</v>
       </c>
@@ -20392,7 +20381,7 @@
         <v>2.7142857142857144</v>
       </c>
     </row>
-    <row r="73" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:14">
       <c r="D73" s="3">
         <v>66</v>
       </c>
@@ -20429,7 +20418,7 @@
         <v>2.8571428571428572</v>
       </c>
     </row>
-    <row r="74" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:14">
       <c r="D74" s="3">
         <v>67</v>
       </c>
@@ -20466,7 +20455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:14">
       <c r="D75" s="3">
         <v>68</v>
       </c>
@@ -20503,7 +20492,7 @@
         <v>3.1428571428571428</v>
       </c>
     </row>
-    <row r="76" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:14">
       <c r="D76" s="3">
         <v>69</v>
       </c>
@@ -20540,7 +20529,7 @@
         <v>3.2857142857142856</v>
       </c>
     </row>
-    <row r="77" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:14">
       <c r="D77" s="3">
         <v>70</v>
       </c>
@@ -20577,7 +20566,7 @@
         <v>3.5714285714285716</v>
       </c>
     </row>
-    <row r="78" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:14">
       <c r="D78" s="3">
         <v>71</v>
       </c>
@@ -20614,7 +20603,7 @@
         <v>3.7142857142857144</v>
       </c>
     </row>
-    <row r="79" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:14">
       <c r="D79" s="3"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
@@ -20641,7 +20630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:14">
       <c r="D80" s="3"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
@@ -20668,7 +20657,7 @@
         <v>4.1428571428571432</v>
       </c>
     </row>
-    <row r="81" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:14">
       <c r="D81" s="3"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
@@ -20695,7 +20684,7 @@
         <v>4.4285714285714288</v>
       </c>
     </row>
-    <row r="82" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:14">
       <c r="D82" s="3"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
@@ -20722,7 +20711,7 @@
         <v>4.7142857142857144</v>
       </c>
     </row>
-    <row r="83" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:14">
       <c r="D83" s="3"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
@@ -20749,7 +20738,7 @@
         <v>4.8571428571428568</v>
       </c>
     </row>
-    <row r="84" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:14">
       <c r="D84" s="3"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -20776,7 +20765,7 @@
         <v>5.1428571428571432</v>
       </c>
     </row>
-    <row r="85" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:14">
       <c r="D85" s="3"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
@@ -20803,7 +20792,7 @@
         <v>5.4285714285714288</v>
       </c>
     </row>
-    <row r="86" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:14">
       <c r="D86" s="3"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
@@ -20830,7 +20819,7 @@
         <v>5.7142857142857144</v>
       </c>
     </row>
-    <row r="87" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:14">
       <c r="D87" s="3"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
@@ -20857,7 +20846,7 @@
         <v>6.1428571428571432</v>
       </c>
     </row>
-    <row r="88" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:14">
       <c r="D88" s="3"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
@@ -20884,7 +20873,7 @@
         <v>6.4285714285714288</v>
       </c>
     </row>
-    <row r="89" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:14">
       <c r="D89" s="3"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
@@ -20911,7 +20900,7 @@
         <v>6.7142857142857144</v>
       </c>
     </row>
-    <row r="90" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:14">
       <c r="D90" s="3"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
@@ -20938,7 +20927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:14">
       <c r="D91" s="3"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
@@ -20965,7 +20954,7 @@
         <v>7.4285714285714288</v>
       </c>
     </row>
-    <row r="92" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:14">
       <c r="D92" s="3"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
@@ -20992,7 +20981,7 @@
         <v>7.7142857142857144</v>
       </c>
     </row>
-    <row r="93" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:14">
       <c r="D93" s="3"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
@@ -21019,7 +21008,7 @@
         <v>8.1428571428571423</v>
       </c>
     </row>
-    <row r="94" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:14">
       <c r="D94" s="3"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
@@ -21046,7 +21035,7 @@
         <v>8.5714285714285712</v>
       </c>
     </row>
-    <row r="95" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:14">
       <c r="D95" s="3"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
@@ -21073,7 +21062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:14">
       <c r="D96" s="3"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
@@ -21100,7 +21089,7 @@
         <v>9.4285714285714288</v>
       </c>
     </row>
-    <row r="97" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:15">
       <c r="D97" s="3"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
@@ -21127,7 +21116,7 @@
         <v>9.8571428571428577</v>
       </c>
     </row>
-    <row r="98" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:15">
       <c r="D98" s="3"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
@@ -21154,7 +21143,7 @@
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="99" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:15">
       <c r="D99" s="3"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
@@ -21181,7 +21170,7 @@
         <v>10.857142857142858</v>
       </c>
     </row>
-    <row r="100" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:15">
       <c r="D100" s="3"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
@@ -21208,7 +21197,7 @@
         <v>11.285714285714286</v>
       </c>
     </row>
-    <row r="101" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:15">
       <c r="D101" s="3"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
@@ -21235,7 +21224,7 @@
         <v>11.857142857142858</v>
       </c>
     </row>
-    <row r="102" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:15">
       <c r="D102" s="3"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
@@ -21262,7 +21251,7 @@
         <v>12.571428571428571</v>
       </c>
     </row>
-    <row r="103" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:15">
       <c r="D103" s="3"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
@@ -21289,7 +21278,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="104" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:15">
       <c r="D104" s="3"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
@@ -21316,7 +21305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:15">
       <c r="D105" s="3"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
@@ -21343,7 +21332,7 @@
         <v>14.714285714285714</v>
       </c>
     </row>
-    <row r="106" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:15">
       <c r="D106" s="3"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
@@ -21371,7 +21360,7 @@
       </c>
       <c r="O106" s="28"/>
     </row>
-    <row r="107" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:15">
       <c r="I107" s="3">
         <v>100</v>
       </c>
@@ -21394,7 +21383,7 @@
         <v>16.428571428571427</v>
       </c>
     </row>
-    <row r="108" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:15">
       <c r="I108" s="3">
         <v>101</v>
       </c>
@@ -21417,7 +21406,7 @@
         <v>17.285714285714285</v>
       </c>
     </row>
-    <row r="109" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:15">
       <c r="I109" s="3">
         <v>102</v>
       </c>
@@ -21440,7 +21429,7 @@
         <v>18.142857142857142</v>
       </c>
     </row>
-    <row r="110" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:15">
       <c r="I110" s="3">
         <v>103</v>
       </c>
@@ -21463,7 +21452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:15">
       <c r="I111" s="3">
         <v>104</v>
       </c>
@@ -21486,7 +21475,7 @@
         <v>19.857142857142858</v>
       </c>
     </row>
-    <row r="112" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:15">
       <c r="I112" s="3">
         <v>105</v>
       </c>
@@ -21509,7 +21498,7 @@
         <v>20.714285714285715</v>
       </c>
     </row>
-    <row r="113" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:14">
       <c r="I113" s="3">
         <v>106</v>
       </c>
@@ -21532,7 +21521,7 @@
         <v>21.571428571428573</v>
       </c>
     </row>
-    <row r="114" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:14">
       <c r="I114" s="3">
         <v>107</v>
       </c>
@@ -21555,7 +21544,7 @@
         <v>22.428571428571427</v>
       </c>
     </row>
-    <row r="115" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:14">
       <c r="I115" s="3">
         <v>108</v>
       </c>
@@ -21578,7 +21567,7 @@
         <v>23.285714285714285</v>
       </c>
     </row>
-    <row r="116" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:14">
       <c r="I116" s="3">
         <v>109</v>
       </c>
@@ -21601,7 +21590,7 @@
         <v>24.142857142857142</v>
       </c>
     </row>
-    <row r="117" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:14">
       <c r="I117" s="3">
         <v>110</v>
       </c>
@@ -21624,7 +21613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:14">
       <c r="I118" s="3">
         <v>111</v>
       </c>
@@ -21647,7 +21636,7 @@
         <v>25.857142857142858</v>
       </c>
     </row>
-    <row r="119" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:14">
       <c r="I119" s="3">
         <v>112</v>
       </c>
@@ -21670,7 +21659,7 @@
         <v>26.714285714285715</v>
       </c>
     </row>
-    <row r="120" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:14">
       <c r="I120" s="3">
         <v>113</v>
       </c>
@@ -21693,7 +21682,7 @@
         <v>27.571428571428573</v>
       </c>
     </row>
-    <row r="121" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:14">
       <c r="I121" s="3">
         <v>114</v>
       </c>
@@ -21716,7 +21705,7 @@
         <v>28.428571428571427</v>
       </c>
     </row>
-    <row r="122" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:14">
       <c r="I122" s="3">
         <v>115</v>
       </c>
@@ -21739,7 +21728,7 @@
         <v>29.285714285714285</v>
       </c>
     </row>
-    <row r="123" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:14">
       <c r="I123" s="3">
         <v>116</v>
       </c>
@@ -21762,7 +21751,7 @@
         <v>30.142857142857142</v>
       </c>
     </row>
-    <row r="124" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:14">
       <c r="I124" s="3">
         <v>117</v>
       </c>
@@ -21785,7 +21774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:14">
       <c r="I125" s="3">
         <v>118</v>
       </c>
@@ -21808,7 +21797,7 @@
         <v>31.857142857142858</v>
       </c>
     </row>
-    <row r="126" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:14">
       <c r="I126" s="3">
         <v>119</v>
       </c>
@@ -21831,7 +21820,7 @@
         <v>32.714285714285715</v>
       </c>
     </row>
-    <row r="127" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:14">
       <c r="I127" s="3">
         <v>120</v>
       </c>
@@ -21854,7 +21843,7 @@
         <v>33.571428571428569</v>
       </c>
     </row>
-    <row r="128" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:14">
       <c r="I128" s="3">
         <v>121</v>
       </c>
@@ -21877,7 +21866,7 @@
         <v>34.428571428571431</v>
       </c>
     </row>
-    <row r="129" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:14">
       <c r="I129" s="3">
         <v>122</v>
       </c>
@@ -21892,15 +21881,15 @@
         <v>6186350</v>
       </c>
       <c r="M129">
-        <f t="shared" ref="M129:M157" si="15">ROUNDUP(L129/VLOOKUP($O$2,D:E,2,FALSE),0)/$F$3</f>
+        <f t="shared" ref="M129:M136" si="15">ROUNDUP(L129/VLOOKUP($O$2,D:E,2,FALSE),0)/$F$3</f>
         <v>59.2</v>
       </c>
       <c r="N129" s="8">
-        <f t="shared" ref="N129:N157" si="16">ROUNDUP(L129/VLOOKUP($O$2,D:F,3,FALSE),0)/$F$4</f>
+        <f t="shared" ref="N129:N136" si="16">ROUNDUP(L129/VLOOKUP($O$2,D:F,3,FALSE),0)/$F$4</f>
         <v>35.142857142857146</v>
       </c>
     </row>
-    <row r="130" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:14">
       <c r="I130" s="3">
         <v>123</v>
       </c>
@@ -21923,7 +21912,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:14">
       <c r="I131" s="3">
         <v>124</v>
       </c>
@@ -21946,7 +21935,7 @@
         <v>36.857142857142854</v>
       </c>
     </row>
-    <row r="132" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:14">
       <c r="I132" s="3">
         <v>125</v>
       </c>
@@ -21969,7 +21958,7 @@
         <v>37.714285714285715</v>
       </c>
     </row>
-    <row r="133" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:14">
       <c r="I133" s="3">
         <v>126</v>
       </c>
@@ -21992,7 +21981,7 @@
         <v>38.571428571428569</v>
       </c>
     </row>
-    <row r="134" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:14">
       <c r="I134" s="3">
         <v>127</v>
       </c>
@@ -22015,7 +22004,7 @@
         <v>39.428571428571431</v>
       </c>
     </row>
-    <row r="135" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:14">
       <c r="I135" s="3">
         <v>128</v>
       </c>
@@ -22038,7 +22027,7 @@
         <v>40.285714285714285</v>
       </c>
     </row>
-    <row r="136" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:14">
       <c r="I136" s="3">
         <v>129</v>
       </c>
@@ -22061,161 +22050,161 @@
         <v>41.142857142857146</v>
       </c>
     </row>
-    <row r="137" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:14">
       <c r="I137" s="3"/>
       <c r="J137" s="4"/>
       <c r="K137" s="13"/>
       <c r="L137" s="20"/>
       <c r="N137" s="8"/>
     </row>
-    <row r="138" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:14">
       <c r="I138" s="3"/>
       <c r="J138" s="4"/>
       <c r="K138" s="13"/>
       <c r="L138" s="20"/>
       <c r="N138" s="8"/>
     </row>
-    <row r="139" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:14">
       <c r="I139" s="3"/>
       <c r="J139" s="4"/>
       <c r="K139" s="13"/>
       <c r="L139" s="20"/>
       <c r="N139" s="8"/>
     </row>
-    <row r="140" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:14">
       <c r="I140" s="3"/>
       <c r="J140" s="4"/>
       <c r="K140" s="13"/>
       <c r="L140" s="20"/>
       <c r="N140" s="8"/>
     </row>
-    <row r="141" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:14">
       <c r="I141" s="3"/>
       <c r="J141" s="4"/>
       <c r="K141" s="13"/>
       <c r="L141" s="20"/>
       <c r="N141" s="8"/>
     </row>
-    <row r="142" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:14">
       <c r="I142" s="3"/>
       <c r="J142" s="4"/>
       <c r="K142" s="13"/>
       <c r="L142" s="20"/>
       <c r="N142" s="8"/>
     </row>
-    <row r="143" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:14">
       <c r="I143" s="3"/>
       <c r="J143" s="4"/>
       <c r="K143" s="13"/>
       <c r="L143" s="20"/>
       <c r="N143" s="8"/>
     </row>
-    <row r="144" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:14">
       <c r="I144" s="3"/>
       <c r="J144" s="4"/>
       <c r="K144" s="13"/>
       <c r="L144" s="20"/>
       <c r="N144" s="8"/>
     </row>
-    <row r="145" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:14">
       <c r="I145" s="3"/>
       <c r="J145" s="4"/>
       <c r="K145" s="13"/>
       <c r="L145" s="20"/>
       <c r="N145" s="8"/>
     </row>
-    <row r="146" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:14">
       <c r="I146" s="3"/>
       <c r="J146" s="4"/>
       <c r="K146" s="13"/>
       <c r="L146" s="20"/>
       <c r="N146" s="8"/>
     </row>
-    <row r="147" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:14">
       <c r="I147" s="3"/>
       <c r="J147" s="4"/>
       <c r="K147" s="13"/>
       <c r="L147" s="20"/>
       <c r="N147" s="8"/>
     </row>
-    <row r="148" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:14">
       <c r="I148" s="3"/>
       <c r="J148" s="4"/>
       <c r="K148" s="13"/>
       <c r="L148" s="20"/>
       <c r="N148" s="8"/>
     </row>
-    <row r="149" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:14">
       <c r="I149" s="3"/>
       <c r="J149" s="4"/>
       <c r="K149" s="13"/>
       <c r="L149" s="20"/>
       <c r="N149" s="8"/>
     </row>
-    <row r="150" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:14">
       <c r="I150" s="3"/>
       <c r="J150" s="4"/>
       <c r="K150" s="13"/>
       <c r="L150" s="20"/>
       <c r="N150" s="8"/>
     </row>
-    <row r="151" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:14">
       <c r="I151" s="3"/>
       <c r="J151" s="4"/>
       <c r="K151" s="13"/>
       <c r="L151" s="20"/>
       <c r="N151" s="8"/>
     </row>
-    <row r="152" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:14">
       <c r="I152" s="3"/>
       <c r="J152" s="4"/>
       <c r="K152" s="13"/>
       <c r="L152" s="20"/>
       <c r="N152" s="8"/>
     </row>
-    <row r="153" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:14">
       <c r="I153" s="3"/>
       <c r="J153" s="4"/>
       <c r="K153" s="13"/>
       <c r="L153" s="20"/>
       <c r="N153" s="8"/>
     </row>
-    <row r="154" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:14">
       <c r="I154" s="3"/>
       <c r="J154" s="4"/>
       <c r="K154" s="13"/>
       <c r="L154" s="20"/>
       <c r="N154" s="8"/>
     </row>
-    <row r="155" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:14">
       <c r="I155" s="3"/>
       <c r="J155" s="4"/>
       <c r="K155" s="13"/>
       <c r="L155" s="20"/>
       <c r="N155" s="8"/>
     </row>
-    <row r="156" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:14">
       <c r="I156" s="3"/>
       <c r="J156" s="4"/>
       <c r="K156" s="13"/>
       <c r="L156" s="20"/>
       <c r="N156" s="8"/>
     </row>
-    <row r="157" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:14">
       <c r="I157" s="3"/>
       <c r="J157" s="4"/>
       <c r="K157" s="13"/>
       <c r="L157" s="20"/>
       <c r="N157" s="8"/>
     </row>
-    <row r="158" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:14">
       <c r="I158" s="3"/>
       <c r="J158" s="4"/>
       <c r="K158" s="13"/>
       <c r="L158" s="20"/>
       <c r="N158" s="8"/>
     </row>
-    <row r="159" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:14">
       <c r="I159" s="3"/>
       <c r="J159" s="4"/>
       <c r="K159" s="13"/>
@@ -22236,11 +22225,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B8B5DE-2DC6-44B1-95E9-B97BFB59448B}">
   <dimension ref="B2:X75"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G75"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
@@ -22259,7 +22248,7 @@
     <col min="24" max="24" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:24">
       <c r="B2" t="s">
         <v>61</v>
       </c>
@@ -22267,7 +22256,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:24" ht="17.25" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -22326,7 +22315,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24">
       <c r="B4" s="3">
         <v>0</v>
       </c>
@@ -22392,7 +22381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24">
       <c r="B5" s="3">
         <v>1</v>
       </c>
@@ -22461,7 +22450,7 @@
         <v>23.80952380952381</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:24">
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -22530,7 +22519,7 @@
         <v>47.61904761904762</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:24">
       <c r="B7" s="3">
         <v>3</v>
       </c>
@@ -22551,8 +22540,48 @@
         <f t="shared" si="0"/>
         <v>250,1,1,1</v>
       </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="N7" t="s">
+        <v>244</v>
+      </c>
+      <c r="O7">
+        <v>60</v>
+      </c>
+      <c r="P7" s="20">
+        <v>100</v>
+      </c>
+      <c r="Q7">
+        <v>0.2</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" ref="R7" si="4">(Q7*P7)*100</f>
+        <v>2000</v>
+      </c>
+      <c r="S7" s="24">
+        <f>($K$11/$K$8)/O7</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="T7" s="20">
+        <f>($K$12/$K$8)/O7</f>
+        <v>1.4</v>
+      </c>
+      <c r="U7" s="26">
+        <f t="shared" ref="U7" si="5">(S7*Q7)*100</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="V7" s="26">
+        <f>(T7*Q7)*$B$9</f>
+        <v>1.4</v>
+      </c>
+      <c r="W7" s="27">
+        <f t="shared" ref="W7" si="6">(P7)/S7</f>
+        <v>120</v>
+      </c>
+      <c r="X7" s="8">
+        <f>(P7/T7)</f>
+        <v>71.428571428571431</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24">
       <c r="B8" s="3">
         <v>4</v>
       </c>
@@ -22580,7 +22609,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24">
       <c r="B9" s="3">
         <v>5</v>
       </c>
@@ -22609,7 +22638,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24">
       <c r="B10" s="3">
         <v>6</v>
       </c>
@@ -22638,7 +22667,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:24">
       <c r="B11" s="3">
         <v>7</v>
       </c>
@@ -22667,7 +22696,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:24">
       <c r="B12" s="3">
         <v>8</v>
       </c>
@@ -22696,7 +22725,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:24">
       <c r="B13" s="3">
         <v>9</v>
       </c>
@@ -22718,7 +22747,7 @@
         <v>550,1,1,1</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24">
       <c r="B14" s="3">
         <v>10</v>
       </c>
@@ -22740,7 +22769,7 @@
         <v>600,1,1,1</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24">
       <c r="B15" s="3">
         <v>11</v>
       </c>
@@ -22762,7 +22791,7 @@
         <v>650,1,1,1</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:24">
       <c r="B16" s="3">
         <v>12</v>
       </c>
@@ -22784,7 +22813,7 @@
         <v>700,1,1,1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7">
       <c r="B17" s="3">
         <v>13</v>
       </c>
@@ -22806,7 +22835,7 @@
         <v>750,1,1,1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7">
       <c r="B18" s="3">
         <v>14</v>
       </c>
@@ -22828,7 +22857,7 @@
         <v>800,1,1,1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7">
       <c r="B19" s="3">
         <v>15</v>
       </c>
@@ -22850,7 +22879,7 @@
         <v>850,1,1,1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="3">
         <v>16</v>
       </c>
@@ -22872,7 +22901,7 @@
         <v>900,1,1,1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="3">
         <v>17</v>
       </c>
@@ -22894,7 +22923,7 @@
         <v>950,1,1,1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7">
       <c r="B22" s="3">
         <v>18</v>
       </c>
@@ -22916,7 +22945,7 @@
         <v>1000,1,1,1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="3">
         <v>19</v>
       </c>
@@ -22938,7 +22967,7 @@
         <v>1100,1,1,1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7">
       <c r="B24" s="3">
         <v>20</v>
       </c>
@@ -22960,7 +22989,7 @@
         <v>1200,1,1,1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7">
       <c r="B25" s="3">
         <v>21</v>
       </c>
@@ -22982,7 +23011,7 @@
         <v>1300,1,1,1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7">
       <c r="B26" s="3">
         <v>22</v>
       </c>
@@ -23004,7 +23033,7 @@
         <v>1400,1,1,1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7">
       <c r="B27" s="3">
         <v>23</v>
       </c>
@@ -23026,7 +23055,7 @@
         <v>1500,1,1,1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7">
       <c r="B28" s="3">
         <v>24</v>
       </c>
@@ -23048,7 +23077,7 @@
         <v>1600,1,1,1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7">
       <c r="B29" s="3">
         <v>25</v>
       </c>
@@ -23070,7 +23099,7 @@
         <v>1700,1,1,1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7">
       <c r="B30" s="3">
         <v>26</v>
       </c>
@@ -23092,7 +23121,7 @@
         <v>1800,1,1,1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7">
       <c r="B31" s="3">
         <v>27</v>
       </c>
@@ -23114,7 +23143,7 @@
         <v>1900,1,1,1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7">
       <c r="B32" s="3">
         <v>28</v>
       </c>
@@ -23136,7 +23165,7 @@
         <v>2000,1,1,1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7">
       <c r="B33" s="3">
         <v>29</v>
       </c>
@@ -23158,7 +23187,7 @@
         <v>2200,1,1,1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7">
       <c r="B34" s="3">
         <v>30</v>
       </c>
@@ -23180,7 +23209,7 @@
         <v>2400,1,1,1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7">
       <c r="B35" s="3">
         <v>31</v>
       </c>
@@ -23202,7 +23231,7 @@
         <v>2600,1,1,1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7">
       <c r="B36" s="3">
         <v>32</v>
       </c>
@@ -23224,7 +23253,7 @@
         <v>2800,1,1,1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7">
       <c r="B37" s="3">
         <v>33</v>
       </c>
@@ -23246,7 +23275,7 @@
         <v>3000,1,1,1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7">
       <c r="B38" s="3">
         <v>34</v>
       </c>
@@ -23268,7 +23297,7 @@
         <v>3200,1,1,1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7">
       <c r="B39" s="3">
         <v>35</v>
       </c>
@@ -23290,7 +23319,7 @@
         <v>3400,1,1,1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7">
       <c r="B40" s="3">
         <v>36</v>
       </c>
@@ -23312,7 +23341,7 @@
         <v>3600,1,1,1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7">
       <c r="B41" s="3">
         <v>37</v>
       </c>
@@ -23334,7 +23363,7 @@
         <v>3800,1,1,1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7">
       <c r="B42" s="3">
         <v>38</v>
       </c>
@@ -23356,7 +23385,7 @@
         <v>4000,1,1,1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7">
       <c r="B43" s="3">
         <v>39</v>
       </c>
@@ -23378,7 +23407,7 @@
         <v>4500,1,1,1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7">
       <c r="B44" s="3">
         <v>40</v>
       </c>
@@ -23400,7 +23429,7 @@
         <v>5000,1,1,1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7">
       <c r="B45" s="3">
         <v>41</v>
       </c>
@@ -23422,7 +23451,7 @@
         <v>5500,1,1,1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7">
       <c r="B46" s="3">
         <v>42</v>
       </c>
@@ -23444,7 +23473,7 @@
         <v>6000,1,1,1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7">
       <c r="B47" s="3">
         <v>43</v>
       </c>
@@ -23466,7 +23495,7 @@
         <v>6500,1,1,1</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7">
       <c r="B48" s="3">
         <v>44</v>
       </c>
@@ -23488,7 +23517,7 @@
         <v>7000,1,1,1</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7">
       <c r="B49" s="3">
         <v>45</v>
       </c>
@@ -23510,7 +23539,7 @@
         <v>7500,1,1,1</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7">
       <c r="B50" s="3">
         <v>46</v>
       </c>
@@ -23532,7 +23561,7 @@
         <v>8000,1,1,1</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7">
       <c r="B51" s="3">
         <v>47</v>
       </c>
@@ -23554,7 +23583,7 @@
         <v>8500,1,1,1</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7">
       <c r="B52" s="3">
         <v>48</v>
       </c>
@@ -23576,7 +23605,7 @@
         <v>9000,1,1,1</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7">
       <c r="B53" s="3">
         <v>49</v>
       </c>
@@ -23598,7 +23627,7 @@
         <v>9500,1,1,1</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7">
       <c r="B54" s="3">
         <v>50</v>
       </c>
@@ -23620,7 +23649,7 @@
         <v>10000,1,1,1</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7">
       <c r="B55" s="3">
         <v>51</v>
       </c>
@@ -23642,7 +23671,7 @@
         <v>11000,1,1,1</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7">
       <c r="B56" s="3">
         <v>52</v>
       </c>
@@ -23664,7 +23693,7 @@
         <v>12000,1,1,1</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7">
       <c r="B57" s="3">
         <v>53</v>
       </c>
@@ -23686,7 +23715,7 @@
         <v>13000,1,1,1</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7">
       <c r="B58" s="3">
         <v>54</v>
       </c>
@@ -23708,7 +23737,7 @@
         <v>14000,1,1,1</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7">
       <c r="B59" s="3">
         <v>55</v>
       </c>
@@ -23730,7 +23759,7 @@
         <v>15000,1,1,1</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7">
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -23752,7 +23781,7 @@
         <v>16000,1,1,1</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7">
       <c r="B61" s="3">
         <v>57</v>
       </c>
@@ -23774,7 +23803,7 @@
         <v>17000,1,1,1</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7">
       <c r="B62" s="3">
         <v>58</v>
       </c>
@@ -23796,7 +23825,7 @@
         <v>18000,1,1,1</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7">
       <c r="B63" s="3">
         <v>59</v>
       </c>
@@ -23818,7 +23847,7 @@
         <v>20000,1,1,1</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7">
       <c r="B64" s="3">
         <v>60</v>
       </c>
@@ -23836,11 +23865,11 @@
         <v>1</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" ref="G64:G75" si="4">C64&amp;","&amp;D64&amp;","&amp;E64&amp;","&amp;F64</f>
+        <f t="shared" ref="G64:G75" si="7">C64&amp;","&amp;D64&amp;","&amp;E64&amp;","&amp;F64</f>
         <v>22000,1,1,1</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7">
       <c r="B65" s="3">
         <v>61</v>
       </c>
@@ -23858,11 +23887,11 @@
         <v>1</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>24000,1,1,1</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7">
       <c r="B66" s="3">
         <v>62</v>
       </c>
@@ -23880,11 +23909,11 @@
         <v>1</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>26000,1,1,1</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7">
       <c r="B67" s="3">
         <v>63</v>
       </c>
@@ -23902,11 +23931,11 @@
         <v>1</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>28000,1,1,1</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7">
       <c r="B68" s="3">
         <v>64</v>
       </c>
@@ -23924,11 +23953,11 @@
         <v>1</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>30000,1,1,1</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7">
       <c r="B69" s="3">
         <v>65</v>
       </c>
@@ -23946,11 +23975,11 @@
         <v>1</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>32000,1,1,1</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7">
       <c r="B70" s="3">
         <v>66</v>
       </c>
@@ -23968,11 +23997,11 @@
         <v>1</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>34000,1,1,1</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7">
       <c r="B71" s="3">
         <v>67</v>
       </c>
@@ -23990,11 +24019,11 @@
         <v>1</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>36000,1,1,1</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7">
       <c r="B72" s="3">
         <v>68</v>
       </c>
@@ -24012,11 +24041,11 @@
         <v>1</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>38000,1,1,1</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7">
       <c r="B73" s="3">
         <v>69</v>
       </c>
@@ -24034,11 +24063,11 @@
         <v>1</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>40000,1,1,1</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7">
       <c r="B74" s="3">
         <v>70</v>
       </c>
@@ -24056,11 +24085,11 @@
         <v>1</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>42000,1,1,1</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7">
       <c r="B75" s="3">
         <v>71</v>
       </c>
@@ -24078,7 +24107,7 @@
         <v>1</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44000,1,1,1</v>
       </c>
     </row>

--- a/Assets/06.Table/DimensionDungeon.xlsx
+++ b/Assets/06.Table/DimensionDungeon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397F0B9D-4B7F-4869-8529-7D221C31EE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0733CF-4089-4E07-9101-79AE274A3EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DimensionDungeon" sheetId="1" r:id="rId1"/>
@@ -1511,10 +1511,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+      <selection pane="bottomLeft" activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4837,10 +4837,10 @@
         <v>9</v>
       </c>
       <c r="C59" s="4">
-        <v>91627566</v>
+        <v>113707262</v>
       </c>
       <c r="D59" s="4">
-        <v>3607380</v>
+        <v>4476660</v>
       </c>
       <c r="E59" s="6">
         <v>0</v>
@@ -4894,10 +4894,10 @@
         <v>10</v>
       </c>
       <c r="C60" s="4">
-        <v>94042452</v>
+        <v>116676276</v>
       </c>
       <c r="D60" s="4">
-        <v>3687930</v>
+        <v>4575540</v>
       </c>
       <c r="E60" s="6">
         <v>0</v>
@@ -4951,10 +4951,10 @@
         <v>11</v>
       </c>
       <c r="C61" s="4">
-        <v>100771726</v>
+        <v>124937190</v>
       </c>
       <c r="D61" s="4">
-        <v>3936390</v>
+        <v>4880350</v>
       </c>
       <c r="E61" s="6">
         <v>0</v>
@@ -5008,10 +5008,10 @@
         <v>0</v>
       </c>
       <c r="C62" s="4">
-        <v>107816372</v>
+        <v>170579632</v>
       </c>
       <c r="D62" s="4">
-        <v>4195180</v>
+        <v>6637330</v>
       </c>
       <c r="E62" s="6">
         <v>0</v>
@@ -5065,10 +5065,10 @@
         <v>1</v>
       </c>
       <c r="C63" s="4">
-        <v>142612080</v>
+        <v>181995264</v>
       </c>
       <c r="D63" s="4">
-        <v>5527600</v>
+        <v>7054080</v>
       </c>
       <c r="E63" s="6">
         <v>0</v>
@@ -5122,10 +5122,10 @@
         <v>2</v>
       </c>
       <c r="C64" s="4">
-        <v>149047590</v>
+        <v>193909099</v>
       </c>
       <c r="D64" s="4">
-        <v>5754730</v>
+        <v>7486830</v>
       </c>
       <c r="E64" s="6">
         <v>0</v>
@@ -5179,10 +5179,10 @@
         <v>3</v>
       </c>
       <c r="C65" s="4">
-        <v>155679437</v>
+        <v>206332963</v>
       </c>
       <c r="D65" s="4">
-        <v>5987670</v>
+        <v>7935880</v>
       </c>
       <c r="E65" s="6">
         <v>0</v>
@@ -5236,10 +5236,10 @@
         <v>4</v>
       </c>
       <c r="C66" s="4">
-        <v>162511101</v>
+        <v>219278789</v>
       </c>
       <c r="D66" s="4">
-        <v>6226470</v>
+        <v>8401480</v>
       </c>
       <c r="E66" s="6">
         <v>0</v>
@@ -5293,10 +5293,10 @@
         <v>5</v>
       </c>
       <c r="C67" s="4">
-        <v>169546092</v>
+        <v>232758620</v>
       </c>
       <c r="D67" s="4">
-        <v>6471220</v>
+        <v>8883910</v>
       </c>
       <c r="E67" s="6">
         <v>0</v>
@@ -5350,10 +5350,10 @@
         <v>6</v>
       </c>
       <c r="C68" s="4">
-        <v>176787942</v>
+        <v>246784603</v>
       </c>
       <c r="D68" s="4">
-        <v>6721970</v>
+        <v>9383440</v>
       </c>
       <c r="E68" s="6">
         <v>0</v>
@@ -5407,10 +5407,10 @@
         <v>7</v>
       </c>
       <c r="C69" s="4">
-        <v>184240214</v>
+        <v>261368997</v>
       </c>
       <c r="D69" s="4">
-        <v>6978790</v>
+        <v>9900340</v>
       </c>
       <c r="E69" s="6">
         <v>0</v>
@@ -5464,10 +5464,10 @@
         <v>8</v>
       </c>
       <c r="C70" s="4">
-        <v>206285937</v>
+        <v>276524166</v>
       </c>
       <c r="D70" s="4">
-        <v>7784370</v>
+        <v>10434870</v>
       </c>
       <c r="E70" s="6">
         <v>0</v>
@@ -5521,10 +5521,10 @@
         <v>9</v>
       </c>
       <c r="C71" s="4">
-        <v>227706994</v>
+        <v>292262584</v>
       </c>
       <c r="D71" s="4">
-        <v>8560410</v>
+        <v>10987310</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
@@ -5578,10 +5578,10 @@
         <v>10</v>
       </c>
       <c r="C72" s="4">
-        <v>250537981</v>
+        <v>308596832</v>
       </c>
       <c r="D72" s="4">
-        <v>9383440</v>
+        <v>11557930</v>
       </c>
       <c r="E72" s="6">
         <v>0</v>
@@ -5635,10 +5635,10 @@
         <v>11</v>
       </c>
       <c r="C73" s="4">
-        <v>274826496</v>
+        <v>325539600</v>
       </c>
       <c r="D73" s="4">
-        <v>10254720</v>
+        <v>12147000</v>
       </c>
       <c r="E73" s="6">
         <v>0</v>
@@ -5695,8 +5695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D215B922-980F-488C-B802-3970C6526C78}">
   <dimension ref="A2:AE75"/>
   <sheetViews>
-    <sheetView topLeftCell="K52" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61:O72"/>
+    <sheetView topLeftCell="F43" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4:W75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7655,7 +7655,6 @@
         <v>21</v>
       </c>
       <c r="Q25" s="3">
-        <f t="shared" ref="Q25:Q59" si="9">Q23+1</f>
         <v>20</v>
       </c>
       <c r="R25" s="3">
@@ -7736,7 +7735,6 @@
         <v>22</v>
       </c>
       <c r="Q26" s="3">
-        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="R26" s="3">
@@ -7817,7 +7815,6 @@
         <v>23</v>
       </c>
       <c r="Q27" s="3">
-        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="R27" s="3">
@@ -7898,7 +7895,6 @@
         <v>24</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="R28" s="3">
@@ -7979,7 +7975,6 @@
         <v>25</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="R29" s="3">
@@ -8049,7 +8044,7 @@
         <v>43</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H43" si="10">H29+0.03</f>
+        <f t="shared" ref="H30:H43" si="9">H29+0.03</f>
         <v>0.46000000000000008</v>
       </c>
       <c r="I30">
@@ -8060,7 +8055,6 @@
         <v>26</v>
       </c>
       <c r="Q30" s="3">
-        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="R30" s="3">
@@ -8130,7 +8124,7 @@
         <v>44</v>
       </c>
       <c r="H31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.4900000000000001</v>
       </c>
       <c r="I31">
@@ -8141,7 +8135,6 @@
         <v>27</v>
       </c>
       <c r="Q31" s="3">
-        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="R31" s="3">
@@ -8211,7 +8204,7 @@
         <v>45</v>
       </c>
       <c r="H32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.52000000000000013</v>
       </c>
       <c r="I32">
@@ -8222,7 +8215,6 @@
         <v>28</v>
       </c>
       <c r="Q32" s="3">
-        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="R32" s="3">
@@ -8292,7 +8284,7 @@
         <v>46</v>
       </c>
       <c r="H33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.55000000000000016</v>
       </c>
       <c r="I33">
@@ -8303,7 +8295,6 @@
         <v>29</v>
       </c>
       <c r="Q33" s="3">
-        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="R33" s="3">
@@ -8373,7 +8364,7 @@
         <v>47</v>
       </c>
       <c r="H34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.58000000000000018</v>
       </c>
       <c r="I34">
@@ -8384,7 +8375,6 @@
         <v>30</v>
       </c>
       <c r="Q34" s="3">
-        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="R34" s="3">
@@ -8454,7 +8444,7 @@
         <v>48</v>
       </c>
       <c r="H35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.61000000000000021</v>
       </c>
       <c r="I35">
@@ -8465,7 +8455,6 @@
         <v>31</v>
       </c>
       <c r="Q35" s="3">
-        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="R35" s="3">
@@ -8535,7 +8524,7 @@
         <v>49</v>
       </c>
       <c r="H36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.64000000000000024</v>
       </c>
       <c r="I36">
@@ -8546,7 +8535,6 @@
         <v>32</v>
       </c>
       <c r="Q36" s="3">
-        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="R36" s="3">
@@ -8556,11 +8544,11 @@
         <v>22.9</v>
       </c>
       <c r="T36" s="12">
-        <f t="shared" ref="T36:T67" si="11">(VLOOKUP(Q36,E:I,5,FALSE)+$L$4+R36*$L$12)*(1+R36*$L$13)*$L$5*(1+R36*$L$14)*$L$6*(1/(1-VLOOKUP(Q36,E:I,4,FALSE)))*S36</f>
+        <f t="shared" ref="T36:T67" si="10">(VLOOKUP(Q36,E:I,5,FALSE)+$L$4+R36*$L$12)*(1+R36*$L$13)*$L$5*(1+R36*$L$14)*$L$6*(1/(1-VLOOKUP(Q36,E:I,4,FALSE)))*S36</f>
         <v>3961463.3666666676</v>
       </c>
       <c r="U36" s="12">
-        <f t="shared" ref="U36:U67" si="12">(VLOOKUP(Q36,E:I,5,FALSE)+$L$4+R36*$L$12)*(1+R36*$L$13)*(1+R36*$L$14)/(1-VLOOKUP(Q36,E:I,4,FALSE))</f>
+        <f t="shared" ref="U36:U67" si="11">(VLOOKUP(Q36,E:I,5,FALSE)+$L$4+R36*$L$12)*(1+R36*$L$13)*(1+R36*$L$14)/(1-VLOOKUP(Q36,E:I,4,FALSE))</f>
         <v>172989.66666666672</v>
       </c>
       <c r="V36" s="13">
@@ -8616,7 +8604,7 @@
         <v>50</v>
       </c>
       <c r="H37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.67000000000000026</v>
       </c>
       <c r="I37">
@@ -8627,7 +8615,6 @@
         <v>33</v>
       </c>
       <c r="Q37" s="3">
-        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="R37" s="3">
@@ -8637,11 +8624,11 @@
         <v>23</v>
       </c>
       <c r="T37" s="12">
+        <f t="shared" si="10"/>
+        <v>4322027.1111111119</v>
+      </c>
+      <c r="U37" s="12">
         <f t="shared" si="11"/>
-        <v>4322027.1111111119</v>
-      </c>
-      <c r="U37" s="12">
-        <f t="shared" si="12"/>
         <v>187914.22222222228</v>
       </c>
       <c r="V37" s="13">
@@ -8697,7 +8684,7 @@
         <v>51</v>
       </c>
       <c r="H38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.70000000000000029</v>
       </c>
       <c r="I38">
@@ -8708,7 +8695,6 @@
         <v>34</v>
       </c>
       <c r="Q38" s="3">
-        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="R38" s="3">
@@ -8718,11 +8704,11 @@
         <v>23.1</v>
       </c>
       <c r="T38" s="12">
+        <f t="shared" si="10"/>
+        <v>5196752.647058825</v>
+      </c>
+      <c r="U38" s="12">
         <f t="shared" si="11"/>
-        <v>5196752.647058825</v>
-      </c>
-      <c r="U38" s="12">
-        <f t="shared" si="12"/>
         <v>224967.64705882358</v>
       </c>
       <c r="V38" s="13">
@@ -8778,7 +8764,7 @@
         <v>52</v>
       </c>
       <c r="H39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.73000000000000032</v>
       </c>
       <c r="I39">
@@ -8789,7 +8775,6 @@
         <v>35</v>
       </c>
       <c r="Q39" s="3">
-        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="R39" s="3">
@@ -8799,11 +8784,11 @@
         <v>23.2</v>
       </c>
       <c r="T39" s="12">
+        <f t="shared" si="10"/>
+        <v>5426764.9960784335</v>
+      </c>
+      <c r="U39" s="12">
         <f t="shared" si="11"/>
-        <v>5426764.9960784335</v>
-      </c>
-      <c r="U39" s="12">
-        <f t="shared" si="12"/>
         <v>233912.28431372557</v>
       </c>
       <c r="V39" s="13">
@@ -8859,7 +8844,7 @@
         <v>53</v>
       </c>
       <c r="H40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.76000000000000034</v>
       </c>
       <c r="I40">
@@ -8870,7 +8855,6 @@
         <v>36</v>
       </c>
       <c r="Q40" s="3">
-        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="R40" s="3">
@@ -8880,11 +8864,11 @@
         <v>23.3000000000001</v>
       </c>
       <c r="T40" s="12">
+        <f t="shared" si="10"/>
+        <v>6286596.3000000296</v>
+      </c>
+      <c r="U40" s="12">
         <f t="shared" si="11"/>
-        <v>6286596.3000000296</v>
-      </c>
-      <c r="U40" s="12">
-        <f t="shared" si="12"/>
         <v>269811.00000000012</v>
       </c>
       <c r="V40" s="13">
@@ -8940,7 +8924,7 @@
         <v>54</v>
       </c>
       <c r="H41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.79000000000000037</v>
       </c>
       <c r="I41">
@@ -8951,7 +8935,6 @@
         <v>37</v>
       </c>
       <c r="Q41" s="3">
-        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="R41" s="3">
@@ -8961,11 +8944,11 @@
         <v>20.399999999999999</v>
       </c>
       <c r="T41" s="12">
+        <f t="shared" si="10"/>
+        <v>5714719.6812500013</v>
+      </c>
+      <c r="U41" s="12">
         <f t="shared" si="11"/>
-        <v>5714719.6812500013</v>
-      </c>
-      <c r="U41" s="12">
-        <f t="shared" si="12"/>
         <v>280133.31770833343</v>
       </c>
       <c r="V41" s="13">
@@ -9021,7 +9004,7 @@
         <v>55</v>
       </c>
       <c r="H42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.8200000000000004</v>
       </c>
       <c r="I42">
@@ -9032,7 +9015,6 @@
         <v>38</v>
       </c>
       <c r="Q42" s="3">
-        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="R42" s="3">
@@ -9042,11 +9024,11 @@
         <v>23.5</v>
       </c>
       <c r="T42" s="12">
+        <f t="shared" si="10"/>
+        <v>7623215.6555555593</v>
+      </c>
+      <c r="U42" s="12">
         <f t="shared" si="11"/>
-        <v>7623215.6555555593</v>
-      </c>
-      <c r="U42" s="12">
-        <f t="shared" si="12"/>
         <v>324392.15555555566</v>
       </c>
       <c r="V42" s="13">
@@ -9102,7 +9084,7 @@
         <v>56</v>
       </c>
       <c r="H43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.85000000000000042</v>
       </c>
       <c r="I43">
@@ -9113,7 +9095,6 @@
         <v>39</v>
       </c>
       <c r="Q43" s="3">
-        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="R43" s="3">
@@ -9123,11 +9104,11 @@
         <v>23.600000000000101</v>
       </c>
       <c r="T43" s="12">
+        <f t="shared" si="10"/>
+        <v>7937712.5000000382</v>
+      </c>
+      <c r="U43" s="12">
         <f t="shared" si="11"/>
-        <v>7937712.5000000382</v>
-      </c>
-      <c r="U43" s="12">
-        <f t="shared" si="12"/>
         <v>336343.75000000012</v>
       </c>
       <c r="V43" s="13">
@@ -9176,7 +9157,6 @@
         <v>40</v>
       </c>
       <c r="Q44" s="3">
-        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="R44" s="3">
@@ -9186,11 +9166,11 @@
         <v>23.7</v>
       </c>
       <c r="T44" s="12">
+        <f t="shared" si="10"/>
+        <v>10198394.400000006</v>
+      </c>
+      <c r="U44" s="12">
         <f t="shared" si="11"/>
-        <v>10198394.400000006</v>
-      </c>
-      <c r="U44" s="12">
-        <f t="shared" si="12"/>
         <v>430312.00000000029</v>
       </c>
       <c r="V44" s="13">
@@ -9239,7 +9219,6 @@
         <v>41</v>
       </c>
       <c r="Q45" s="3">
-        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="R45" s="3">
@@ -9249,11 +9228,11 @@
         <v>23.8000000000001</v>
       </c>
       <c r="T45" s="12">
+        <f t="shared" si="10"/>
+        <v>10596704.066666717</v>
+      </c>
+      <c r="U45" s="12">
         <f t="shared" si="11"/>
-        <v>10596704.066666717</v>
-      </c>
-      <c r="U45" s="12">
-        <f t="shared" si="12"/>
         <v>445239.66666666686</v>
       </c>
       <c r="V45" s="13">
@@ -9302,7 +9281,6 @@
         <v>42</v>
       </c>
       <c r="Q46" s="3">
-        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="R46" s="3">
@@ -9312,11 +9290,11 @@
         <v>23.900000000000102</v>
       </c>
       <c r="T46" s="12">
+        <f t="shared" si="10"/>
+        <v>12488275.800000062</v>
+      </c>
+      <c r="U46" s="12">
         <f t="shared" si="11"/>
-        <v>12488275.800000062</v>
-      </c>
-      <c r="U46" s="12">
-        <f t="shared" si="12"/>
         <v>522522.00000000041</v>
       </c>
       <c r="V46" s="13">
@@ -9365,7 +9343,6 @@
         <v>43</v>
       </c>
       <c r="Q47" s="3">
-        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="R47" s="3">
@@ -9375,11 +9352,11 @@
         <v>24.000000000000099</v>
       </c>
       <c r="T47" s="12">
+        <f t="shared" si="10"/>
+        <v>12960156.615384679</v>
+      </c>
+      <c r="U47" s="12">
         <f t="shared" si="11"/>
-        <v>12960156.615384679</v>
-      </c>
-      <c r="U47" s="12">
-        <f t="shared" si="12"/>
         <v>540006.52564102609</v>
       </c>
       <c r="V47" s="13">
@@ -9428,7 +9405,6 @@
         <v>44</v>
       </c>
       <c r="Q48" s="3">
-        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="R48" s="3">
@@ -9438,11 +9414,11 @@
         <v>24.100000000000101</v>
       </c>
       <c r="T48" s="12">
+        <f t="shared" si="10"/>
+        <v>15368302.222222295</v>
+      </c>
+      <c r="U48" s="12">
         <f t="shared" si="11"/>
-        <v>15368302.222222295</v>
-      </c>
-      <c r="U48" s="12">
-        <f t="shared" si="12"/>
         <v>637688.88888888934</v>
       </c>
       <c r="V48" s="13">
@@ -9491,7 +9467,6 @@
         <v>45</v>
       </c>
       <c r="Q49" s="3">
-        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="R49" s="3">
@@ -9501,11 +9476,11 @@
         <v>24.200000000000099</v>
       </c>
       <c r="T49" s="12">
+        <f t="shared" si="10"/>
+        <v>16439320.822222294</v>
+      </c>
+      <c r="U49" s="12">
         <f t="shared" si="11"/>
-        <v>16439320.822222294</v>
-      </c>
-      <c r="U49" s="12">
-        <f t="shared" si="12"/>
         <v>679310.7777777781</v>
       </c>
       <c r="V49" s="13">
@@ -9554,7 +9529,6 @@
         <v>46</v>
       </c>
       <c r="Q50" s="3">
-        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="R50" s="3">
@@ -9564,11 +9538,11 @@
         <v>24.3000000000001</v>
       </c>
       <c r="T50" s="12">
+        <f t="shared" si="10"/>
+        <v>20228477.563636463</v>
+      </c>
+      <c r="U50" s="12">
         <f t="shared" si="11"/>
-        <v>20228477.563636463</v>
-      </c>
-      <c r="U50" s="12">
-        <f t="shared" si="12"/>
         <v>832447.63636363717</v>
       </c>
       <c r="V50" s="13">
@@ -9617,7 +9591,6 @@
         <v>47</v>
       </c>
       <c r="Q51" s="3">
-        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="R51" s="3">
@@ -9627,11 +9600,11 @@
         <v>24.400000000000102</v>
       </c>
       <c r="T51" s="12">
+        <f t="shared" si="10"/>
+        <v>21563889.660606172</v>
+      </c>
+      <c r="U51" s="12">
         <f t="shared" si="11"/>
-        <v>21563889.660606172</v>
-      </c>
-      <c r="U51" s="12">
-        <f t="shared" si="12"/>
         <v>883765.96969697066</v>
       </c>
       <c r="V51" s="13">
@@ -9680,7 +9653,6 @@
         <v>48</v>
       </c>
       <c r="Q52" s="3">
-        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="R52" s="3">
@@ -9690,11 +9662,11 @@
         <v>24.500000000000099</v>
       </c>
       <c r="T52" s="12">
+        <f t="shared" si="10"/>
+        <v>26689986.40000014</v>
+      </c>
+      <c r="U52" s="12">
         <f t="shared" si="11"/>
-        <v>26689986.40000014</v>
-      </c>
-      <c r="U52" s="12">
-        <f t="shared" si="12"/>
         <v>1089387.2000000014</v>
       </c>
       <c r="V52" s="13">
@@ -9743,7 +9715,6 @@
         <v>49</v>
       </c>
       <c r="Q53" s="3">
-        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="R53" s="3">
@@ -9753,11 +9724,11 @@
         <v>21.6</v>
       </c>
       <c r="T53" s="12">
+        <f t="shared" si="10"/>
+        <v>24904098.000000026</v>
+      </c>
+      <c r="U53" s="12">
         <f t="shared" si="11"/>
-        <v>24904098.000000026</v>
-      </c>
-      <c r="U53" s="12">
-        <f t="shared" si="12"/>
         <v>1152967.5000000012</v>
       </c>
       <c r="V53" s="13">
@@ -9806,7 +9777,6 @@
         <v>50</v>
       </c>
       <c r="Q54" s="3">
-        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="R54" s="3">
@@ -9816,11 +9786,11 @@
         <v>24.700000000000099</v>
       </c>
       <c r="T54" s="12">
+        <f t="shared" si="10"/>
+        <v>39634443.333333537</v>
+      </c>
+      <c r="U54" s="12">
         <f t="shared" si="11"/>
-        <v>39634443.333333537</v>
-      </c>
-      <c r="U54" s="12">
-        <f t="shared" si="12"/>
         <v>1604633.3333333349</v>
       </c>
       <c r="V54" s="13">
@@ -9869,7 +9839,6 @@
         <v>51</v>
       </c>
       <c r="Q55" s="3">
-        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="R55" s="3">
@@ -9879,11 +9848,11 @@
         <v>24.8000000000001</v>
       </c>
       <c r="T55" s="12">
+        <f t="shared" si="10"/>
+        <v>41949728.148148365</v>
+      </c>
+      <c r="U55" s="12">
         <f t="shared" si="11"/>
-        <v>41949728.148148365</v>
-      </c>
-      <c r="U55" s="12">
-        <f t="shared" si="12"/>
         <v>1691521.2962962983</v>
       </c>
       <c r="V55" s="13">
@@ -9932,7 +9901,6 @@
         <v>52</v>
       </c>
       <c r="Q56" s="3">
-        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="R56" s="3">
@@ -9942,11 +9910,11 @@
         <v>24.900000000000102</v>
       </c>
       <c r="T56" s="12">
+        <f t="shared" si="10"/>
+        <v>53050147.200000301</v>
+      </c>
+      <c r="U56" s="12">
         <f t="shared" si="11"/>
-        <v>53050147.200000301</v>
-      </c>
-      <c r="U56" s="12">
-        <f t="shared" si="12"/>
         <v>2130528.0000000037</v>
       </c>
       <c r="V56" s="13">
@@ -9995,7 +9963,6 @@
         <v>53</v>
       </c>
       <c r="Q57" s="3">
-        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="R57" s="3">
@@ -10005,11 +9972,11 @@
         <v>25.000000000000099</v>
       </c>
       <c r="T57" s="12">
+        <f t="shared" si="10"/>
+        <v>56005826.04166697</v>
+      </c>
+      <c r="U57" s="12">
         <f t="shared" si="11"/>
-        <v>56005826.04166697</v>
-      </c>
-      <c r="U57" s="12">
-        <f t="shared" si="12"/>
         <v>2240233.0416666702</v>
       </c>
       <c r="V57" s="13">
@@ -10058,7 +10025,6 @@
         <v>54</v>
       </c>
       <c r="Q58" s="3">
-        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="R58" s="3">
@@ -10068,11 +10034,11 @@
         <v>25.100000000000101</v>
       </c>
       <c r="T58" s="12">
+        <f t="shared" si="10"/>
+        <v>71842773.809524223</v>
+      </c>
+      <c r="U58" s="12">
         <f t="shared" si="11"/>
-        <v>71842773.809524223</v>
-      </c>
-      <c r="U58" s="12">
-        <f t="shared" si="12"/>
         <v>2862261.90476191</v>
       </c>
       <c r="V58" s="13">
@@ -10121,7 +10087,6 @@
         <v>55</v>
       </c>
       <c r="Q59" s="3">
-        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="R59" s="3">
@@ -10131,11 +10096,11 @@
         <v>25.200000000000099</v>
       </c>
       <c r="T59" s="12">
+        <f t="shared" si="10"/>
+        <v>79312646.400000453</v>
+      </c>
+      <c r="U59" s="12">
         <f t="shared" si="11"/>
-        <v>79312646.400000453</v>
-      </c>
-      <c r="U59" s="12">
-        <f t="shared" si="12"/>
         <v>3147327.2380952439</v>
       </c>
       <c r="V59" s="13">
@@ -10193,11 +10158,11 @@
         <v>25.3000000000001</v>
       </c>
       <c r="T60" s="12">
+        <f t="shared" si="10"/>
+        <v>87275588.400000513</v>
+      </c>
+      <c r="U60" s="12">
         <f t="shared" si="11"/>
-        <v>87275588.400000513</v>
-      </c>
-      <c r="U60" s="12">
-        <f t="shared" si="12"/>
         <v>3449628.0000000065</v>
       </c>
       <c r="V60" s="13">
@@ -10246,7 +10211,7 @@
         <v>57</v>
       </c>
       <c r="Q61" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R61" s="3">
         <v>90</v>
@@ -10255,20 +10220,20 @@
         <v>25.400000000000102</v>
       </c>
       <c r="T61" s="12">
+        <f t="shared" si="10"/>
+        <v>113707262.77777848</v>
+      </c>
+      <c r="U61" s="12">
         <f t="shared" si="11"/>
-        <v>91627566.904762417</v>
-      </c>
-      <c r="U61" s="12">
-        <f t="shared" si="12"/>
-        <v>3607384.5238095303</v>
+        <v>4476663.8888888983</v>
       </c>
       <c r="V61" s="13">
         <f t="shared" si="4"/>
-        <v>91627566</v>
+        <v>113707262</v>
       </c>
       <c r="W61" s="13">
         <f t="shared" si="5"/>
-        <v>3607380</v>
+        <v>4476660</v>
       </c>
       <c r="X61" s="4">
         <f>Gacha!C62</f>
@@ -10308,7 +10273,7 @@
         <v>58</v>
       </c>
       <c r="Q62" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R62" s="3">
         <v>91</v>
@@ -10317,20 +10282,20 @@
         <v>25.500000000000099</v>
       </c>
       <c r="T62" s="12">
+        <f t="shared" si="10"/>
+        <v>116676276.37500072</v>
+      </c>
+      <c r="U62" s="12">
         <f t="shared" si="11"/>
-        <v>94042452.696429089</v>
-      </c>
-      <c r="U62" s="12">
-        <f t="shared" si="12"/>
-        <v>3687939.3214285779</v>
+        <v>4575540.2500000102</v>
       </c>
       <c r="V62" s="13">
         <f t="shared" si="4"/>
-        <v>94042452</v>
+        <v>116676276</v>
       </c>
       <c r="W62" s="13">
         <f t="shared" si="5"/>
-        <v>3687930</v>
+        <v>4575540</v>
       </c>
       <c r="X62" s="4">
         <f>Gacha!C63</f>
@@ -10370,7 +10335,7 @@
         <v>59</v>
       </c>
       <c r="Q63" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R63" s="3">
         <v>94</v>
@@ -10379,20 +10344,20 @@
         <v>25.600000000000101</v>
       </c>
       <c r="T63" s="12">
+        <f t="shared" si="10"/>
+        <v>124937190.40000078</v>
+      </c>
+      <c r="U63" s="12">
         <f t="shared" si="11"/>
-        <v>100771726.628572</v>
-      </c>
-      <c r="U63" s="12">
-        <f t="shared" si="12"/>
-        <v>3936395.5714285788</v>
+        <v>4880359.0000000112</v>
       </c>
       <c r="V63" s="13">
         <f t="shared" si="4"/>
-        <v>100771726</v>
+        <v>124937190</v>
       </c>
       <c r="W63" s="13">
         <f t="shared" si="5"/>
-        <v>3936390</v>
+        <v>4880350</v>
       </c>
       <c r="X63" s="4">
         <f>Gacha!C64</f>
@@ -10432,7 +10397,7 @@
         <v>60</v>
       </c>
       <c r="Q64" s="3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R64" s="3">
         <v>97</v>
@@ -10441,20 +10406,20 @@
         <v>25.700000000000099</v>
       </c>
       <c r="T64" s="12">
+        <f t="shared" si="10"/>
+        <v>170579632.86000118</v>
+      </c>
+      <c r="U64" s="12">
         <f t="shared" si="11"/>
-        <v>107816372.90357207</v>
-      </c>
-      <c r="U64" s="12">
-        <f t="shared" si="12"/>
-        <v>4195189.6071428657</v>
+        <v>6637339.8000000203</v>
       </c>
       <c r="V64" s="13">
-        <f t="shared" ref="V64:V75" si="13">ROUNDDOWN(T64,0)</f>
-        <v>107816372</v>
+        <f t="shared" ref="V64:V75" si="12">ROUNDDOWN(T64,0)</f>
+        <v>170579632</v>
       </c>
       <c r="W64" s="13">
-        <f t="shared" ref="W64:W75" si="14">ROUNDDOWN(U64,-1)</f>
-        <v>4195180</v>
+        <f t="shared" ref="W64:W75" si="13">ROUNDDOWN(U64,-1)</f>
+        <v>6637330</v>
       </c>
       <c r="X64" s="4">
         <f>Gacha!C65</f>
@@ -10494,7 +10459,7 @@
         <v>61</v>
       </c>
       <c r="Q65" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R65" s="3">
         <v>100</v>
@@ -10503,20 +10468,20 @@
         <v>25.8000000000001</v>
       </c>
       <c r="T65" s="12">
+        <f t="shared" si="10"/>
+        <v>181995264.00000122</v>
+      </c>
+      <c r="U65" s="12">
         <f t="shared" si="11"/>
-        <v>142612080.00000086</v>
-      </c>
-      <c r="U65" s="12">
+        <v>7054080.0000000196</v>
+      </c>
+      <c r="V65" s="13">
         <f t="shared" si="12"/>
-        <v>5527600.0000000121</v>
-      </c>
-      <c r="V65" s="13">
+        <v>181995264</v>
+      </c>
+      <c r="W65" s="13">
         <f t="shared" si="13"/>
-        <v>142612080</v>
-      </c>
-      <c r="W65" s="13">
-        <f t="shared" si="14"/>
-        <v>5527600</v>
+        <v>7054080</v>
       </c>
       <c r="X65" s="4">
         <f>Gacha!C66</f>
@@ -10558,29 +10523,29 @@
         <v>62</v>
       </c>
       <c r="Q66" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R66" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S66" s="3">
         <v>25.900000000000102</v>
       </c>
       <c r="T66" s="12">
+        <f t="shared" si="10"/>
+        <v>193909099.02000132</v>
+      </c>
+      <c r="U66" s="12">
         <f t="shared" si="11"/>
-        <v>149047590.45555648</v>
-      </c>
-      <c r="U66" s="12">
+        <v>7486837.8000000222</v>
+      </c>
+      <c r="V66" s="13">
         <f t="shared" si="12"/>
-        <v>5754733.222222236</v>
-      </c>
-      <c r="V66" s="13">
+        <v>193909099</v>
+      </c>
+      <c r="W66" s="13">
         <f t="shared" si="13"/>
-        <v>149047590</v>
-      </c>
-      <c r="W66" s="13">
-        <f t="shared" si="14"/>
-        <v>5754730</v>
+        <v>7486830</v>
       </c>
       <c r="X66" s="4">
         <f>Gacha!C67</f>
@@ -10620,29 +10585,29 @@
         <v>63</v>
       </c>
       <c r="Q67" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R67" s="3">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="S67" s="3">
         <v>26.000000000000099</v>
       </c>
       <c r="T67" s="12">
+        <f t="shared" si="10"/>
+        <v>206332963.20000145</v>
+      </c>
+      <c r="U67" s="12">
         <f t="shared" si="11"/>
-        <v>155679437.33333427</v>
-      </c>
-      <c r="U67" s="12">
+        <v>7935883.2000000253</v>
+      </c>
+      <c r="V67" s="13">
         <f t="shared" si="12"/>
-        <v>5987670.66666668</v>
-      </c>
-      <c r="V67" s="13">
+        <v>206332963</v>
+      </c>
+      <c r="W67" s="13">
         <f t="shared" si="13"/>
-        <v>155679437</v>
-      </c>
-      <c r="W67" s="13">
-        <f t="shared" si="14"/>
-        <v>5987670</v>
+        <v>7935880</v>
       </c>
       <c r="X67" s="4">
         <f>Gacha!C68</f>
@@ -10682,29 +10647,29 @@
         <v>64</v>
       </c>
       <c r="Q68" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R68" s="3">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="S68" s="3">
         <v>26.100000000000101</v>
       </c>
       <c r="T68" s="12">
-        <f t="shared" ref="T68:T75" si="15">(VLOOKUP(Q68,E:I,5,FALSE)+$L$4+R68*$L$12)*(1+R68*$L$13)*$L$5*(1+R68*$L$14)*$L$6*(1/(1-VLOOKUP(Q68,E:I,4,FALSE)))*S68</f>
-        <v>162511101.90000102</v>
+        <f t="shared" ref="T68:T75" si="14">(VLOOKUP(Q68,E:I,5,FALSE)+$L$4+R68*$L$12)*(1+R68*$L$13)*$L$5*(1+R68*$L$14)*$L$6*(1/(1-VLOOKUP(Q68,E:I,4,FALSE)))*S68</f>
+        <v>219278789.82000145</v>
       </c>
       <c r="U68" s="12">
-        <f t="shared" ref="U68:U75" si="16">(VLOOKUP(Q68,E:I,5,FALSE)+$L$4+R68*$L$12)*(1+R68*$L$13)*(1+R68*$L$14)/(1-VLOOKUP(Q68,E:I,4,FALSE))</f>
-        <v>6226479.0000000149</v>
+        <f t="shared" ref="U68:U75" si="15">(VLOOKUP(Q68,E:I,5,FALSE)+$L$4+R68*$L$12)*(1+R68*$L$13)*(1+R68*$L$14)/(1-VLOOKUP(Q68,E:I,4,FALSE))</f>
+        <v>8401486.2000000235</v>
       </c>
       <c r="V68" s="13">
+        <f t="shared" si="12"/>
+        <v>219278789</v>
+      </c>
+      <c r="W68" s="13">
         <f t="shared" si="13"/>
-        <v>162511101</v>
-      </c>
-      <c r="W68" s="13">
-        <f t="shared" si="14"/>
-        <v>6226470</v>
+        <v>8401480</v>
       </c>
       <c r="X68" s="4">
         <f>Gacha!C69</f>
@@ -10744,29 +10709,29 @@
         <v>65</v>
       </c>
       <c r="Q69" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R69" s="3">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="S69" s="3">
         <v>26.200000000000099</v>
       </c>
       <c r="T69" s="12">
+        <f t="shared" si="14"/>
+        <v>232758620.16000158</v>
+      </c>
+      <c r="U69" s="12">
         <f t="shared" si="15"/>
-        <v>169546092.08888993</v>
-      </c>
-      <c r="U69" s="12">
-        <f t="shared" si="16"/>
-        <v>6471224.8888889039</v>
+        <v>8883916.8000000268</v>
       </c>
       <c r="V69" s="13">
+        <f t="shared" si="12"/>
+        <v>232758620</v>
+      </c>
+      <c r="W69" s="13">
         <f t="shared" si="13"/>
-        <v>169546092</v>
-      </c>
-      <c r="W69" s="13">
-        <f t="shared" si="14"/>
-        <v>6471220</v>
+        <v>8883910</v>
       </c>
       <c r="X69" s="4">
         <f>Gacha!C70</f>
@@ -10806,29 +10771,29 @@
         <v>66</v>
       </c>
       <c r="Q70" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R70" s="3">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="S70" s="3">
         <v>26.3000000000001</v>
       </c>
       <c r="T70" s="12">
+        <f t="shared" si="14"/>
+        <v>246784603.50000164</v>
+      </c>
+      <c r="U70" s="12">
         <f t="shared" si="15"/>
-        <v>176787942.50000107</v>
-      </c>
-      <c r="U70" s="12">
-        <f t="shared" si="16"/>
-        <v>6721975.0000000149</v>
+        <v>9383445.0000000261</v>
       </c>
       <c r="V70" s="13">
+        <f t="shared" si="12"/>
+        <v>246784603</v>
+      </c>
+      <c r="W70" s="13">
         <f t="shared" si="13"/>
-        <v>176787942</v>
-      </c>
-      <c r="W70" s="13">
-        <f t="shared" si="14"/>
-        <v>6721970</v>
+        <v>9383440</v>
       </c>
       <c r="X70" s="4">
         <f>Gacha!C71</f>
@@ -10868,29 +10833,29 @@
         <v>67</v>
       </c>
       <c r="Q71" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R71" s="3">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="S71" s="3">
         <v>26.400000000000102</v>
       </c>
       <c r="T71" s="12">
+        <f t="shared" si="14"/>
+        <v>261368997.12000176</v>
+      </c>
+      <c r="U71" s="12">
         <f t="shared" si="15"/>
-        <v>184240214.40000114</v>
-      </c>
-      <c r="U71" s="12">
-        <f t="shared" si="16"/>
-        <v>6978796.0000000168</v>
+        <v>9900340.8000000287</v>
       </c>
       <c r="V71" s="13">
+        <f t="shared" si="12"/>
+        <v>261368997</v>
+      </c>
+      <c r="W71" s="13">
         <f t="shared" si="13"/>
-        <v>184240214</v>
-      </c>
-      <c r="W71" s="13">
-        <f t="shared" si="14"/>
-        <v>6978790</v>
+        <v>9900340</v>
       </c>
       <c r="X71" s="4">
         <f>Gacha!C72</f>
@@ -10933,26 +10898,26 @@
         <v>39</v>
       </c>
       <c r="R72" s="3">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="S72" s="3">
         <v>26.500000000000099</v>
       </c>
       <c r="T72" s="12">
+        <f t="shared" si="14"/>
+        <v>276524166.30000192</v>
+      </c>
+      <c r="U72" s="12">
         <f t="shared" si="15"/>
-        <v>206285937.50000137</v>
-      </c>
-      <c r="U72" s="12">
-        <f t="shared" si="16"/>
-        <v>7784375.0000000224</v>
+        <v>10434874.200000031</v>
       </c>
       <c r="V72" s="13">
+        <f t="shared" si="12"/>
+        <v>276524166</v>
+      </c>
+      <c r="W72" s="13">
         <f t="shared" si="13"/>
-        <v>206285937</v>
-      </c>
-      <c r="W72" s="13">
-        <f t="shared" si="14"/>
-        <v>7784370</v>
+        <v>10434870</v>
       </c>
       <c r="X72" s="4">
         <f>Gacha!C73</f>
@@ -10995,26 +10960,26 @@
         <v>39</v>
       </c>
       <c r="R73" s="3">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="S73" s="3">
         <v>26.600000000000101</v>
       </c>
       <c r="T73" s="12">
+        <f t="shared" si="14"/>
+        <v>292262584.32000196</v>
+      </c>
+      <c r="U73" s="12">
         <f t="shared" si="15"/>
-        <v>227706994.66666818</v>
-      </c>
-      <c r="U73" s="12">
-        <f t="shared" si="16"/>
-        <v>8560413.3333333582</v>
+        <v>10987315.200000031</v>
       </c>
       <c r="V73" s="13">
+        <f t="shared" si="12"/>
+        <v>292262584</v>
+      </c>
+      <c r="W73" s="13">
         <f t="shared" si="13"/>
-        <v>227706994</v>
-      </c>
-      <c r="W73" s="13">
-        <f t="shared" si="14"/>
-        <v>8560410</v>
+        <v>10987310</v>
       </c>
       <c r="X73" s="4">
         <f>Gacha!C74</f>
@@ -11057,26 +11022,26 @@
         <v>39</v>
       </c>
       <c r="R74" s="3">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="S74" s="3">
         <v>26.700000000000099</v>
       </c>
       <c r="T74" s="12">
+        <f t="shared" si="14"/>
+        <v>308596832.46000206</v>
+      </c>
+      <c r="U74" s="12">
         <f t="shared" si="15"/>
-        <v>250537981.50000161</v>
-      </c>
-      <c r="U74" s="12">
-        <f t="shared" si="16"/>
-        <v>9383445.0000000261</v>
+        <v>11557933.800000034</v>
       </c>
       <c r="V74" s="13">
+        <f t="shared" si="12"/>
+        <v>308596832</v>
+      </c>
+      <c r="W74" s="13">
         <f t="shared" si="13"/>
-        <v>250537981</v>
-      </c>
-      <c r="W74" s="13">
-        <f t="shared" si="14"/>
-        <v>9383440</v>
+        <v>11557930</v>
       </c>
       <c r="X74" s="4">
         <f>Gacha!C75</f>
@@ -11119,26 +11084,26 @@
         <v>39</v>
       </c>
       <c r="R75" s="3">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="S75" s="3">
         <v>26.8000000000001</v>
       </c>
       <c r="T75" s="12">
+        <f t="shared" si="14"/>
+        <v>325539600.00000215</v>
+      </c>
+      <c r="U75" s="12">
         <f t="shared" si="15"/>
-        <v>274826496.00000185</v>
-      </c>
-      <c r="U75" s="12">
-        <f t="shared" si="16"/>
-        <v>10254720.000000028</v>
+        <v>12147000.000000034</v>
       </c>
       <c r="V75" s="13">
+        <f t="shared" si="12"/>
+        <v>325539600</v>
+      </c>
+      <c r="W75" s="13">
         <f t="shared" si="13"/>
-        <v>274826496</v>
-      </c>
-      <c r="W75" s="13">
-        <f t="shared" si="14"/>
-        <v>10254720</v>
+        <v>12147000</v>
       </c>
       <c r="X75" s="4">
         <f>Gacha!C76</f>
@@ -22225,7 +22190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B8B5DE-2DC6-44B1-95E9-B97BFB59448B}">
   <dimension ref="B2:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
